--- a/lab3/Lab3-flu-yo.xlsx
+++ b/lab3/Lab3-flu-yo.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\USER\Desktop\LABFLUID\lab3\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BC9210DE-1A06-43FF-81EB-1C404FE96122}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A7353A12-3F73-47CD-AF26-16A81C4C7CE8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="5292" yWindow="2496" windowWidth="17304" windowHeight="8892" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="28">
   <si>
     <t>น้ำหนักเรือWs</t>
   </si>
@@ -59,9 +59,6 @@
     <t>ระยะจุดศูนย์ถ่วงถึงท้องเรือ</t>
   </si>
   <si>
-    <t>อัตราส่วนw ต่อ wj    R</t>
-  </si>
-  <si>
     <t>หน่วย</t>
   </si>
   <si>
@@ -79,11 +76,57 @@
   <si>
     <t>ระยะนำหนักเลื่อนจากแนวศูนย์กลางเรือ x1 มม</t>
   </si>
+  <si>
+    <t>ผลการทดลอง</t>
+  </si>
+  <si>
+    <t>อัตราส่วนwต่อwj  R</t>
+  </si>
+  <si>
+    <t>รายชื่อตัวแปร</t>
+  </si>
+  <si>
+    <t>โมเมนต์ที่สองของพื้นที่,(มม.4)  I</t>
+  </si>
+  <si>
+    <t>ปริมาตรน้ำที่ถูกแทนที่, (มม.3)  V</t>
+  </si>
+  <si>
+    <t>ระยะจากจุดเมตาเซนเตอร์ (M) ถึงจุดศูนย์กลางการลอยตัว (B), (มม)  BM</t>
+  </si>
+  <si>
+    <t>ความลึกเรือที่จม, (มม.)   OC</t>
+  </si>
+  <si>
+    <t>ความลึกของจุดศูนย์กลางการลอยตัว, (มม.)   OB</t>
+  </si>
+  <si>
+    <t>ระยะจากน้ำหนักเลื่อนถึงท้องเรือ Y1 (มม.)</t>
+  </si>
+  <si>
+    <t>ระยะจากจุด G ถึงผิวน้ำ CG (มม.)</t>
+  </si>
+  <si>
+    <t>ระยะเมตาเซนตริก   GM (มม.)</t>
+  </si>
+  <si>
+    <t>ระยะจากจุด M ถึงผิวน้ำ    CM (มม.)</t>
+  </si>
+  <si>
+    <t>ระยะจากจุดศูนย์ถาวง (G) ถึงท้องเรือ Y bar (มม.)</t>
+  </si>
+  <si>
+    <t>dx1/d0                           มม./องศา</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <numFmts count="2">
+    <numFmt numFmtId="187" formatCode="0.0"/>
+    <numFmt numFmtId="188" formatCode="0.000"/>
+  </numFmts>
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -93,15 +136,51 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="8">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="1"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="5">
     <border>
       <left/>
       <right/>
@@ -109,18 +188,129 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="24">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="187" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="187" fontId="0" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="187" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="188" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="0" fillId="7" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="188" fontId="0" fillId="7" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="187" fontId="0" fillId="7" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="188" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -136,6 +326,2557 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="th-TH"/>
+              <a:t>หน้า3-8</a:t>
+            </a:r>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="th-TH"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$F$5</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>56.0</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:trendline>
+            <c:spPr>
+              <a:ln w="19050" cap="rnd">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+                <a:prstDash val="sysDot"/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:trendlineType val="linear"/>
+            <c:dispRSqr val="0"/>
+            <c:dispEq val="0"/>
+          </c:trendline>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Sheet1!$G$4:$S$4</c:f>
+              <c:numCache>
+                <c:formatCode>0.0</c:formatCode>
+                <c:ptCount val="13"/>
+                <c:pt idx="0">
+                  <c:v>-45</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>-37.5</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>-30</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>-22.5</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>-15</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>-7.5</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>7.5</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>22.5</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>30</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>37.5</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>45</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sheet1!$G$5:$S$5</c:f>
+              <c:numCache>
+                <c:formatCode>0.0</c:formatCode>
+                <c:ptCount val="13"/>
+                <c:pt idx="0">
+                  <c:v>-8</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>-6.5</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>-5.2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>-3.7</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>-2.5</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>-1.3</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>1.2</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>2.5</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>3.6</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>5.0999999999999996</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>6.5</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>8</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-C389-4F03-A09C-659C606E30F6}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$F$6</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>153.0</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="25400" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent2"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:trendline>
+            <c:spPr>
+              <a:ln w="19050" cap="rnd">
+                <a:solidFill>
+                  <a:schemeClr val="accent2"/>
+                </a:solidFill>
+                <a:prstDash val="sysDot"/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:trendlineType val="linear"/>
+            <c:dispRSqr val="0"/>
+            <c:dispEq val="0"/>
+          </c:trendline>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Sheet1!$H$4:$R$4</c:f>
+              <c:numCache>
+                <c:formatCode>0.0</c:formatCode>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>-37.5</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>-30</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>-22.5</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>-15</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>-7.5</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>7.5</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>22.5</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>30</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>37.5</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sheet1!$H$6:$R$6</c:f>
+              <c:numCache>
+                <c:formatCode>0.0</c:formatCode>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>-7.9</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>-6.2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>-4.7</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>-3.2</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>-1.5</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1.5</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>4.5</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>7.6</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-C389-4F03-A09C-659C606E30F6}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$F$7</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>208.0</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="25400" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent3"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:trendline>
+            <c:spPr>
+              <a:ln w="19050" cap="rnd">
+                <a:solidFill>
+                  <a:schemeClr val="accent3"/>
+                </a:solidFill>
+                <a:prstDash val="sysDot"/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:trendlineType val="linear"/>
+            <c:dispRSqr val="0"/>
+            <c:dispEq val="0"/>
+          </c:trendline>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Sheet1!$I$4:$Q$4</c:f>
+              <c:numCache>
+                <c:formatCode>0.0</c:formatCode>
+                <c:ptCount val="9"/>
+                <c:pt idx="0">
+                  <c:v>-30</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>-22.5</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>-15</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>-7.5</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>7.5</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>22.5</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>30</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sheet1!$I$7:$Q$7</c:f>
+              <c:numCache>
+                <c:formatCode>0.0</c:formatCode>
+                <c:ptCount val="9"/>
+                <c:pt idx="0">
+                  <c:v>-7.7</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>-5.7</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>-3.7</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>-2</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1.9</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>3.5</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>3.6</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>7.4</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-C389-4F03-A09C-659C606E30F6}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$F$8</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>263.5</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="25400" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent4"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent4"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:trendline>
+            <c:spPr>
+              <a:ln w="19050" cap="rnd">
+                <a:solidFill>
+                  <a:schemeClr val="accent4"/>
+                </a:solidFill>
+                <a:prstDash val="sysDot"/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:trendlineType val="linear"/>
+            <c:dispRSqr val="0"/>
+            <c:dispEq val="0"/>
+          </c:trendline>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Sheet1!$J$4:$P$4</c:f>
+              <c:numCache>
+                <c:formatCode>0.0</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>-22.5</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>-15</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>-7.5</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>7.5</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>22.5</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sheet1!$J$8:$P$8</c:f>
+              <c:numCache>
+                <c:formatCode>0.0</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>-7.1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>-4.9000000000000004</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>-2.6</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2.4</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>4.5</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>6.9</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000003-C389-4F03-A09C-659C606E30F6}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="4"/>
+          <c:order val="4"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$F$9</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>319.0</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="25400" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent5"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent5"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:trendline>
+            <c:spPr>
+              <a:ln w="19050" cap="rnd">
+                <a:solidFill>
+                  <a:schemeClr val="accent5"/>
+                </a:solidFill>
+                <a:prstDash val="sysDot"/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:trendlineType val="linear"/>
+            <c:dispRSqr val="0"/>
+            <c:dispEq val="0"/>
+          </c:trendline>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Sheet1!$K$4:$O$4</c:f>
+              <c:numCache>
+                <c:formatCode>0.0</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>-15</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>-7.5</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>7.5</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>15</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sheet1!$K$9:$O$9</c:f>
+              <c:numCache>
+                <c:formatCode>0.0</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>-6.5</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>-3.7</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>3.4</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>6.2</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000004-C389-4F03-A09C-659C606E30F6}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="1608400607"/>
+        <c:axId val="1512251503"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="1608400607"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:minorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="5000"/>
+                  <a:lumOff val="95000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:minorGridlines>
+        <c:numFmt formatCode="0.0" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="th-TH"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1512251503"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+        <c:majorUnit val="10"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="1512251503"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:max val="12"/>
+          <c:min val="-12"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:minorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="5000"/>
+                  <a:lumOff val="95000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:minorGridlines>
+        <c:numFmt formatCode="0.0" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="th-TH"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1608400607"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+        <c:majorUnit val="2"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="th-TH"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="th-TH"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="th-TH"/>
+              <a:t>หน้า3-9</a:t>
+            </a:r>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="th-TH"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:trendline>
+            <c:spPr>
+              <a:ln w="19050" cap="rnd">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+                <a:prstDash val="sysDot"/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:trendlineType val="linear"/>
+            <c:backward val="17"/>
+            <c:dispRSqr val="0"/>
+            <c:dispEq val="1"/>
+            <c:trendlineLbl>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="6.24071368672277E-3"/>
+                  <c:y val="-0.35632495022173954"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:numFmt formatCode="General" sourceLinked="0"/>
+              <c:spPr>
+                <a:noFill/>
+                <a:ln>
+                  <a:noFill/>
+                </a:ln>
+                <a:effectLst/>
+              </c:spPr>
+              <c:txPr>
+                <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+                <a:lstStyle/>
+                <a:p>
+                  <a:pPr>
+                    <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="65000"/>
+                          <a:lumOff val="35000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:latin typeface="+mn-lt"/>
+                      <a:ea typeface="+mn-ea"/>
+                      <a:cs typeface="+mn-cs"/>
+                    </a:defRPr>
+                  </a:pPr>
+                  <a:endParaRPr lang="th-TH"/>
+                </a:p>
+              </c:txPr>
+            </c:trendlineLbl>
+          </c:trendline>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Sheet1!$K$22:$K$26</c:f>
+              <c:numCache>
+                <c:formatCode>0.000</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>42.412500000000001</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>36.483870967741936</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>29.960264900662246</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>24.235714285714288</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>17.811023622047244</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sheet1!$I$22:$I$26</c:f>
+              <c:numCache>
+                <c:formatCode>0.000</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>-13.062998175357723</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>-0.19827668994658865</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>7.096153018276226</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>14.456895723846522</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>21.81763842941681</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-5211-48BA-95B3-C784DA0CFA95}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="1617128479"/>
+        <c:axId val="2091191471"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="1617128479"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:max val="50"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="0.000" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="th-TH"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="2091191471"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+        <c:majorUnit val="5"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="2091191471"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:max val="80"/>
+          <c:min val="-20"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="0.000" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="th-TH"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1617128479"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="th-TH"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>381000</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>137160</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>54</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="6" name="Chart 5">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4D851DC1-141B-6454-4C3E-ECDCB5F4EBFC}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>598170</xdr:colOff>
+      <xdr:row>29</xdr:row>
+      <xdr:rowOff>167640</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>247650</xdr:colOff>
+      <xdr:row>50</xdr:row>
+      <xdr:rowOff>22860</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="7" name="Chart 6">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3D8E84F3-CA5B-950D-D1C6-72E1ADC0AD6F}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -435,199 +3176,1982 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2FC29112-2AE5-DD4D-A7F0-10D3E464D529}">
-  <dimension ref="B2:S11"/>
+  <dimension ref="A1:AA56"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="150" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="F2" sqref="F2:F4"/>
+    <sheetView tabSelected="1" topLeftCell="A4" zoomScale="55" zoomScaleNormal="55" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection activeCell="Q21" sqref="Q21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="19.796875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="35.09765625" customWidth="1"/>
+    <col min="3" max="3" width="11.3984375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="9.8984375" customWidth="1"/>
+    <col min="5" max="5" width="12.19921875" customWidth="1"/>
     <col min="6" max="6" width="14.8984375" customWidth="1"/>
+    <col min="10" max="10" width="9.69921875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:19" ht="48" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="D2" t="s">
+    <row r="1" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="A1" s="22"/>
+      <c r="B1" s="22"/>
+      <c r="C1" s="7"/>
+      <c r="D1" s="7"/>
+      <c r="E1" s="7"/>
+      <c r="F1" s="7"/>
+      <c r="G1" s="7"/>
+      <c r="H1" s="7"/>
+      <c r="I1" s="7"/>
+      <c r="J1" s="7"/>
+      <c r="K1" s="7"/>
+      <c r="L1" s="7"/>
+      <c r="M1" s="7"/>
+      <c r="N1" s="7"/>
+      <c r="O1" s="7"/>
+      <c r="P1" s="7"/>
+      <c r="Q1" s="7"/>
+      <c r="R1" s="7"/>
+      <c r="S1" s="7"/>
+      <c r="T1" s="7"/>
+      <c r="U1" s="23"/>
+      <c r="V1" s="23"/>
+      <c r="W1" s="23"/>
+      <c r="X1" s="23"/>
+      <c r="Y1" s="23"/>
+      <c r="Z1" s="23"/>
+      <c r="AA1" s="23"/>
+    </row>
+    <row r="2" spans="1:27" ht="48" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="7"/>
+      <c r="B2" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="C2" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="D2" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="E2" s="7"/>
+      <c r="F2" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="G2" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="H2" s="3"/>
+      <c r="I2" s="3"/>
+      <c r="J2" s="3"/>
+      <c r="K2" s="3"/>
+      <c r="L2" s="3"/>
+      <c r="M2" s="3"/>
+      <c r="N2" s="3"/>
+      <c r="O2" s="3"/>
+      <c r="P2" s="3"/>
+      <c r="Q2" s="3"/>
+      <c r="R2" s="3"/>
+      <c r="S2" s="3"/>
+      <c r="T2" s="7"/>
+      <c r="U2" s="23"/>
+      <c r="V2" s="23"/>
+      <c r="W2" s="23"/>
+      <c r="X2" s="23"/>
+      <c r="Y2" s="23"/>
+      <c r="Z2" s="23"/>
+      <c r="AA2" s="23"/>
+    </row>
+    <row r="3" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="A3" s="7"/>
+      <c r="B3" s="9" t="s">
+        <v>0</v>
+      </c>
+      <c r="C3" s="10">
+        <v>2472</v>
+      </c>
+      <c r="D3" s="9" t="s">
         <v>9</v>
       </c>
-      <c r="F2" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="G2" s="2" t="s">
+      <c r="E3" s="7"/>
+      <c r="F3" s="2"/>
+      <c r="G3" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="H2" s="2"/>
-      <c r="I2" s="2"/>
-      <c r="J2" s="2"/>
-      <c r="K2" s="2"/>
-      <c r="L2" s="2"/>
-      <c r="M2" s="2"/>
-      <c r="N2" s="2"/>
-      <c r="O2" s="2"/>
-      <c r="P2" s="2"/>
-      <c r="Q2" s="2"/>
-      <c r="R2" s="2"/>
-      <c r="S2" s="2"/>
-    </row>
-    <row r="3" spans="2:19" x14ac:dyDescent="0.25">
-      <c r="B3" t="s">
+      <c r="H3" s="4"/>
+      <c r="I3" s="4"/>
+      <c r="J3" s="4"/>
+      <c r="K3" s="4"/>
+      <c r="L3" s="4"/>
+      <c r="M3" s="4"/>
+      <c r="N3" s="4"/>
+      <c r="O3" s="4"/>
+      <c r="P3" s="4"/>
+      <c r="Q3" s="4"/>
+      <c r="R3" s="4"/>
+      <c r="S3" s="4"/>
+      <c r="T3" s="7"/>
+      <c r="U3" s="23"/>
+      <c r="V3" s="23"/>
+      <c r="W3" s="23"/>
+      <c r="X3" s="23"/>
+      <c r="Y3" s="23"/>
+      <c r="Z3" s="23"/>
+      <c r="AA3" s="23"/>
+    </row>
+    <row r="4" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="A4" s="7"/>
+      <c r="B4" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="C4" s="10">
+        <v>388</v>
+      </c>
+      <c r="D4" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="E4" s="7"/>
+      <c r="F4" s="2"/>
+      <c r="G4" s="5">
+        <v>-45</v>
+      </c>
+      <c r="H4" s="5">
+        <v>-37.5</v>
+      </c>
+      <c r="I4" s="5">
+        <v>-30</v>
+      </c>
+      <c r="J4" s="5">
+        <v>-22.5</v>
+      </c>
+      <c r="K4" s="5">
+        <v>-15</v>
+      </c>
+      <c r="L4" s="5">
+        <v>-7.5</v>
+      </c>
+      <c r="M4" s="5">
         <v>0</v>
       </c>
-      <c r="C3">
-        <v>2472</v>
-      </c>
-      <c r="D3" t="s">
+      <c r="N4" s="5">
+        <v>7.5</v>
+      </c>
+      <c r="O4" s="5">
+        <v>15</v>
+      </c>
+      <c r="P4" s="5">
+        <v>22.5</v>
+      </c>
+      <c r="Q4" s="5">
+        <v>30</v>
+      </c>
+      <c r="R4" s="5">
+        <v>37.5</v>
+      </c>
+      <c r="S4" s="5">
+        <v>45</v>
+      </c>
+      <c r="T4" s="7"/>
+      <c r="U4" s="23"/>
+      <c r="V4" s="23"/>
+      <c r="W4" s="23"/>
+      <c r="X4" s="23"/>
+      <c r="Y4" s="23"/>
+      <c r="Z4" s="23"/>
+      <c r="AA4" s="23"/>
+    </row>
+    <row r="5" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="A5" s="7"/>
+      <c r="B5" s="9" t="s">
+        <v>2</v>
+      </c>
+      <c r="C5" s="10">
+        <v>66</v>
+      </c>
+      <c r="D5" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="E5" s="7"/>
+      <c r="F5" s="5">
+        <v>56</v>
+      </c>
+      <c r="G5" s="6">
+        <v>-8</v>
+      </c>
+      <c r="H5" s="6">
+        <v>-6.5</v>
+      </c>
+      <c r="I5" s="6">
+        <v>-5.2</v>
+      </c>
+      <c r="J5" s="6">
+        <v>-3.7</v>
+      </c>
+      <c r="K5" s="6">
+        <v>-2.5</v>
+      </c>
+      <c r="L5" s="6">
+        <v>-1.3</v>
+      </c>
+      <c r="M5" s="6">
+        <v>0</v>
+      </c>
+      <c r="N5" s="6">
+        <v>1.2</v>
+      </c>
+      <c r="O5" s="6">
+        <v>2.5</v>
+      </c>
+      <c r="P5" s="6">
+        <v>3.6</v>
+      </c>
+      <c r="Q5" s="6">
+        <v>5.0999999999999996</v>
+      </c>
+      <c r="R5" s="6">
+        <v>6.5</v>
+      </c>
+      <c r="S5" s="6">
+        <v>8</v>
+      </c>
+      <c r="T5" s="7"/>
+      <c r="U5" s="23"/>
+      <c r="V5" s="23"/>
+      <c r="W5" s="23"/>
+      <c r="X5" s="23"/>
+      <c r="Y5" s="23"/>
+      <c r="Z5" s="23"/>
+      <c r="AA5" s="23"/>
+    </row>
+    <row r="6" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="A6" s="7"/>
+      <c r="B6" s="9" t="s">
+        <v>3</v>
+      </c>
+      <c r="C6" s="10">
+        <v>2926</v>
+      </c>
+      <c r="D6" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="E6" s="7"/>
+      <c r="F6" s="5">
+        <v>153</v>
+      </c>
+      <c r="G6" s="15"/>
+      <c r="H6" s="6">
+        <v>-7.9</v>
+      </c>
+      <c r="I6" s="6">
+        <v>-6.2</v>
+      </c>
+      <c r="J6" s="6">
+        <v>-4.7</v>
+      </c>
+      <c r="K6" s="6">
+        <v>-3.2</v>
+      </c>
+      <c r="L6" s="6">
+        <v>-1.5</v>
+      </c>
+      <c r="M6" s="6">
+        <v>0</v>
+      </c>
+      <c r="N6" s="6">
+        <v>1.5</v>
+      </c>
+      <c r="O6" s="6">
+        <v>3</v>
+      </c>
+      <c r="P6" s="6">
+        <v>4.5</v>
+      </c>
+      <c r="Q6" s="6">
+        <v>6</v>
+      </c>
+      <c r="R6" s="6">
+        <v>7.6</v>
+      </c>
+      <c r="S6" s="15"/>
+      <c r="T6" s="7"/>
+      <c r="U6" s="23"/>
+      <c r="V6" s="23"/>
+      <c r="W6" s="23"/>
+      <c r="X6" s="23"/>
+      <c r="Y6" s="23"/>
+      <c r="Z6" s="23"/>
+      <c r="AA6" s="23"/>
+    </row>
+    <row r="7" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="A7" s="7"/>
+      <c r="B7" s="9" t="s">
+        <v>4</v>
+      </c>
+      <c r="C7" s="10">
+        <v>198</v>
+      </c>
+      <c r="D7" s="9" t="s">
         <v>10</v>
       </c>
-      <c r="F3" s="1"/>
-      <c r="G3" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="H3" s="2"/>
-      <c r="I3" s="2"/>
-      <c r="J3" s="2"/>
-      <c r="K3" s="2"/>
-      <c r="L3" s="2"/>
-      <c r="M3" s="2"/>
-      <c r="N3" s="2"/>
-      <c r="O3" s="2"/>
-      <c r="P3" s="2"/>
-      <c r="Q3" s="2"/>
-      <c r="R3" s="2"/>
-      <c r="S3" s="2"/>
-    </row>
-    <row r="4" spans="2:19" x14ac:dyDescent="0.25">
-      <c r="B4" t="s">
-        <v>1</v>
-      </c>
-      <c r="C4">
-        <v>388</v>
-      </c>
-      <c r="D4" t="s">
+      <c r="E7" s="7"/>
+      <c r="F7" s="5">
+        <v>208</v>
+      </c>
+      <c r="G7" s="15"/>
+      <c r="H7" s="15"/>
+      <c r="I7" s="6">
+        <v>-7.7</v>
+      </c>
+      <c r="J7" s="6">
+        <v>-5.7</v>
+      </c>
+      <c r="K7" s="6">
+        <v>-3.7</v>
+      </c>
+      <c r="L7" s="6">
+        <v>-2</v>
+      </c>
+      <c r="M7" s="6">
+        <v>0</v>
+      </c>
+      <c r="N7" s="6">
+        <v>1.9</v>
+      </c>
+      <c r="O7" s="6">
+        <v>3.5</v>
+      </c>
+      <c r="P7" s="6">
+        <v>3.6</v>
+      </c>
+      <c r="Q7" s="6">
+        <v>7.4</v>
+      </c>
+      <c r="R7" s="15"/>
+      <c r="S7" s="15"/>
+      <c r="T7" s="7"/>
+      <c r="U7" s="23"/>
+      <c r="V7" s="23"/>
+      <c r="W7" s="23"/>
+      <c r="X7" s="23"/>
+      <c r="Y7" s="23"/>
+      <c r="Z7" s="23"/>
+      <c r="AA7" s="23"/>
+    </row>
+    <row r="8" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="A8" s="7"/>
+      <c r="B8" s="9" t="s">
+        <v>5</v>
+      </c>
+      <c r="C8" s="10">
+        <v>356</v>
+      </c>
+      <c r="D8" s="9" t="s">
         <v>10</v>
       </c>
-      <c r="F4" s="1"/>
-      <c r="G4">
-        <v>-45</v>
-      </c>
-      <c r="H4">
-        <v>-37.5</v>
-      </c>
-      <c r="I4">
-        <v>-30</v>
-      </c>
-      <c r="J4">
-        <v>-22.5</v>
-      </c>
-      <c r="K4">
-        <v>-15</v>
-      </c>
-      <c r="L4">
-        <v>-7.5</v>
-      </c>
-      <c r="M4">
+      <c r="E8" s="7"/>
+      <c r="F8" s="5">
+        <v>263.5</v>
+      </c>
+      <c r="G8" s="15"/>
+      <c r="H8" s="15"/>
+      <c r="I8" s="15"/>
+      <c r="J8" s="6">
+        <v>-7.1</v>
+      </c>
+      <c r="K8" s="6">
+        <v>-4.9000000000000004</v>
+      </c>
+      <c r="L8" s="6">
+        <v>-2.6</v>
+      </c>
+      <c r="M8" s="6">
         <v>0</v>
       </c>
-      <c r="N4">
-        <v>7.5</v>
-      </c>
-      <c r="O4">
+      <c r="N8" s="6">
+        <v>2.4</v>
+      </c>
+      <c r="O8" s="6">
+        <v>4.5</v>
+      </c>
+      <c r="P8" s="6">
+        <v>6.9</v>
+      </c>
+      <c r="Q8" s="15"/>
+      <c r="R8" s="15"/>
+      <c r="S8" s="15"/>
+      <c r="T8" s="7"/>
+      <c r="U8" s="23"/>
+      <c r="V8" s="23"/>
+      <c r="W8" s="23"/>
+      <c r="X8" s="23"/>
+      <c r="Y8" s="23"/>
+      <c r="Z8" s="23"/>
+      <c r="AA8" s="23"/>
+    </row>
+    <row r="9" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="A9" s="7"/>
+      <c r="B9" s="9" t="s">
+        <v>6</v>
+      </c>
+      <c r="C9" s="10">
+        <v>2</v>
+      </c>
+      <c r="D9" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="E9" s="7"/>
+      <c r="F9" s="5">
+        <v>319</v>
+      </c>
+      <c r="G9" s="15"/>
+      <c r="H9" s="15"/>
+      <c r="I9" s="15"/>
+      <c r="J9" s="15"/>
+      <c r="K9" s="6">
+        <v>-6.5</v>
+      </c>
+      <c r="L9" s="6">
+        <v>-3.7</v>
+      </c>
+      <c r="M9" s="6">
+        <v>0</v>
+      </c>
+      <c r="N9" s="6">
+        <v>3.4</v>
+      </c>
+      <c r="O9" s="6">
+        <v>6.2</v>
+      </c>
+      <c r="P9" s="15"/>
+      <c r="Q9" s="15"/>
+      <c r="R9" s="15"/>
+      <c r="S9" s="15"/>
+      <c r="T9" s="7"/>
+      <c r="U9" s="23"/>
+      <c r="V9" s="23"/>
+      <c r="W9" s="23"/>
+      <c r="X9" s="23"/>
+      <c r="Y9" s="23"/>
+      <c r="Z9" s="23"/>
+      <c r="AA9" s="23"/>
+    </row>
+    <row r="10" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="A10" s="7"/>
+      <c r="B10" s="9" t="s">
+        <v>7</v>
+      </c>
+      <c r="C10" s="10">
+        <v>43.5</v>
+      </c>
+      <c r="D10" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="E10" s="7"/>
+      <c r="F10" s="7"/>
+      <c r="G10" s="7"/>
+      <c r="H10" s="7"/>
+      <c r="I10" s="7"/>
+      <c r="J10" s="7"/>
+      <c r="K10" s="7"/>
+      <c r="L10" s="7"/>
+      <c r="M10" s="7"/>
+      <c r="N10" s="7"/>
+      <c r="O10" s="7"/>
+      <c r="P10" s="7"/>
+      <c r="Q10" s="7"/>
+      <c r="R10" s="7"/>
+      <c r="S10" s="7"/>
+      <c r="T10" s="7"/>
+      <c r="U10" s="23"/>
+      <c r="V10" s="23"/>
+      <c r="W10" s="23"/>
+      <c r="X10" s="23"/>
+      <c r="Y10" s="23"/>
+      <c r="Z10" s="23"/>
+      <c r="AA10" s="23"/>
+    </row>
+    <row r="11" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="A11" s="7"/>
+      <c r="B11" s="9" t="s">
         <v>15</v>
       </c>
-      <c r="P4">
-        <v>22.5</v>
-      </c>
-      <c r="Q4">
-        <v>30</v>
-      </c>
-      <c r="R4">
-        <v>37.5</v>
-      </c>
-      <c r="S4">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="5" spans="2:19" x14ac:dyDescent="0.25">
-      <c r="B5" t="s">
-        <v>2</v>
-      </c>
-      <c r="C5">
-        <v>66</v>
-      </c>
-      <c r="D5" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="6" spans="2:19" x14ac:dyDescent="0.25">
-      <c r="B6" t="s">
-        <v>3</v>
-      </c>
-      <c r="C6">
-        <v>2926</v>
-      </c>
-      <c r="D6" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="7" spans="2:19" x14ac:dyDescent="0.25">
-      <c r="B7" t="s">
-        <v>4</v>
-      </c>
-      <c r="C7">
-        <v>198</v>
-      </c>
-      <c r="D7" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="8" spans="2:19" x14ac:dyDescent="0.25">
-      <c r="B8" t="s">
-        <v>5</v>
-      </c>
-      <c r="C8">
-        <v>356</v>
-      </c>
-      <c r="D8" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="9" spans="2:19" x14ac:dyDescent="0.25">
-      <c r="B9" t="s">
-        <v>6</v>
-      </c>
-      <c r="C9">
-        <v>2</v>
-      </c>
-      <c r="D9" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="10" spans="2:19" x14ac:dyDescent="0.25">
-      <c r="B10" t="s">
-        <v>7</v>
-      </c>
-      <c r="C10">
-        <v>43.5</v>
-      </c>
-      <c r="D10" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="11" spans="2:19" x14ac:dyDescent="0.25">
-      <c r="B11" t="s">
-        <v>8</v>
-      </c>
-      <c r="C11">
+      <c r="C11" s="10">
         <v>7.54</v>
       </c>
+      <c r="D11" s="9"/>
+      <c r="E11" s="7"/>
+      <c r="F11" s="7"/>
+      <c r="G11" s="7"/>
+      <c r="H11" s="7"/>
+      <c r="I11" s="7"/>
+      <c r="J11" s="7"/>
+      <c r="K11" s="7"/>
+      <c r="L11" s="7"/>
+      <c r="M11" s="7"/>
+      <c r="N11" s="7"/>
+      <c r="O11" s="7"/>
+      <c r="P11" s="7"/>
+      <c r="Q11" s="7"/>
+      <c r="R11" s="7"/>
+      <c r="S11" s="7"/>
+      <c r="T11" s="7"/>
+      <c r="U11" s="23"/>
+      <c r="V11" s="23"/>
+      <c r="W11" s="23"/>
+      <c r="X11" s="23"/>
+      <c r="Y11" s="23"/>
+      <c r="Z11" s="23"/>
+      <c r="AA11" s="23"/>
+    </row>
+    <row r="12" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="A12" s="7"/>
+      <c r="B12" s="7"/>
+      <c r="C12" s="7"/>
+      <c r="D12" s="7"/>
+      <c r="E12" s="7"/>
+      <c r="F12" s="7"/>
+      <c r="G12" s="7"/>
+      <c r="H12" s="7"/>
+      <c r="I12" s="7"/>
+      <c r="J12" s="7"/>
+      <c r="K12" s="7"/>
+      <c r="L12" s="7"/>
+      <c r="M12" s="7"/>
+      <c r="N12" s="7"/>
+      <c r="O12" s="7"/>
+      <c r="P12" s="7"/>
+      <c r="Q12" s="7"/>
+      <c r="R12" s="7"/>
+      <c r="S12" s="7"/>
+      <c r="T12" s="7"/>
+      <c r="U12" s="23"/>
+      <c r="V12" s="23"/>
+      <c r="W12" s="23"/>
+      <c r="X12" s="23"/>
+      <c r="Y12" s="23"/>
+      <c r="Z12" s="23"/>
+      <c r="AA12" s="23"/>
+    </row>
+    <row r="13" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="A13" s="7"/>
+      <c r="B13" s="7"/>
+      <c r="C13" s="7"/>
+      <c r="D13" s="7"/>
+      <c r="E13" s="7"/>
+      <c r="F13" s="7"/>
+      <c r="G13" s="7"/>
+      <c r="H13" s="7"/>
+      <c r="I13" s="7"/>
+      <c r="J13" s="7"/>
+      <c r="K13" s="7"/>
+      <c r="L13" s="7"/>
+      <c r="M13" s="7"/>
+      <c r="N13" s="7"/>
+      <c r="O13" s="7"/>
+      <c r="P13" s="7"/>
+      <c r="Q13" s="7"/>
+      <c r="R13" s="7"/>
+      <c r="S13" s="7"/>
+      <c r="T13" s="7"/>
+      <c r="U13" s="23"/>
+      <c r="V13" s="23"/>
+      <c r="W13" s="23"/>
+      <c r="X13" s="23"/>
+      <c r="Y13" s="23"/>
+      <c r="Z13" s="23"/>
+      <c r="AA13" s="23"/>
+    </row>
+    <row r="14" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="A14" s="7"/>
+      <c r="B14" s="7"/>
+      <c r="C14" s="7"/>
+      <c r="D14" s="7"/>
+      <c r="E14" s="7"/>
+      <c r="F14" s="7"/>
+      <c r="G14" s="7"/>
+      <c r="H14" s="7"/>
+      <c r="I14" s="7"/>
+      <c r="J14" s="7"/>
+      <c r="K14" s="7"/>
+      <c r="L14" s="7"/>
+      <c r="M14" s="7"/>
+      <c r="N14" s="7"/>
+      <c r="O14" s="7"/>
+      <c r="P14" s="7"/>
+      <c r="Q14" s="7"/>
+      <c r="R14" s="7"/>
+      <c r="S14" s="7"/>
+      <c r="T14" s="7"/>
+      <c r="U14" s="23"/>
+      <c r="V14" s="23"/>
+      <c r="W14" s="23"/>
+      <c r="X14" s="23"/>
+      <c r="Y14" s="23"/>
+      <c r="Z14" s="23"/>
+      <c r="AA14" s="23"/>
+    </row>
+    <row r="15" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="A15" s="7"/>
+      <c r="B15" s="7"/>
+      <c r="C15" s="7"/>
+      <c r="D15" s="7"/>
+      <c r="E15" s="7"/>
+      <c r="F15" s="7"/>
+      <c r="G15" s="7"/>
+      <c r="H15" s="7"/>
+      <c r="I15" s="7"/>
+      <c r="J15" s="7"/>
+      <c r="K15" s="7"/>
+      <c r="L15" s="7"/>
+      <c r="M15" s="7"/>
+      <c r="N15" s="7"/>
+      <c r="O15" s="7"/>
+      <c r="P15" s="7"/>
+      <c r="Q15" s="7"/>
+      <c r="R15" s="7"/>
+      <c r="S15" s="7"/>
+      <c r="T15" s="7"/>
+      <c r="U15" s="23"/>
+      <c r="V15" s="23"/>
+      <c r="W15" s="23"/>
+      <c r="X15" s="23"/>
+      <c r="Y15" s="23"/>
+      <c r="Z15" s="23"/>
+      <c r="AA15" s="23"/>
+    </row>
+    <row r="16" spans="1:27" ht="13.8" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A16" s="7"/>
+      <c r="B16" s="16" t="s">
+        <v>17</v>
+      </c>
+      <c r="C16" s="16"/>
+      <c r="D16" s="16"/>
+      <c r="E16" s="12">
+        <f>(C8*(C7^3))/12</f>
+        <v>230284296</v>
+      </c>
+      <c r="F16" s="7"/>
+      <c r="G16" s="20" t="s">
+        <v>22</v>
+      </c>
+      <c r="H16" s="20" t="s">
+        <v>26</v>
+      </c>
+      <c r="I16" s="20" t="s">
+        <v>23</v>
+      </c>
+      <c r="J16" s="20" t="s">
+        <v>27</v>
+      </c>
+      <c r="K16" s="20" t="s">
+        <v>24</v>
+      </c>
+      <c r="L16" s="20" t="s">
+        <v>25</v>
+      </c>
+      <c r="M16" s="7"/>
+      <c r="N16" s="7"/>
+      <c r="O16" s="7"/>
+      <c r="P16" s="7"/>
+      <c r="Q16" s="7"/>
+      <c r="R16" s="7"/>
+      <c r="S16" s="7"/>
+      <c r="T16" s="7"/>
+      <c r="U16" s="23"/>
+      <c r="V16" s="23"/>
+      <c r="W16" s="23"/>
+      <c r="X16" s="23"/>
+      <c r="Y16" s="23"/>
+      <c r="Z16" s="23"/>
+      <c r="AA16" s="23"/>
+    </row>
+    <row r="17" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="A17" s="7"/>
+      <c r="B17" s="17" t="s">
+        <v>18</v>
+      </c>
+      <c r="C17" s="18"/>
+      <c r="D17" s="19"/>
+      <c r="E17" s="13">
+        <f>C6*1000</f>
+        <v>2926000</v>
+      </c>
+      <c r="F17" s="7"/>
+      <c r="G17" s="20"/>
+      <c r="H17" s="20"/>
+      <c r="I17" s="20"/>
+      <c r="J17" s="20"/>
+      <c r="K17" s="20"/>
+      <c r="L17" s="20"/>
+      <c r="M17" s="7"/>
+      <c r="N17" s="7"/>
+      <c r="O17" s="7"/>
+      <c r="P17" s="7"/>
+      <c r="Q17" s="7"/>
+      <c r="R17" s="7"/>
+      <c r="S17" s="7"/>
+      <c r="T17" s="7"/>
+      <c r="U17" s="23"/>
+      <c r="V17" s="23"/>
+      <c r="W17" s="23"/>
+      <c r="X17" s="23"/>
+      <c r="Y17" s="23"/>
+      <c r="Z17" s="23"/>
+      <c r="AA17" s="23"/>
+    </row>
+    <row r="18" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="A18" s="7"/>
+      <c r="B18" s="17" t="s">
+        <v>19</v>
+      </c>
+      <c r="C18" s="18"/>
+      <c r="D18" s="19"/>
+      <c r="E18" s="14">
+        <f>E16/E17</f>
+        <v>78.702766917293232</v>
+      </c>
+      <c r="F18" s="7"/>
+      <c r="G18" s="20"/>
+      <c r="H18" s="20"/>
+      <c r="I18" s="20"/>
+      <c r="J18" s="20"/>
+      <c r="K18" s="20"/>
+      <c r="L18" s="20"/>
+      <c r="M18" s="7"/>
+      <c r="N18" s="7"/>
+      <c r="O18" s="7"/>
+      <c r="P18" s="7"/>
+      <c r="Q18" s="7"/>
+      <c r="R18" s="7"/>
+      <c r="S18" s="7"/>
+      <c r="T18" s="7"/>
+      <c r="U18" s="23"/>
+      <c r="V18" s="23"/>
+      <c r="W18" s="23"/>
+      <c r="X18" s="23"/>
+      <c r="Y18" s="23"/>
+      <c r="Z18" s="23"/>
+      <c r="AA18" s="23"/>
+    </row>
+    <row r="19" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="A19" s="7"/>
+      <c r="B19" s="17" t="s">
+        <v>20</v>
+      </c>
+      <c r="C19" s="18"/>
+      <c r="D19" s="19"/>
+      <c r="E19" s="14">
+        <f>E17/(C8*C7)</f>
+        <v>41.510611735330833</v>
+      </c>
+      <c r="F19" s="7"/>
+      <c r="G19" s="20"/>
+      <c r="H19" s="20"/>
+      <c r="I19" s="20"/>
+      <c r="J19" s="20"/>
+      <c r="K19" s="20"/>
+      <c r="L19" s="20"/>
+      <c r="M19" s="7"/>
+      <c r="N19" s="7"/>
+      <c r="O19" s="7"/>
+      <c r="P19" s="7"/>
+      <c r="Q19" s="7"/>
+      <c r="R19" s="7"/>
+      <c r="S19" s="7"/>
+      <c r="T19" s="7"/>
+      <c r="U19" s="23"/>
+      <c r="V19" s="23"/>
+      <c r="W19" s="23"/>
+      <c r="X19" s="23"/>
+      <c r="Y19" s="23"/>
+      <c r="Z19" s="23"/>
+      <c r="AA19" s="23"/>
+    </row>
+    <row r="20" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="A20" s="7"/>
+      <c r="B20" s="17" t="s">
+        <v>21</v>
+      </c>
+      <c r="C20" s="18"/>
+      <c r="D20" s="19"/>
+      <c r="E20" s="14">
+        <f>E19*0.5</f>
+        <v>20.755305867665417</v>
+      </c>
+      <c r="F20" s="7"/>
+      <c r="G20" s="20"/>
+      <c r="H20" s="20"/>
+      <c r="I20" s="20"/>
+      <c r="J20" s="20"/>
+      <c r="K20" s="20"/>
+      <c r="L20" s="20"/>
+      <c r="M20" s="7"/>
+      <c r="N20" s="7"/>
+      <c r="O20" s="7"/>
+      <c r="P20" s="7"/>
+      <c r="Q20" s="7"/>
+      <c r="R20" s="7"/>
+      <c r="S20" s="7"/>
+      <c r="T20" s="7"/>
+      <c r="U20" s="23"/>
+      <c r="V20" s="23"/>
+      <c r="W20" s="23"/>
+      <c r="X20" s="23"/>
+      <c r="Y20" s="23"/>
+      <c r="Z20" s="23"/>
+      <c r="AA20" s="23"/>
+    </row>
+    <row r="21" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="A21" s="7"/>
+      <c r="B21" s="7"/>
+      <c r="C21" s="7"/>
+      <c r="D21" s="7"/>
+      <c r="E21" s="7"/>
+      <c r="F21" s="7"/>
+      <c r="G21" s="20"/>
+      <c r="H21" s="20"/>
+      <c r="I21" s="20"/>
+      <c r="J21" s="20"/>
+      <c r="K21" s="20"/>
+      <c r="L21" s="20"/>
+      <c r="M21" s="7"/>
+      <c r="N21" s="7"/>
+      <c r="O21" s="7"/>
+      <c r="P21" s="7"/>
+      <c r="Q21" s="7"/>
+      <c r="R21" s="7"/>
+      <c r="S21" s="7"/>
+      <c r="T21" s="7"/>
+      <c r="U21" s="23"/>
+      <c r="V21" s="23"/>
+      <c r="W21" s="23"/>
+      <c r="X21" s="23"/>
+      <c r="Y21" s="23"/>
+      <c r="Z21" s="23"/>
+      <c r="AA21" s="23"/>
+    </row>
+    <row r="22" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="A22" s="7"/>
+      <c r="B22" s="7"/>
+      <c r="C22" s="7"/>
+      <c r="D22" s="7"/>
+      <c r="E22" s="7"/>
+      <c r="F22" s="7"/>
+      <c r="G22" s="1">
+        <f>F5</f>
+        <v>56</v>
+      </c>
+      <c r="H22" s="11">
+        <f>((G22+C$9)/C$11)+E$20</f>
+        <v>28.44761355997311</v>
+      </c>
+      <c r="I22" s="11">
+        <f>H22-E$19</f>
+        <v>-13.062998175357723</v>
+      </c>
+      <c r="J22" s="11">
+        <f>(S4-G4)/(S5-G5)</f>
+        <v>5.625</v>
+      </c>
+      <c r="K22" s="11">
+        <f>J22*C$11</f>
+        <v>42.412500000000001</v>
+      </c>
+      <c r="L22" s="11">
+        <f>K22+I22</f>
+        <v>29.349501824642278</v>
+      </c>
+      <c r="M22" s="7"/>
+      <c r="N22" s="7"/>
+      <c r="O22" s="7"/>
+      <c r="P22" s="7"/>
+      <c r="Q22" s="7"/>
+      <c r="R22" s="7"/>
+      <c r="S22" s="7"/>
+      <c r="T22" s="7"/>
+      <c r="U22" s="23"/>
+      <c r="V22" s="23"/>
+      <c r="W22" s="23"/>
+      <c r="X22" s="23"/>
+      <c r="Y22" s="23"/>
+      <c r="Z22" s="23"/>
+      <c r="AA22" s="23"/>
+    </row>
+    <row r="23" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="A23" s="7"/>
+      <c r="B23" s="7"/>
+      <c r="C23" s="7"/>
+      <c r="D23" s="7"/>
+      <c r="E23" s="7"/>
+      <c r="F23" s="7"/>
+      <c r="G23" s="1">
+        <f t="shared" ref="G23:G26" si="0">F6</f>
+        <v>153</v>
+      </c>
+      <c r="H23" s="11">
+        <f t="shared" ref="H23:H26" si="1">((G23+C$9)/C$11)+E$20</f>
+        <v>41.312335045384245</v>
+      </c>
+      <c r="I23" s="11">
+        <f t="shared" ref="I23:I26" si="2">H23-E$19</f>
+        <v>-0.19827668994658865</v>
+      </c>
+      <c r="J23" s="11">
+        <f>(R4-H4)/(R6-H6)</f>
+        <v>4.838709677419355</v>
+      </c>
+      <c r="K23" s="11">
+        <f t="shared" ref="K23:K26" si="3">J23*C$11</f>
+        <v>36.483870967741936</v>
+      </c>
+      <c r="L23" s="11">
+        <f>K23+I23</f>
+        <v>36.285594277795347</v>
+      </c>
+      <c r="M23" s="7"/>
+      <c r="N23" s="7"/>
+      <c r="O23" s="7"/>
+      <c r="P23" s="7"/>
+      <c r="Q23" s="7"/>
+      <c r="R23" s="7"/>
+      <c r="S23" s="7"/>
+      <c r="T23" s="7"/>
+      <c r="U23" s="23"/>
+      <c r="V23" s="23"/>
+      <c r="W23" s="23"/>
+      <c r="X23" s="23"/>
+      <c r="Y23" s="23"/>
+      <c r="Z23" s="23"/>
+      <c r="AA23" s="23"/>
+    </row>
+    <row r="24" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="A24" s="7"/>
+      <c r="B24" s="7"/>
+      <c r="C24" s="7"/>
+      <c r="D24" s="7"/>
+      <c r="E24" s="7"/>
+      <c r="F24" s="7"/>
+      <c r="G24" s="1">
+        <f t="shared" si="0"/>
+        <v>208</v>
+      </c>
+      <c r="H24" s="11">
+        <f t="shared" si="1"/>
+        <v>48.60676475360706</v>
+      </c>
+      <c r="I24" s="11">
+        <f t="shared" si="2"/>
+        <v>7.096153018276226</v>
+      </c>
+      <c r="J24" s="11">
+        <f>(Q4-I4)/(Q7-I7)</f>
+        <v>3.9735099337748339</v>
+      </c>
+      <c r="K24" s="11">
+        <f>J24*C$11</f>
+        <v>29.960264900662246</v>
+      </c>
+      <c r="L24" s="11">
+        <f>K24+I24</f>
+        <v>37.056417918938472</v>
+      </c>
+      <c r="M24" s="7"/>
+      <c r="N24" s="7"/>
+      <c r="O24" s="7"/>
+      <c r="P24" s="7"/>
+      <c r="Q24" s="7"/>
+      <c r="R24" s="7"/>
+      <c r="S24" s="7"/>
+      <c r="T24" s="7"/>
+      <c r="U24" s="23"/>
+      <c r="V24" s="23"/>
+      <c r="W24" s="23"/>
+      <c r="X24" s="23"/>
+      <c r="Y24" s="23"/>
+      <c r="Z24" s="23"/>
+      <c r="AA24" s="23"/>
+    </row>
+    <row r="25" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="A25" s="7"/>
+      <c r="B25" s="7"/>
+      <c r="C25" s="7"/>
+      <c r="D25" s="7"/>
+      <c r="E25" s="7"/>
+      <c r="F25" s="7"/>
+      <c r="G25" s="1">
+        <f t="shared" si="0"/>
+        <v>263.5</v>
+      </c>
+      <c r="H25" s="11">
+        <f t="shared" si="1"/>
+        <v>55.967507459177355</v>
+      </c>
+      <c r="I25" s="11">
+        <f t="shared" si="2"/>
+        <v>14.456895723846522</v>
+      </c>
+      <c r="J25" s="11">
+        <f>(P4-J4)/(P8-J8)</f>
+        <v>3.2142857142857144</v>
+      </c>
+      <c r="K25" s="11">
+        <f t="shared" si="3"/>
+        <v>24.235714285714288</v>
+      </c>
+      <c r="L25" s="11">
+        <f t="shared" ref="L23:L26" si="4">K25+I25</f>
+        <v>38.692610009560809</v>
+      </c>
+      <c r="M25" s="7"/>
+      <c r="N25" s="7"/>
+      <c r="O25" s="7"/>
+      <c r="P25" s="7"/>
+      <c r="Q25" s="7"/>
+      <c r="R25" s="7"/>
+      <c r="S25" s="7"/>
+      <c r="T25" s="7"/>
+      <c r="U25" s="23"/>
+      <c r="V25" s="23"/>
+      <c r="W25" s="23"/>
+      <c r="X25" s="23"/>
+      <c r="Y25" s="23"/>
+      <c r="Z25" s="23"/>
+      <c r="AA25" s="23"/>
+    </row>
+    <row r="26" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="A26" s="7"/>
+      <c r="B26" s="7"/>
+      <c r="C26" s="7"/>
+      <c r="D26" s="7"/>
+      <c r="E26" s="7"/>
+      <c r="F26" s="7"/>
+      <c r="G26" s="1">
+        <f t="shared" si="0"/>
+        <v>319</v>
+      </c>
+      <c r="H26" s="11">
+        <f t="shared" si="1"/>
+        <v>63.328250164747644</v>
+      </c>
+      <c r="I26" s="11">
+        <f t="shared" si="2"/>
+        <v>21.81763842941681</v>
+      </c>
+      <c r="J26" s="21">
+        <f>(O4-K4)/(O9-K9)</f>
+        <v>2.3622047244094491</v>
+      </c>
+      <c r="K26" s="11">
+        <f t="shared" si="3"/>
+        <v>17.811023622047244</v>
+      </c>
+      <c r="L26" s="11">
+        <f t="shared" si="4"/>
+        <v>39.628662051464055</v>
+      </c>
+      <c r="M26" s="7"/>
+      <c r="N26" s="7"/>
+      <c r="O26" s="7"/>
+      <c r="P26" s="7"/>
+      <c r="Q26" s="7"/>
+      <c r="R26" s="7"/>
+      <c r="S26" s="7"/>
+      <c r="T26" s="7"/>
+      <c r="U26" s="23"/>
+      <c r="V26" s="23"/>
+      <c r="W26" s="23"/>
+      <c r="X26" s="23"/>
+      <c r="Y26" s="23"/>
+      <c r="Z26" s="23"/>
+      <c r="AA26" s="23"/>
+    </row>
+    <row r="27" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="A27" s="7"/>
+      <c r="B27" s="7"/>
+      <c r="C27" s="7"/>
+      <c r="D27" s="7"/>
+      <c r="E27" s="7"/>
+      <c r="F27" s="7"/>
+      <c r="G27" s="7"/>
+      <c r="H27" s="7"/>
+      <c r="I27" s="7"/>
+      <c r="J27" s="7"/>
+      <c r="K27" s="7"/>
+      <c r="L27" s="7"/>
+      <c r="M27" s="7"/>
+      <c r="N27" s="7"/>
+      <c r="O27" s="7"/>
+      <c r="P27" s="7"/>
+      <c r="Q27" s="7"/>
+      <c r="R27" s="7"/>
+      <c r="S27" s="7"/>
+      <c r="T27" s="7"/>
+      <c r="U27" s="23"/>
+      <c r="V27" s="23"/>
+      <c r="W27" s="23"/>
+      <c r="X27" s="23"/>
+      <c r="Y27" s="23"/>
+      <c r="Z27" s="23"/>
+      <c r="AA27" s="23"/>
+    </row>
+    <row r="28" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="A28" s="7"/>
+      <c r="B28" s="7"/>
+      <c r="C28" s="7"/>
+      <c r="D28" s="7"/>
+      <c r="E28" s="7"/>
+      <c r="F28" s="7"/>
+      <c r="G28" s="7"/>
+      <c r="H28" s="7"/>
+      <c r="I28" s="7"/>
+      <c r="J28" s="7"/>
+      <c r="K28" s="7"/>
+      <c r="L28" s="7"/>
+      <c r="M28" s="7"/>
+      <c r="N28" s="7"/>
+      <c r="O28" s="7"/>
+      <c r="P28" s="7"/>
+      <c r="Q28" s="7"/>
+      <c r="R28" s="7"/>
+      <c r="S28" s="7"/>
+      <c r="T28" s="7"/>
+      <c r="U28" s="23"/>
+      <c r="V28" s="23"/>
+      <c r="W28" s="23"/>
+      <c r="X28" s="23"/>
+      <c r="Y28" s="23"/>
+      <c r="Z28" s="23"/>
+      <c r="AA28" s="23"/>
+    </row>
+    <row r="29" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="A29" s="7"/>
+      <c r="B29" s="7"/>
+      <c r="C29" s="7"/>
+      <c r="D29" s="7"/>
+      <c r="E29" s="7"/>
+      <c r="F29" s="7"/>
+      <c r="G29" s="7"/>
+      <c r="H29" s="7"/>
+      <c r="I29" s="7"/>
+      <c r="J29" s="7"/>
+      <c r="K29" s="7"/>
+      <c r="L29" s="7"/>
+      <c r="M29" s="7"/>
+      <c r="N29" s="7"/>
+      <c r="O29" s="7"/>
+      <c r="P29" s="7"/>
+      <c r="Q29" s="7"/>
+      <c r="R29" s="7"/>
+      <c r="S29" s="7"/>
+      <c r="T29" s="7"/>
+      <c r="U29" s="23"/>
+      <c r="V29" s="23"/>
+      <c r="W29" s="23"/>
+      <c r="X29" s="23"/>
+      <c r="Y29" s="23"/>
+      <c r="Z29" s="23"/>
+      <c r="AA29" s="23"/>
+    </row>
+    <row r="30" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="A30" s="7"/>
+      <c r="B30" s="7"/>
+      <c r="C30" s="7"/>
+      <c r="D30" s="7"/>
+      <c r="E30" s="7"/>
+      <c r="F30" s="7"/>
+      <c r="G30" s="7"/>
+      <c r="H30" s="7"/>
+      <c r="I30" s="7"/>
+      <c r="J30" s="7"/>
+      <c r="K30" s="7"/>
+      <c r="L30" s="7"/>
+      <c r="M30" s="7"/>
+      <c r="N30" s="7"/>
+      <c r="O30" s="7"/>
+      <c r="P30" s="7"/>
+      <c r="Q30" s="7"/>
+      <c r="R30" s="7"/>
+      <c r="S30" s="7"/>
+      <c r="T30" s="7"/>
+      <c r="U30" s="23"/>
+      <c r="V30" s="23"/>
+      <c r="W30" s="23"/>
+      <c r="X30" s="23"/>
+      <c r="Y30" s="23"/>
+      <c r="Z30" s="23"/>
+      <c r="AA30" s="23"/>
+    </row>
+    <row r="31" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="A31" s="7"/>
+      <c r="B31" s="7"/>
+      <c r="C31" s="7"/>
+      <c r="D31" s="7"/>
+      <c r="E31" s="7"/>
+      <c r="F31" s="7"/>
+      <c r="G31" s="7"/>
+      <c r="H31" s="7"/>
+      <c r="I31" s="7"/>
+      <c r="J31" s="7"/>
+      <c r="K31" s="7"/>
+      <c r="L31" s="7"/>
+      <c r="M31" s="7"/>
+      <c r="N31" s="7"/>
+      <c r="O31" s="7"/>
+      <c r="P31" s="7"/>
+      <c r="Q31" s="7"/>
+      <c r="R31" s="7"/>
+      <c r="S31" s="7"/>
+      <c r="T31" s="7"/>
+      <c r="U31" s="23"/>
+      <c r="V31" s="23"/>
+      <c r="W31" s="23"/>
+      <c r="X31" s="23"/>
+      <c r="Y31" s="23"/>
+      <c r="Z31" s="23"/>
+      <c r="AA31" s="23"/>
+    </row>
+    <row r="32" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="A32" s="7"/>
+      <c r="B32" s="7"/>
+      <c r="C32" s="7"/>
+      <c r="D32" s="7"/>
+      <c r="E32" s="7"/>
+      <c r="F32" s="7"/>
+      <c r="G32" s="7"/>
+      <c r="H32" s="7"/>
+      <c r="I32" s="7"/>
+      <c r="J32" s="7"/>
+      <c r="K32" s="7"/>
+      <c r="L32" s="7"/>
+      <c r="M32" s="7"/>
+      <c r="N32" s="7"/>
+      <c r="O32" s="7"/>
+      <c r="P32" s="7"/>
+      <c r="Q32" s="7"/>
+      <c r="R32" s="7"/>
+      <c r="S32" s="7"/>
+      <c r="T32" s="7"/>
+      <c r="U32" s="23"/>
+      <c r="V32" s="23"/>
+      <c r="W32" s="23"/>
+      <c r="X32" s="23"/>
+      <c r="Y32" s="23"/>
+      <c r="Z32" s="23"/>
+      <c r="AA32" s="23"/>
+    </row>
+    <row r="33" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="A33" s="7"/>
+      <c r="B33" s="7"/>
+      <c r="C33" s="7"/>
+      <c r="D33" s="7"/>
+      <c r="E33" s="7"/>
+      <c r="F33" s="7"/>
+      <c r="G33" s="7"/>
+      <c r="H33" s="7"/>
+      <c r="I33" s="7"/>
+      <c r="J33" s="7"/>
+      <c r="K33" s="7"/>
+      <c r="L33" s="7"/>
+      <c r="M33" s="7"/>
+      <c r="N33" s="7"/>
+      <c r="O33" s="7"/>
+      <c r="P33" s="7"/>
+      <c r="Q33" s="7"/>
+      <c r="R33" s="7"/>
+      <c r="S33" s="7"/>
+      <c r="T33" s="7"/>
+      <c r="U33" s="23"/>
+      <c r="V33" s="23"/>
+      <c r="W33" s="23"/>
+      <c r="X33" s="23"/>
+      <c r="Y33" s="23"/>
+      <c r="Z33" s="23"/>
+      <c r="AA33" s="23"/>
+    </row>
+    <row r="34" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="A34" s="7"/>
+      <c r="B34" s="7"/>
+      <c r="C34" s="7"/>
+      <c r="D34" s="7"/>
+      <c r="E34" s="7"/>
+      <c r="F34" s="7"/>
+      <c r="G34" s="7"/>
+      <c r="H34" s="7"/>
+      <c r="I34" s="7"/>
+      <c r="J34" s="7"/>
+      <c r="K34" s="7"/>
+      <c r="L34" s="7"/>
+      <c r="M34" s="7"/>
+      <c r="N34" s="7"/>
+      <c r="O34" s="7"/>
+      <c r="P34" s="7"/>
+      <c r="Q34" s="7"/>
+      <c r="R34" s="7"/>
+      <c r="S34" s="7"/>
+      <c r="T34" s="7"/>
+      <c r="U34" s="23"/>
+      <c r="V34" s="23"/>
+      <c r="W34" s="23"/>
+      <c r="X34" s="23"/>
+      <c r="Y34" s="23"/>
+      <c r="Z34" s="23"/>
+      <c r="AA34" s="23"/>
+    </row>
+    <row r="35" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="A35" s="7"/>
+      <c r="B35" s="7"/>
+      <c r="C35" s="7"/>
+      <c r="D35" s="7"/>
+      <c r="E35" s="7"/>
+      <c r="F35" s="7"/>
+      <c r="G35" s="7"/>
+      <c r="H35" s="7"/>
+      <c r="I35" s="7"/>
+      <c r="J35" s="7"/>
+      <c r="K35" s="7"/>
+      <c r="L35" s="7"/>
+      <c r="M35" s="7"/>
+      <c r="N35" s="7"/>
+      <c r="O35" s="7"/>
+      <c r="P35" s="7"/>
+      <c r="Q35" s="7"/>
+      <c r="R35" s="7"/>
+      <c r="S35" s="7"/>
+      <c r="T35" s="7"/>
+      <c r="U35" s="23"/>
+      <c r="V35" s="23"/>
+      <c r="W35" s="23"/>
+      <c r="X35" s="23"/>
+      <c r="Y35" s="23"/>
+      <c r="Z35" s="23"/>
+      <c r="AA35" s="23"/>
+    </row>
+    <row r="36" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="A36" s="7"/>
+      <c r="B36" s="7"/>
+      <c r="C36" s="7"/>
+      <c r="D36" s="7"/>
+      <c r="E36" s="7"/>
+      <c r="F36" s="7"/>
+      <c r="G36" s="7"/>
+      <c r="H36" s="7"/>
+      <c r="I36" s="7"/>
+      <c r="J36" s="7"/>
+      <c r="K36" s="7"/>
+      <c r="L36" s="7"/>
+      <c r="M36" s="7"/>
+      <c r="N36" s="7"/>
+      <c r="O36" s="7"/>
+      <c r="P36" s="7"/>
+      <c r="Q36" s="7"/>
+      <c r="R36" s="7"/>
+      <c r="S36" s="7"/>
+      <c r="T36" s="7"/>
+      <c r="U36" s="23"/>
+      <c r="V36" s="23"/>
+      <c r="W36" s="23"/>
+      <c r="X36" s="23"/>
+      <c r="Y36" s="23"/>
+      <c r="Z36" s="23"/>
+      <c r="AA36" s="23"/>
+    </row>
+    <row r="37" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="A37" s="7"/>
+      <c r="B37" s="7"/>
+      <c r="C37" s="7"/>
+      <c r="D37" s="7"/>
+      <c r="E37" s="7"/>
+      <c r="F37" s="7"/>
+      <c r="G37" s="7"/>
+      <c r="H37" s="7"/>
+      <c r="I37" s="7"/>
+      <c r="J37" s="7"/>
+      <c r="K37" s="7"/>
+      <c r="L37" s="7"/>
+      <c r="M37" s="7"/>
+      <c r="N37" s="7"/>
+      <c r="O37" s="7"/>
+      <c r="P37" s="7"/>
+      <c r="Q37" s="7"/>
+      <c r="R37" s="7"/>
+      <c r="S37" s="7"/>
+      <c r="T37" s="7"/>
+      <c r="U37" s="23"/>
+      <c r="V37" s="23"/>
+      <c r="W37" s="23"/>
+      <c r="X37" s="23"/>
+      <c r="Y37" s="23"/>
+      <c r="Z37" s="23"/>
+      <c r="AA37" s="23"/>
+    </row>
+    <row r="38" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="A38" s="7"/>
+      <c r="B38" s="7"/>
+      <c r="C38" s="7"/>
+      <c r="D38" s="7"/>
+      <c r="E38" s="7"/>
+      <c r="F38" s="7"/>
+      <c r="G38" s="7"/>
+      <c r="H38" s="7"/>
+      <c r="I38" s="7"/>
+      <c r="J38" s="7"/>
+      <c r="K38" s="7"/>
+      <c r="L38" s="7"/>
+      <c r="M38" s="7"/>
+      <c r="N38" s="7"/>
+      <c r="O38" s="7"/>
+      <c r="P38" s="7"/>
+      <c r="Q38" s="7"/>
+      <c r="R38" s="7"/>
+      <c r="S38" s="7"/>
+      <c r="T38" s="7"/>
+      <c r="U38" s="23"/>
+      <c r="V38" s="23"/>
+      <c r="W38" s="23"/>
+      <c r="X38" s="23"/>
+      <c r="Y38" s="23"/>
+      <c r="Z38" s="23"/>
+      <c r="AA38" s="23"/>
+    </row>
+    <row r="39" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="A39" s="7"/>
+      <c r="B39" s="7"/>
+      <c r="C39" s="7"/>
+      <c r="D39" s="7"/>
+      <c r="E39" s="7"/>
+      <c r="F39" s="7"/>
+      <c r="G39" s="7"/>
+      <c r="H39" s="7"/>
+      <c r="I39" s="7"/>
+      <c r="J39" s="7"/>
+      <c r="K39" s="7"/>
+      <c r="L39" s="7"/>
+      <c r="M39" s="7"/>
+      <c r="N39" s="7"/>
+      <c r="O39" s="7"/>
+      <c r="P39" s="7"/>
+      <c r="Q39" s="7"/>
+      <c r="R39" s="7"/>
+      <c r="S39" s="7"/>
+      <c r="T39" s="7"/>
+      <c r="U39" s="23"/>
+      <c r="V39" s="23"/>
+      <c r="W39" s="23"/>
+      <c r="X39" s="23"/>
+      <c r="Y39" s="23"/>
+      <c r="Z39" s="23"/>
+      <c r="AA39" s="23"/>
+    </row>
+    <row r="40" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="A40" s="7"/>
+      <c r="B40" s="7"/>
+      <c r="C40" s="7"/>
+      <c r="D40" s="7"/>
+      <c r="E40" s="7"/>
+      <c r="F40" s="7"/>
+      <c r="G40" s="7"/>
+      <c r="H40" s="7"/>
+      <c r="I40" s="7"/>
+      <c r="J40" s="7"/>
+      <c r="K40" s="7"/>
+      <c r="L40" s="7"/>
+      <c r="M40" s="7"/>
+      <c r="N40" s="7"/>
+      <c r="O40" s="7"/>
+      <c r="P40" s="7"/>
+      <c r="Q40" s="7"/>
+      <c r="R40" s="7"/>
+      <c r="S40" s="7"/>
+      <c r="T40" s="7"/>
+      <c r="U40" s="23"/>
+      <c r="V40" s="23"/>
+      <c r="W40" s="23"/>
+      <c r="X40" s="23"/>
+      <c r="Y40" s="23"/>
+      <c r="Z40" s="23"/>
+      <c r="AA40" s="23"/>
+    </row>
+    <row r="41" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="A41" s="7"/>
+      <c r="B41" s="7"/>
+      <c r="C41" s="7"/>
+      <c r="D41" s="7"/>
+      <c r="E41" s="7"/>
+      <c r="F41" s="7"/>
+      <c r="G41" s="7"/>
+      <c r="H41" s="7"/>
+      <c r="I41" s="7"/>
+      <c r="J41" s="7"/>
+      <c r="K41" s="7"/>
+      <c r="L41" s="7"/>
+      <c r="M41" s="7"/>
+      <c r="N41" s="7"/>
+      <c r="O41" s="7"/>
+      <c r="P41" s="7"/>
+      <c r="Q41" s="7"/>
+      <c r="R41" s="7"/>
+      <c r="S41" s="7"/>
+      <c r="T41" s="7"/>
+      <c r="U41" s="23"/>
+      <c r="V41" s="23"/>
+      <c r="W41" s="23"/>
+      <c r="X41" s="23"/>
+      <c r="Y41" s="23"/>
+      <c r="Z41" s="23"/>
+      <c r="AA41" s="23"/>
+    </row>
+    <row r="42" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="A42" s="7"/>
+      <c r="B42" s="7"/>
+      <c r="C42" s="7"/>
+      <c r="D42" s="7"/>
+      <c r="E42" s="7"/>
+      <c r="F42" s="7"/>
+      <c r="G42" s="7"/>
+      <c r="H42" s="7"/>
+      <c r="I42" s="7"/>
+      <c r="J42" s="7"/>
+      <c r="K42" s="7"/>
+      <c r="L42" s="7"/>
+      <c r="M42" s="7"/>
+      <c r="N42" s="7"/>
+      <c r="O42" s="7"/>
+      <c r="P42" s="7"/>
+      <c r="Q42" s="7"/>
+      <c r="R42" s="7"/>
+      <c r="S42" s="7"/>
+      <c r="T42" s="7"/>
+      <c r="U42" s="23"/>
+      <c r="V42" s="23"/>
+      <c r="W42" s="23"/>
+      <c r="X42" s="23"/>
+      <c r="Y42" s="23"/>
+      <c r="Z42" s="23"/>
+      <c r="AA42" s="23"/>
+    </row>
+    <row r="43" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="A43" s="7"/>
+      <c r="B43" s="7"/>
+      <c r="C43" s="7"/>
+      <c r="D43" s="7"/>
+      <c r="E43" s="7"/>
+      <c r="F43" s="7"/>
+      <c r="G43" s="7"/>
+      <c r="H43" s="7"/>
+      <c r="I43" s="7"/>
+      <c r="J43" s="7"/>
+      <c r="K43" s="7"/>
+      <c r="L43" s="7"/>
+      <c r="M43" s="7"/>
+      <c r="N43" s="7"/>
+      <c r="O43" s="7"/>
+      <c r="P43" s="7"/>
+      <c r="Q43" s="7"/>
+      <c r="R43" s="7"/>
+      <c r="S43" s="7"/>
+      <c r="T43" s="7"/>
+      <c r="U43" s="23"/>
+      <c r="V43" s="23"/>
+      <c r="W43" s="23"/>
+      <c r="X43" s="23"/>
+      <c r="Y43" s="23"/>
+      <c r="Z43" s="23"/>
+      <c r="AA43" s="23"/>
+    </row>
+    <row r="44" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="A44" s="7"/>
+      <c r="B44" s="7"/>
+      <c r="C44" s="7"/>
+      <c r="D44" s="7"/>
+      <c r="E44" s="7"/>
+      <c r="F44" s="7"/>
+      <c r="G44" s="7"/>
+      <c r="H44" s="7"/>
+      <c r="I44" s="7"/>
+      <c r="J44" s="7"/>
+      <c r="K44" s="7"/>
+      <c r="L44" s="7"/>
+      <c r="M44" s="7"/>
+      <c r="N44" s="7"/>
+      <c r="O44" s="7"/>
+      <c r="P44" s="7"/>
+      <c r="Q44" s="7"/>
+      <c r="R44" s="7"/>
+      <c r="S44" s="7"/>
+      <c r="T44" s="7"/>
+      <c r="U44" s="23"/>
+      <c r="V44" s="23"/>
+      <c r="W44" s="23"/>
+      <c r="X44" s="23"/>
+      <c r="Y44" s="23"/>
+      <c r="Z44" s="23"/>
+      <c r="AA44" s="23"/>
+    </row>
+    <row r="45" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="A45" s="7"/>
+      <c r="B45" s="7"/>
+      <c r="C45" s="7"/>
+      <c r="D45" s="7"/>
+      <c r="E45" s="7"/>
+      <c r="F45" s="7"/>
+      <c r="G45" s="7"/>
+      <c r="H45" s="7"/>
+      <c r="I45" s="7"/>
+      <c r="J45" s="7"/>
+      <c r="K45" s="7"/>
+      <c r="L45" s="7"/>
+      <c r="M45" s="7"/>
+      <c r="N45" s="7"/>
+      <c r="O45" s="7"/>
+      <c r="P45" s="7"/>
+      <c r="Q45" s="7"/>
+      <c r="R45" s="7"/>
+      <c r="S45" s="7"/>
+      <c r="T45" s="7"/>
+      <c r="U45" s="23"/>
+      <c r="V45" s="23"/>
+      <c r="W45" s="23"/>
+      <c r="X45" s="23"/>
+      <c r="Y45" s="23"/>
+      <c r="Z45" s="23"/>
+      <c r="AA45" s="23"/>
+    </row>
+    <row r="46" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="A46" s="7"/>
+      <c r="B46" s="7"/>
+      <c r="C46" s="7"/>
+      <c r="D46" s="7"/>
+      <c r="E46" s="7"/>
+      <c r="F46" s="7"/>
+      <c r="G46" s="7"/>
+      <c r="H46" s="7"/>
+      <c r="I46" s="7"/>
+      <c r="J46" s="7"/>
+      <c r="K46" s="7"/>
+      <c r="L46" s="7"/>
+      <c r="M46" s="7"/>
+      <c r="N46" s="7"/>
+      <c r="O46" s="7"/>
+      <c r="P46" s="7"/>
+      <c r="Q46" s="7"/>
+      <c r="R46" s="7"/>
+      <c r="S46" s="7"/>
+      <c r="T46" s="7"/>
+      <c r="U46" s="23"/>
+      <c r="V46" s="23"/>
+      <c r="W46" s="23"/>
+      <c r="X46" s="23"/>
+      <c r="Y46" s="23"/>
+      <c r="Z46" s="23"/>
+      <c r="AA46" s="23"/>
+    </row>
+    <row r="47" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="A47" s="7"/>
+      <c r="B47" s="7"/>
+      <c r="C47" s="7"/>
+      <c r="D47" s="7"/>
+      <c r="E47" s="7"/>
+      <c r="F47" s="7"/>
+      <c r="G47" s="7"/>
+      <c r="H47" s="7"/>
+      <c r="I47" s="7"/>
+      <c r="J47" s="7"/>
+      <c r="K47" s="7"/>
+      <c r="L47" s="7"/>
+      <c r="M47" s="7"/>
+      <c r="N47" s="7"/>
+      <c r="O47" s="7"/>
+      <c r="P47" s="7"/>
+      <c r="Q47" s="7"/>
+      <c r="R47" s="7"/>
+      <c r="S47" s="7"/>
+      <c r="T47" s="7"/>
+      <c r="U47" s="23"/>
+      <c r="V47" s="23"/>
+      <c r="W47" s="23"/>
+      <c r="X47" s="23"/>
+      <c r="Y47" s="23"/>
+      <c r="Z47" s="23"/>
+      <c r="AA47" s="23"/>
+    </row>
+    <row r="48" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="A48" s="7"/>
+      <c r="B48" s="7"/>
+      <c r="C48" s="7"/>
+      <c r="D48" s="7"/>
+      <c r="E48" s="7"/>
+      <c r="F48" s="7"/>
+      <c r="G48" s="7"/>
+      <c r="H48" s="7"/>
+      <c r="I48" s="7"/>
+      <c r="J48" s="7"/>
+      <c r="K48" s="7"/>
+      <c r="L48" s="7"/>
+      <c r="M48" s="7"/>
+      <c r="N48" s="7"/>
+      <c r="O48" s="7"/>
+      <c r="P48" s="7"/>
+      <c r="Q48" s="7"/>
+      <c r="R48" s="7"/>
+      <c r="S48" s="7"/>
+      <c r="T48" s="7"/>
+      <c r="U48" s="23"/>
+      <c r="V48" s="23"/>
+      <c r="W48" s="23"/>
+      <c r="X48" s="23"/>
+      <c r="Y48" s="23"/>
+      <c r="Z48" s="23"/>
+      <c r="AA48" s="23"/>
+    </row>
+    <row r="49" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="A49" s="7"/>
+      <c r="B49" s="7"/>
+      <c r="C49" s="7"/>
+      <c r="D49" s="7"/>
+      <c r="E49" s="7"/>
+      <c r="F49" s="7"/>
+      <c r="G49" s="7"/>
+      <c r="H49" s="7"/>
+      <c r="I49" s="7"/>
+      <c r="J49" s="7"/>
+      <c r="K49" s="7"/>
+      <c r="L49" s="7"/>
+      <c r="M49" s="7"/>
+      <c r="N49" s="7"/>
+      <c r="O49" s="7"/>
+      <c r="P49" s="7"/>
+      <c r="Q49" s="7"/>
+      <c r="R49" s="7"/>
+      <c r="S49" s="7"/>
+      <c r="T49" s="7"/>
+      <c r="U49" s="23"/>
+      <c r="V49" s="23"/>
+      <c r="W49" s="23"/>
+      <c r="X49" s="23"/>
+      <c r="Y49" s="23"/>
+      <c r="Z49" s="23"/>
+      <c r="AA49" s="23"/>
+    </row>
+    <row r="50" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="A50" s="7"/>
+      <c r="B50" s="7"/>
+      <c r="C50" s="7"/>
+      <c r="D50" s="7"/>
+      <c r="E50" s="7"/>
+      <c r="F50" s="7"/>
+      <c r="G50" s="7"/>
+      <c r="H50" s="7"/>
+      <c r="I50" s="7"/>
+      <c r="J50" s="7"/>
+      <c r="K50" s="7"/>
+      <c r="L50" s="7"/>
+      <c r="M50" s="7"/>
+      <c r="N50" s="7"/>
+      <c r="O50" s="7"/>
+      <c r="P50" s="7"/>
+      <c r="Q50" s="7"/>
+      <c r="R50" s="7"/>
+      <c r="S50" s="7"/>
+      <c r="T50" s="7"/>
+      <c r="U50" s="23"/>
+      <c r="V50" s="23"/>
+      <c r="W50" s="23"/>
+      <c r="X50" s="23"/>
+      <c r="Y50" s="23"/>
+      <c r="Z50" s="23"/>
+      <c r="AA50" s="23"/>
+    </row>
+    <row r="51" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="A51" s="7"/>
+      <c r="B51" s="7"/>
+      <c r="C51" s="7"/>
+      <c r="D51" s="7"/>
+      <c r="E51" s="7"/>
+      <c r="F51" s="7"/>
+      <c r="G51" s="7"/>
+      <c r="H51" s="7"/>
+      <c r="I51" s="7"/>
+      <c r="J51" s="7"/>
+      <c r="K51" s="7"/>
+      <c r="L51" s="7"/>
+      <c r="M51" s="7"/>
+      <c r="N51" s="7"/>
+      <c r="O51" s="7"/>
+      <c r="P51" s="7"/>
+      <c r="Q51" s="7"/>
+      <c r="R51" s="7"/>
+      <c r="S51" s="7"/>
+      <c r="T51" s="7"/>
+      <c r="U51" s="23"/>
+      <c r="V51" s="23"/>
+      <c r="W51" s="23"/>
+      <c r="X51" s="23"/>
+      <c r="Y51" s="23"/>
+      <c r="Z51" s="23"/>
+      <c r="AA51" s="23"/>
+    </row>
+    <row r="52" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="A52" s="7"/>
+      <c r="B52" s="7"/>
+      <c r="C52" s="7"/>
+      <c r="D52" s="7"/>
+      <c r="E52" s="7"/>
+      <c r="F52" s="7"/>
+      <c r="G52" s="7"/>
+      <c r="H52" s="7"/>
+      <c r="I52" s="7"/>
+      <c r="J52" s="7"/>
+      <c r="K52" s="7"/>
+      <c r="L52" s="7"/>
+      <c r="M52" s="7"/>
+      <c r="N52" s="7"/>
+      <c r="O52" s="7"/>
+      <c r="P52" s="7"/>
+      <c r="Q52" s="7"/>
+      <c r="R52" s="7"/>
+      <c r="S52" s="7"/>
+      <c r="T52" s="7"/>
+      <c r="U52" s="23"/>
+      <c r="V52" s="23"/>
+      <c r="W52" s="23"/>
+      <c r="X52" s="23"/>
+      <c r="Y52" s="23"/>
+      <c r="Z52" s="23"/>
+      <c r="AA52" s="23"/>
+    </row>
+    <row r="53" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="A53" s="7"/>
+      <c r="B53" s="7"/>
+      <c r="C53" s="7"/>
+      <c r="D53" s="7"/>
+      <c r="E53" s="7"/>
+      <c r="F53" s="7"/>
+      <c r="G53" s="7"/>
+      <c r="H53" s="7"/>
+      <c r="I53" s="7"/>
+      <c r="J53" s="7"/>
+      <c r="K53" s="7"/>
+      <c r="L53" s="7"/>
+      <c r="M53" s="7"/>
+      <c r="N53" s="7"/>
+      <c r="O53" s="7"/>
+      <c r="P53" s="7"/>
+      <c r="Q53" s="7"/>
+      <c r="R53" s="7"/>
+      <c r="S53" s="7"/>
+      <c r="T53" s="7"/>
+      <c r="U53" s="23"/>
+      <c r="V53" s="23"/>
+      <c r="W53" s="23"/>
+      <c r="X53" s="23"/>
+      <c r="Y53" s="23"/>
+      <c r="Z53" s="23"/>
+      <c r="AA53" s="23"/>
+    </row>
+    <row r="54" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="A54" s="7"/>
+      <c r="B54" s="7"/>
+      <c r="C54" s="7"/>
+      <c r="D54" s="7"/>
+      <c r="E54" s="7"/>
+      <c r="F54" s="7"/>
+      <c r="G54" s="7"/>
+      <c r="H54" s="7"/>
+      <c r="I54" s="7"/>
+      <c r="J54" s="7"/>
+      <c r="K54" s="7"/>
+      <c r="L54" s="7"/>
+      <c r="M54" s="7"/>
+      <c r="N54" s="7"/>
+      <c r="O54" s="7"/>
+      <c r="P54" s="7"/>
+      <c r="Q54" s="7"/>
+      <c r="R54" s="7"/>
+      <c r="S54" s="7"/>
+      <c r="T54" s="7"/>
+      <c r="U54" s="23"/>
+      <c r="V54" s="23"/>
+      <c r="W54" s="23"/>
+      <c r="X54" s="23"/>
+      <c r="Y54" s="23"/>
+      <c r="Z54" s="23"/>
+      <c r="AA54" s="23"/>
+    </row>
+    <row r="55" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="A55" s="7"/>
+      <c r="B55" s="7"/>
+      <c r="C55" s="7"/>
+      <c r="D55" s="7"/>
+      <c r="E55" s="7"/>
+      <c r="F55" s="7"/>
+      <c r="G55" s="7"/>
+      <c r="H55" s="7"/>
+      <c r="I55" s="7"/>
+      <c r="J55" s="7"/>
+      <c r="K55" s="7"/>
+      <c r="L55" s="7"/>
+      <c r="M55" s="7"/>
+      <c r="N55" s="7"/>
+      <c r="O55" s="7"/>
+      <c r="P55" s="7"/>
+      <c r="Q55" s="7"/>
+      <c r="R55" s="7"/>
+      <c r="S55" s="7"/>
+      <c r="T55" s="7"/>
+      <c r="U55" s="23"/>
+      <c r="V55" s="23"/>
+      <c r="W55" s="23"/>
+      <c r="X55" s="23"/>
+      <c r="Y55" s="23"/>
+      <c r="Z55" s="23"/>
+      <c r="AA55" s="23"/>
+    </row>
+    <row r="56" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="A56" s="7"/>
+      <c r="B56" s="7"/>
+      <c r="C56" s="7"/>
+      <c r="D56" s="7"/>
+      <c r="E56" s="7"/>
+      <c r="F56" s="7"/>
+      <c r="G56" s="7"/>
+      <c r="H56" s="7"/>
+      <c r="I56" s="7"/>
+      <c r="J56" s="7"/>
+      <c r="K56" s="7"/>
+      <c r="L56" s="7"/>
+      <c r="M56" s="7"/>
+      <c r="N56" s="7"/>
+      <c r="O56" s="7"/>
+      <c r="P56" s="7"/>
+      <c r="Q56" s="7"/>
+      <c r="R56" s="7"/>
+      <c r="S56" s="7"/>
+      <c r="T56" s="7"/>
+      <c r="U56" s="23"/>
+      <c r="V56" s="23"/>
+      <c r="W56" s="23"/>
+      <c r="X56" s="23"/>
+      <c r="Y56" s="23"/>
+      <c r="Z56" s="23"/>
+      <c r="AA56" s="23"/>
     </row>
   </sheetData>
-  <mergeCells count="3">
+  <mergeCells count="15">
+    <mergeCell ref="A1:B1"/>
+    <mergeCell ref="B17:D17"/>
+    <mergeCell ref="B18:D18"/>
+    <mergeCell ref="B19:D19"/>
+    <mergeCell ref="B20:D20"/>
+    <mergeCell ref="G16:G21"/>
     <mergeCell ref="F2:F4"/>
     <mergeCell ref="G2:S2"/>
     <mergeCell ref="G3:S3"/>
+    <mergeCell ref="B16:D16"/>
+    <mergeCell ref="H16:H21"/>
+    <mergeCell ref="I16:I21"/>
+    <mergeCell ref="J16:J21"/>
+    <mergeCell ref="K16:K21"/>
+    <mergeCell ref="L16:L21"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>
--- a/lab3/Lab3-flu-yo.xlsx
+++ b/lab3/Lab3-flu-yo.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\USER\Desktop\LABFLUID\lab3\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A7353A12-3F73-47CD-AF26-16A81C4C7CE8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1D05DB33-7AC9-4060-842C-BBBDEB93A686}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -244,18 +244,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="24">
+  <cellXfs count="22">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="187" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="187" fontId="0" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -265,9 +259,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -289,8 +280,8 @@
     <xf numFmtId="187" fontId="0" fillId="7" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -304,13 +295,18 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="188" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -413,7 +409,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>56.0</c:v>
+                  <c:v>96.0</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -566,7 +562,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>153.0</c:v>
+                  <c:v>152.5</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -836,7 +832,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>263.5</c:v>
+                  <c:v>267.0</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -1482,16 +1478,16 @@
                 <c:formatCode>0.000</c:formatCode>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
-                  <c:v>-13.062998175357723</c:v>
+                  <c:v>-7.7579583875593201</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>-0.19827668994658865</c:v>
+                  <c:v>-0.26458968729406251</c:v>
                 </c:pt>
                 <c:pt idx="2">
                   <c:v>7.096153018276226</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>14.456895723846522</c:v>
+                  <c:v>14.921086705278874</c:v>
                 </c:pt>
                 <c:pt idx="4">
                   <c:v>21.81763842941681</c:v>
@@ -3176,10 +3172,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2FC29112-2AE5-DD4D-A7F0-10D3E464D529}">
-  <dimension ref="A1:AA56"/>
+  <dimension ref="A1:T56"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" zoomScale="55" zoomScaleNormal="55" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="Q21" sqref="Q21"/>
+    <sheetView tabSelected="1" topLeftCell="D1" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection activeCell="E10" sqref="E10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -3192,1954 +3188,1557 @@
     <col min="10" max="10" width="9.69921875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A1" s="22"/>
-      <c r="B1" s="22"/>
-      <c r="C1" s="7"/>
-      <c r="D1" s="7"/>
-      <c r="E1" s="7"/>
-      <c r="F1" s="7"/>
-      <c r="G1" s="7"/>
-      <c r="H1" s="7"/>
-      <c r="I1" s="7"/>
-      <c r="J1" s="7"/>
-      <c r="K1" s="7"/>
-      <c r="L1" s="7"/>
-      <c r="M1" s="7"/>
-      <c r="N1" s="7"/>
-      <c r="O1" s="7"/>
-      <c r="P1" s="7"/>
-      <c r="Q1" s="7"/>
-      <c r="R1" s="7"/>
-      <c r="S1" s="7"/>
-      <c r="T1" s="7"/>
-      <c r="U1" s="23"/>
-      <c r="V1" s="23"/>
-      <c r="W1" s="23"/>
-      <c r="X1" s="23"/>
-      <c r="Y1" s="23"/>
-      <c r="Z1" s="23"/>
-      <c r="AA1" s="23"/>
-    </row>
-    <row r="2" spans="1:27" ht="48" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="7"/>
-      <c r="B2" s="8" t="s">
+    <row r="1" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A1" s="13"/>
+      <c r="B1" s="13"/>
+      <c r="C1" s="5"/>
+      <c r="D1" s="5"/>
+      <c r="E1" s="5"/>
+      <c r="F1" s="5"/>
+      <c r="G1" s="5"/>
+      <c r="H1" s="5"/>
+      <c r="I1" s="5"/>
+      <c r="J1" s="5"/>
+      <c r="K1" s="5"/>
+      <c r="L1" s="5"/>
+      <c r="M1" s="5"/>
+      <c r="N1" s="5"/>
+      <c r="O1" s="5"/>
+      <c r="P1" s="5"/>
+      <c r="Q1" s="5"/>
+      <c r="R1" s="5"/>
+      <c r="S1" s="5"/>
+      <c r="T1" s="5"/>
+    </row>
+    <row r="2" spans="1:20" ht="48" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="5"/>
+      <c r="B2" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="C2" s="8" t="s">
+      <c r="C2" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="D2" s="8" t="s">
+      <c r="D2" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="E2" s="7"/>
-      <c r="F2" s="2" t="s">
+      <c r="E2" s="5"/>
+      <c r="F2" s="18" t="s">
         <v>11</v>
       </c>
-      <c r="G2" s="3" t="s">
+      <c r="G2" s="19" t="s">
         <v>12</v>
       </c>
-      <c r="H2" s="3"/>
-      <c r="I2" s="3"/>
-      <c r="J2" s="3"/>
-      <c r="K2" s="3"/>
-      <c r="L2" s="3"/>
-      <c r="M2" s="3"/>
-      <c r="N2" s="3"/>
-      <c r="O2" s="3"/>
-      <c r="P2" s="3"/>
-      <c r="Q2" s="3"/>
-      <c r="R2" s="3"/>
-      <c r="S2" s="3"/>
-      <c r="T2" s="7"/>
-      <c r="U2" s="23"/>
-      <c r="V2" s="23"/>
-      <c r="W2" s="23"/>
-      <c r="X2" s="23"/>
-      <c r="Y2" s="23"/>
-      <c r="Z2" s="23"/>
-      <c r="AA2" s="23"/>
-    </row>
-    <row r="3" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A3" s="7"/>
-      <c r="B3" s="9" t="s">
+      <c r="H2" s="19"/>
+      <c r="I2" s="19"/>
+      <c r="J2" s="19"/>
+      <c r="K2" s="19"/>
+      <c r="L2" s="19"/>
+      <c r="M2" s="19"/>
+      <c r="N2" s="19"/>
+      <c r="O2" s="19"/>
+      <c r="P2" s="19"/>
+      <c r="Q2" s="19"/>
+      <c r="R2" s="19"/>
+      <c r="S2" s="19"/>
+      <c r="T2" s="5"/>
+    </row>
+    <row r="3" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A3" s="5"/>
+      <c r="B3" s="6" t="s">
         <v>0</v>
       </c>
-      <c r="C3" s="10">
+      <c r="C3" s="7">
         <v>2472</v>
       </c>
-      <c r="D3" s="9" t="s">
+      <c r="D3" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="E3" s="7"/>
-      <c r="F3" s="2"/>
-      <c r="G3" s="4" t="s">
+      <c r="E3" s="5"/>
+      <c r="F3" s="18"/>
+      <c r="G3" s="20" t="s">
         <v>13</v>
       </c>
-      <c r="H3" s="4"/>
-      <c r="I3" s="4"/>
-      <c r="J3" s="4"/>
-      <c r="K3" s="4"/>
-      <c r="L3" s="4"/>
-      <c r="M3" s="4"/>
-      <c r="N3" s="4"/>
-      <c r="O3" s="4"/>
-      <c r="P3" s="4"/>
-      <c r="Q3" s="4"/>
-      <c r="R3" s="4"/>
-      <c r="S3" s="4"/>
-      <c r="T3" s="7"/>
-      <c r="U3" s="23"/>
-      <c r="V3" s="23"/>
-      <c r="W3" s="23"/>
-      <c r="X3" s="23"/>
-      <c r="Y3" s="23"/>
-      <c r="Z3" s="23"/>
-      <c r="AA3" s="23"/>
-    </row>
-    <row r="4" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A4" s="7"/>
-      <c r="B4" s="9" t="s">
+      <c r="H3" s="20"/>
+      <c r="I3" s="20"/>
+      <c r="J3" s="20"/>
+      <c r="K3" s="20"/>
+      <c r="L3" s="20"/>
+      <c r="M3" s="20"/>
+      <c r="N3" s="20"/>
+      <c r="O3" s="20"/>
+      <c r="P3" s="20"/>
+      <c r="Q3" s="20"/>
+      <c r="R3" s="20"/>
+      <c r="S3" s="20"/>
+      <c r="T3" s="5"/>
+    </row>
+    <row r="4" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A4" s="5"/>
+      <c r="B4" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="C4" s="10">
+      <c r="C4" s="7">
         <v>388</v>
       </c>
-      <c r="D4" s="9" t="s">
+      <c r="D4" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="E4" s="7"/>
-      <c r="F4" s="2"/>
-      <c r="G4" s="5">
+      <c r="E4" s="5"/>
+      <c r="F4" s="18"/>
+      <c r="G4" s="3">
         <v>-45</v>
       </c>
-      <c r="H4" s="5">
+      <c r="H4" s="3">
         <v>-37.5</v>
       </c>
-      <c r="I4" s="5">
+      <c r="I4" s="3">
         <v>-30</v>
       </c>
-      <c r="J4" s="5">
+      <c r="J4" s="3">
         <v>-22.5</v>
       </c>
-      <c r="K4" s="5">
+      <c r="K4" s="3">
         <v>-15</v>
       </c>
-      <c r="L4" s="5">
+      <c r="L4" s="3">
         <v>-7.5</v>
       </c>
-      <c r="M4" s="5">
+      <c r="M4" s="3">
         <v>0</v>
       </c>
-      <c r="N4" s="5">
+      <c r="N4" s="3">
         <v>7.5</v>
       </c>
-      <c r="O4" s="5">
+      <c r="O4" s="3">
         <v>15</v>
       </c>
-      <c r="P4" s="5">
+      <c r="P4" s="3">
         <v>22.5</v>
       </c>
-      <c r="Q4" s="5">
+      <c r="Q4" s="3">
         <v>30</v>
       </c>
-      <c r="R4" s="5">
+      <c r="R4" s="3">
         <v>37.5</v>
       </c>
-      <c r="S4" s="5">
+      <c r="S4" s="3">
         <v>45</v>
       </c>
-      <c r="T4" s="7"/>
-      <c r="U4" s="23"/>
-      <c r="V4" s="23"/>
-      <c r="W4" s="23"/>
-      <c r="X4" s="23"/>
-      <c r="Y4" s="23"/>
-      <c r="Z4" s="23"/>
-      <c r="AA4" s="23"/>
-    </row>
-    <row r="5" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A5" s="7"/>
-      <c r="B5" s="9" t="s">
+      <c r="T4" s="5"/>
+    </row>
+    <row r="5" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A5" s="5"/>
+      <c r="B5" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="C5" s="10">
+      <c r="C5" s="7">
         <v>66</v>
       </c>
-      <c r="D5" s="9" t="s">
+      <c r="D5" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="E5" s="7"/>
-      <c r="F5" s="5">
-        <v>56</v>
-      </c>
-      <c r="G5" s="6">
+      <c r="E5" s="5"/>
+      <c r="F5" s="3">
+        <v>96</v>
+      </c>
+      <c r="G5" s="4">
         <v>-8</v>
       </c>
-      <c r="H5" s="6">
+      <c r="H5" s="4">
         <v>-6.5</v>
       </c>
-      <c r="I5" s="6">
+      <c r="I5" s="4">
         <v>-5.2</v>
       </c>
-      <c r="J5" s="6">
+      <c r="J5" s="4">
         <v>-3.7</v>
       </c>
-      <c r="K5" s="6">
+      <c r="K5" s="4">
         <v>-2.5</v>
       </c>
-      <c r="L5" s="6">
+      <c r="L5" s="4">
         <v>-1.3</v>
       </c>
-      <c r="M5" s="6">
+      <c r="M5" s="4">
         <v>0</v>
       </c>
-      <c r="N5" s="6">
+      <c r="N5" s="4">
         <v>1.2</v>
       </c>
-      <c r="O5" s="6">
+      <c r="O5" s="4">
         <v>2.5</v>
       </c>
-      <c r="P5" s="6">
+      <c r="P5" s="4">
         <v>3.6</v>
       </c>
-      <c r="Q5" s="6">
+      <c r="Q5" s="4">
         <v>5.0999999999999996</v>
       </c>
-      <c r="R5" s="6">
+      <c r="R5" s="4">
         <v>6.5</v>
       </c>
-      <c r="S5" s="6">
+      <c r="S5" s="4">
         <v>8</v>
       </c>
-      <c r="T5" s="7"/>
-      <c r="U5" s="23"/>
-      <c r="V5" s="23"/>
-      <c r="W5" s="23"/>
-      <c r="X5" s="23"/>
-      <c r="Y5" s="23"/>
-      <c r="Z5" s="23"/>
-      <c r="AA5" s="23"/>
-    </row>
-    <row r="6" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A6" s="7"/>
-      <c r="B6" s="9" t="s">
+      <c r="T5" s="5"/>
+    </row>
+    <row r="6" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A6" s="5"/>
+      <c r="B6" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="C6" s="10">
+      <c r="C6" s="7">
         <v>2926</v>
       </c>
-      <c r="D6" s="9" t="s">
+      <c r="D6" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="E6" s="7"/>
-      <c r="F6" s="5">
-        <v>153</v>
-      </c>
-      <c r="G6" s="15"/>
-      <c r="H6" s="6">
+      <c r="E6" s="5"/>
+      <c r="F6" s="3">
+        <v>152.5</v>
+      </c>
+      <c r="G6" s="12"/>
+      <c r="H6" s="4">
         <v>-7.9</v>
       </c>
-      <c r="I6" s="6">
+      <c r="I6" s="4">
         <v>-6.2</v>
       </c>
-      <c r="J6" s="6">
+      <c r="J6" s="4">
         <v>-4.7</v>
       </c>
-      <c r="K6" s="6">
+      <c r="K6" s="4">
         <v>-3.2</v>
       </c>
-      <c r="L6" s="6">
+      <c r="L6" s="4">
         <v>-1.5</v>
       </c>
-      <c r="M6" s="6">
+      <c r="M6" s="4">
         <v>0</v>
       </c>
-      <c r="N6" s="6">
+      <c r="N6" s="4">
         <v>1.5</v>
       </c>
-      <c r="O6" s="6">
+      <c r="O6" s="4">
         <v>3</v>
       </c>
-      <c r="P6" s="6">
+      <c r="P6" s="4">
         <v>4.5</v>
       </c>
-      <c r="Q6" s="6">
+      <c r="Q6" s="4">
         <v>6</v>
       </c>
-      <c r="R6" s="6">
+      <c r="R6" s="4">
         <v>7.6</v>
       </c>
-      <c r="S6" s="15"/>
-      <c r="T6" s="7"/>
-      <c r="U6" s="23"/>
-      <c r="V6" s="23"/>
-      <c r="W6" s="23"/>
-      <c r="X6" s="23"/>
-      <c r="Y6" s="23"/>
-      <c r="Z6" s="23"/>
-      <c r="AA6" s="23"/>
-    </row>
-    <row r="7" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A7" s="7"/>
-      <c r="B7" s="9" t="s">
+      <c r="S6" s="12"/>
+      <c r="T6" s="5"/>
+    </row>
+    <row r="7" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A7" s="5"/>
+      <c r="B7" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="C7" s="10">
+      <c r="C7" s="7">
         <v>198</v>
       </c>
-      <c r="D7" s="9" t="s">
+      <c r="D7" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="E7" s="7"/>
-      <c r="F7" s="5">
+      <c r="E7" s="5"/>
+      <c r="F7" s="3">
         <v>208</v>
       </c>
-      <c r="G7" s="15"/>
-      <c r="H7" s="15"/>
-      <c r="I7" s="6">
+      <c r="G7" s="12"/>
+      <c r="H7" s="12"/>
+      <c r="I7" s="4">
         <v>-7.7</v>
       </c>
-      <c r="J7" s="6">
+      <c r="J7" s="4">
         <v>-5.7</v>
       </c>
-      <c r="K7" s="6">
+      <c r="K7" s="4">
         <v>-3.7</v>
       </c>
-      <c r="L7" s="6">
+      <c r="L7" s="4">
         <v>-2</v>
       </c>
-      <c r="M7" s="6">
+      <c r="M7" s="4">
         <v>0</v>
       </c>
-      <c r="N7" s="6">
+      <c r="N7" s="4">
         <v>1.9</v>
       </c>
-      <c r="O7" s="6">
+      <c r="O7" s="4">
         <v>3.5</v>
       </c>
-      <c r="P7" s="6">
+      <c r="P7" s="4">
         <v>3.6</v>
       </c>
-      <c r="Q7" s="6">
+      <c r="Q7" s="4">
         <v>7.4</v>
       </c>
-      <c r="R7" s="15"/>
-      <c r="S7" s="15"/>
-      <c r="T7" s="7"/>
-      <c r="U7" s="23"/>
-      <c r="V7" s="23"/>
-      <c r="W7" s="23"/>
-      <c r="X7" s="23"/>
-      <c r="Y7" s="23"/>
-      <c r="Z7" s="23"/>
-      <c r="AA7" s="23"/>
-    </row>
-    <row r="8" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A8" s="7"/>
-      <c r="B8" s="9" t="s">
+      <c r="R7" s="12"/>
+      <c r="S7" s="12"/>
+      <c r="T7" s="5"/>
+    </row>
+    <row r="8" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A8" s="5"/>
+      <c r="B8" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="C8" s="10">
+      <c r="C8" s="7">
         <v>356</v>
       </c>
-      <c r="D8" s="9" t="s">
+      <c r="D8" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="E8" s="7"/>
-      <c r="F8" s="5">
-        <v>263.5</v>
-      </c>
-      <c r="G8" s="15"/>
-      <c r="H8" s="15"/>
-      <c r="I8" s="15"/>
-      <c r="J8" s="6">
+      <c r="E8" s="5"/>
+      <c r="F8" s="3">
+        <v>267</v>
+      </c>
+      <c r="G8" s="12"/>
+      <c r="H8" s="12"/>
+      <c r="I8" s="12"/>
+      <c r="J8" s="4">
         <v>-7.1</v>
       </c>
-      <c r="K8" s="6">
+      <c r="K8" s="4">
         <v>-4.9000000000000004</v>
       </c>
-      <c r="L8" s="6">
+      <c r="L8" s="4">
         <v>-2.6</v>
       </c>
-      <c r="M8" s="6">
+      <c r="M8" s="4">
         <v>0</v>
       </c>
-      <c r="N8" s="6">
+      <c r="N8" s="4">
         <v>2.4</v>
       </c>
-      <c r="O8" s="6">
+      <c r="O8" s="4">
         <v>4.5</v>
       </c>
-      <c r="P8" s="6">
+      <c r="P8" s="4">
         <v>6.9</v>
       </c>
-      <c r="Q8" s="15"/>
-      <c r="R8" s="15"/>
-      <c r="S8" s="15"/>
-      <c r="T8" s="7"/>
-      <c r="U8" s="23"/>
-      <c r="V8" s="23"/>
-      <c r="W8" s="23"/>
-      <c r="X8" s="23"/>
-      <c r="Y8" s="23"/>
-      <c r="Z8" s="23"/>
-      <c r="AA8" s="23"/>
-    </row>
-    <row r="9" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A9" s="7"/>
-      <c r="B9" s="9" t="s">
+      <c r="Q8" s="12"/>
+      <c r="R8" s="12"/>
+      <c r="S8" s="12"/>
+      <c r="T8" s="5"/>
+    </row>
+    <row r="9" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A9" s="5"/>
+      <c r="B9" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="C9" s="10">
+      <c r="C9" s="7">
         <v>2</v>
       </c>
-      <c r="D9" s="9" t="s">
+      <c r="D9" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="E9" s="7"/>
-      <c r="F9" s="5">
+      <c r="E9" s="5"/>
+      <c r="F9" s="3">
         <v>319</v>
       </c>
-      <c r="G9" s="15"/>
-      <c r="H9" s="15"/>
-      <c r="I9" s="15"/>
-      <c r="J9" s="15"/>
-      <c r="K9" s="6">
+      <c r="G9" s="12"/>
+      <c r="H9" s="12"/>
+      <c r="I9" s="12"/>
+      <c r="J9" s="12"/>
+      <c r="K9" s="4">
         <v>-6.5</v>
       </c>
-      <c r="L9" s="6">
+      <c r="L9" s="4">
         <v>-3.7</v>
       </c>
-      <c r="M9" s="6">
+      <c r="M9" s="4">
         <v>0</v>
       </c>
-      <c r="N9" s="6">
+      <c r="N9" s="4">
         <v>3.4</v>
       </c>
-      <c r="O9" s="6">
+      <c r="O9" s="4">
         <v>6.2</v>
       </c>
-      <c r="P9" s="15"/>
-      <c r="Q9" s="15"/>
-      <c r="R9" s="15"/>
-      <c r="S9" s="15"/>
-      <c r="T9" s="7"/>
-      <c r="U9" s="23"/>
-      <c r="V9" s="23"/>
-      <c r="W9" s="23"/>
-      <c r="X9" s="23"/>
-      <c r="Y9" s="23"/>
-      <c r="Z9" s="23"/>
-      <c r="AA9" s="23"/>
-    </row>
-    <row r="10" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A10" s="7"/>
-      <c r="B10" s="9" t="s">
+      <c r="P9" s="12"/>
+      <c r="Q9" s="12"/>
+      <c r="R9" s="12"/>
+      <c r="S9" s="12"/>
+      <c r="T9" s="5"/>
+    </row>
+    <row r="10" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A10" s="5"/>
+      <c r="B10" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="C10" s="10">
+      <c r="C10" s="7">
         <v>43.5</v>
       </c>
-      <c r="D10" s="9" t="s">
+      <c r="D10" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="E10" s="7"/>
-      <c r="F10" s="7"/>
-      <c r="G10" s="7"/>
-      <c r="H10" s="7"/>
-      <c r="I10" s="7"/>
-      <c r="J10" s="7"/>
-      <c r="K10" s="7"/>
-      <c r="L10" s="7"/>
-      <c r="M10" s="7"/>
-      <c r="N10" s="7"/>
-      <c r="O10" s="7"/>
-      <c r="P10" s="7"/>
-      <c r="Q10" s="7"/>
-      <c r="R10" s="7"/>
-      <c r="S10" s="7"/>
-      <c r="T10" s="7"/>
-      <c r="U10" s="23"/>
-      <c r="V10" s="23"/>
-      <c r="W10" s="23"/>
-      <c r="X10" s="23"/>
-      <c r="Y10" s="23"/>
-      <c r="Z10" s="23"/>
-      <c r="AA10" s="23"/>
-    </row>
-    <row r="11" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A11" s="7"/>
-      <c r="B11" s="9" t="s">
+      <c r="E10" s="5"/>
+      <c r="F10" s="5"/>
+      <c r="G10" s="5"/>
+      <c r="H10" s="5"/>
+      <c r="I10" s="5"/>
+      <c r="J10" s="5"/>
+      <c r="K10" s="5"/>
+      <c r="L10" s="5"/>
+      <c r="M10" s="5"/>
+      <c r="N10" s="5"/>
+      <c r="O10" s="5"/>
+      <c r="P10" s="5"/>
+      <c r="Q10" s="5"/>
+      <c r="R10" s="5"/>
+      <c r="S10" s="5"/>
+      <c r="T10" s="5"/>
+    </row>
+    <row r="11" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A11" s="5"/>
+      <c r="B11" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="C11" s="10">
+      <c r="C11" s="7">
         <v>7.54</v>
       </c>
-      <c r="D11" s="9"/>
-      <c r="E11" s="7"/>
-      <c r="F11" s="7"/>
-      <c r="G11" s="7"/>
-      <c r="H11" s="7"/>
-      <c r="I11" s="7"/>
-      <c r="J11" s="7"/>
-      <c r="K11" s="7"/>
-      <c r="L11" s="7"/>
-      <c r="M11" s="7"/>
-      <c r="N11" s="7"/>
-      <c r="O11" s="7"/>
-      <c r="P11" s="7"/>
-      <c r="Q11" s="7"/>
-      <c r="R11" s="7"/>
-      <c r="S11" s="7"/>
-      <c r="T11" s="7"/>
-      <c r="U11" s="23"/>
-      <c r="V11" s="23"/>
-      <c r="W11" s="23"/>
-      <c r="X11" s="23"/>
-      <c r="Y11" s="23"/>
-      <c r="Z11" s="23"/>
-      <c r="AA11" s="23"/>
-    </row>
-    <row r="12" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A12" s="7"/>
-      <c r="B12" s="7"/>
-      <c r="C12" s="7"/>
-      <c r="D12" s="7"/>
-      <c r="E12" s="7"/>
-      <c r="F12" s="7"/>
-      <c r="G12" s="7"/>
-      <c r="H12" s="7"/>
-      <c r="I12" s="7"/>
-      <c r="J12" s="7"/>
-      <c r="K12" s="7"/>
-      <c r="L12" s="7"/>
-      <c r="M12" s="7"/>
-      <c r="N12" s="7"/>
-      <c r="O12" s="7"/>
-      <c r="P12" s="7"/>
-      <c r="Q12" s="7"/>
-      <c r="R12" s="7"/>
-      <c r="S12" s="7"/>
-      <c r="T12" s="7"/>
-      <c r="U12" s="23"/>
-      <c r="V12" s="23"/>
-      <c r="W12" s="23"/>
-      <c r="X12" s="23"/>
-      <c r="Y12" s="23"/>
-      <c r="Z12" s="23"/>
-      <c r="AA12" s="23"/>
-    </row>
-    <row r="13" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A13" s="7"/>
-      <c r="B13" s="7"/>
-      <c r="C13" s="7"/>
-      <c r="D13" s="7"/>
-      <c r="E13" s="7"/>
-      <c r="F13" s="7"/>
-      <c r="G13" s="7"/>
-      <c r="H13" s="7"/>
-      <c r="I13" s="7"/>
-      <c r="J13" s="7"/>
-      <c r="K13" s="7"/>
-      <c r="L13" s="7"/>
-      <c r="M13" s="7"/>
-      <c r="N13" s="7"/>
-      <c r="O13" s="7"/>
-      <c r="P13" s="7"/>
-      <c r="Q13" s="7"/>
-      <c r="R13" s="7"/>
-      <c r="S13" s="7"/>
-      <c r="T13" s="7"/>
-      <c r="U13" s="23"/>
-      <c r="V13" s="23"/>
-      <c r="W13" s="23"/>
-      <c r="X13" s="23"/>
-      <c r="Y13" s="23"/>
-      <c r="Z13" s="23"/>
-      <c r="AA13" s="23"/>
-    </row>
-    <row r="14" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A14" s="7"/>
-      <c r="B14" s="7"/>
-      <c r="C14" s="7"/>
-      <c r="D14" s="7"/>
-      <c r="E14" s="7"/>
-      <c r="F14" s="7"/>
-      <c r="G14" s="7"/>
-      <c r="H14" s="7"/>
-      <c r="I14" s="7"/>
-      <c r="J14" s="7"/>
-      <c r="K14" s="7"/>
-      <c r="L14" s="7"/>
-      <c r="M14" s="7"/>
-      <c r="N14" s="7"/>
-      <c r="O14" s="7"/>
-      <c r="P14" s="7"/>
-      <c r="Q14" s="7"/>
-      <c r="R14" s="7"/>
-      <c r="S14" s="7"/>
-      <c r="T14" s="7"/>
-      <c r="U14" s="23"/>
-      <c r="V14" s="23"/>
-      <c r="W14" s="23"/>
-      <c r="X14" s="23"/>
-      <c r="Y14" s="23"/>
-      <c r="Z14" s="23"/>
-      <c r="AA14" s="23"/>
-    </row>
-    <row r="15" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A15" s="7"/>
-      <c r="B15" s="7"/>
-      <c r="C15" s="7"/>
-      <c r="D15" s="7"/>
-      <c r="E15" s="7"/>
-      <c r="F15" s="7"/>
-      <c r="G15" s="7"/>
-      <c r="H15" s="7"/>
-      <c r="I15" s="7"/>
-      <c r="J15" s="7"/>
-      <c r="K15" s="7"/>
-      <c r="L15" s="7"/>
-      <c r="M15" s="7"/>
-      <c r="N15" s="7"/>
-      <c r="O15" s="7"/>
-      <c r="P15" s="7"/>
-      <c r="Q15" s="7"/>
-      <c r="R15" s="7"/>
-      <c r="S15" s="7"/>
-      <c r="T15" s="7"/>
-      <c r="U15" s="23"/>
-      <c r="V15" s="23"/>
-      <c r="W15" s="23"/>
-      <c r="X15" s="23"/>
-      <c r="Y15" s="23"/>
-      <c r="Z15" s="23"/>
-      <c r="AA15" s="23"/>
-    </row>
-    <row r="16" spans="1:27" ht="13.8" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="7"/>
-      <c r="B16" s="16" t="s">
+      <c r="D11" s="6"/>
+      <c r="E11" s="5"/>
+      <c r="F11" s="5"/>
+      <c r="G11" s="5"/>
+      <c r="H11" s="5"/>
+      <c r="I11" s="5"/>
+      <c r="J11" s="5"/>
+      <c r="K11" s="5"/>
+      <c r="L11" s="5"/>
+      <c r="M11" s="5"/>
+      <c r="N11" s="5"/>
+      <c r="O11" s="5"/>
+      <c r="P11" s="5"/>
+      <c r="Q11" s="5"/>
+      <c r="R11" s="5"/>
+      <c r="S11" s="5"/>
+      <c r="T11" s="5"/>
+    </row>
+    <row r="12" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A12" s="5"/>
+      <c r="B12" s="5"/>
+      <c r="C12" s="5"/>
+      <c r="D12" s="5"/>
+      <c r="E12" s="5"/>
+      <c r="F12" s="5"/>
+      <c r="G12" s="5"/>
+      <c r="H12" s="5"/>
+      <c r="I12" s="5"/>
+      <c r="J12" s="5"/>
+      <c r="K12" s="5"/>
+      <c r="L12" s="5"/>
+      <c r="M12" s="5"/>
+      <c r="N12" s="5"/>
+      <c r="O12" s="5"/>
+      <c r="P12" s="5"/>
+      <c r="Q12" s="5"/>
+      <c r="R12" s="5"/>
+      <c r="S12" s="5"/>
+      <c r="T12" s="5"/>
+    </row>
+    <row r="13" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A13" s="5"/>
+      <c r="B13" s="5"/>
+      <c r="C13" s="5"/>
+      <c r="D13" s="5"/>
+      <c r="E13" s="5"/>
+      <c r="F13" s="5"/>
+      <c r="G13" s="5"/>
+      <c r="H13" s="5"/>
+      <c r="I13" s="5"/>
+      <c r="J13" s="5"/>
+      <c r="K13" s="5"/>
+      <c r="L13" s="5"/>
+      <c r="M13" s="5"/>
+      <c r="N13" s="5"/>
+      <c r="O13" s="5"/>
+      <c r="P13" s="5"/>
+      <c r="Q13" s="5"/>
+      <c r="R13" s="5"/>
+      <c r="S13" s="5"/>
+      <c r="T13" s="5"/>
+    </row>
+    <row r="14" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A14" s="5"/>
+      <c r="B14" s="5"/>
+      <c r="C14" s="5"/>
+      <c r="D14" s="5"/>
+      <c r="E14" s="5"/>
+      <c r="F14" s="5"/>
+      <c r="G14" s="5"/>
+      <c r="H14" s="5"/>
+      <c r="I14" s="5"/>
+      <c r="J14" s="5"/>
+      <c r="K14" s="5"/>
+      <c r="L14" s="5"/>
+      <c r="M14" s="5"/>
+      <c r="N14" s="5"/>
+      <c r="O14" s="5"/>
+      <c r="P14" s="5"/>
+      <c r="Q14" s="5"/>
+      <c r="R14" s="5"/>
+      <c r="S14" s="5"/>
+      <c r="T14" s="5"/>
+    </row>
+    <row r="15" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A15" s="5"/>
+      <c r="B15" s="5"/>
+      <c r="C15" s="5"/>
+      <c r="D15" s="5"/>
+      <c r="E15" s="5"/>
+      <c r="F15" s="5"/>
+      <c r="G15" s="5"/>
+      <c r="H15" s="5"/>
+      <c r="I15" s="5"/>
+      <c r="J15" s="5"/>
+      <c r="K15" s="5"/>
+      <c r="L15" s="5"/>
+      <c r="M15" s="5"/>
+      <c r="N15" s="5"/>
+      <c r="O15" s="5"/>
+      <c r="P15" s="5"/>
+      <c r="Q15" s="5"/>
+      <c r="R15" s="5"/>
+      <c r="S15" s="5"/>
+      <c r="T15" s="5"/>
+    </row>
+    <row r="16" spans="1:20" ht="13.8" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A16" s="5"/>
+      <c r="B16" s="21" t="s">
         <v>17</v>
       </c>
-      <c r="C16" s="16"/>
-      <c r="D16" s="16"/>
-      <c r="E16" s="12">
+      <c r="C16" s="21"/>
+      <c r="D16" s="21"/>
+      <c r="E16" s="9">
         <f>(C8*(C7^3))/12</f>
         <v>230284296</v>
       </c>
-      <c r="F16" s="7"/>
-      <c r="G16" s="20" t="s">
+      <c r="F16" s="5"/>
+      <c r="G16" s="17" t="s">
         <v>22</v>
       </c>
-      <c r="H16" s="20" t="s">
+      <c r="H16" s="17" t="s">
         <v>26</v>
       </c>
-      <c r="I16" s="20" t="s">
+      <c r="I16" s="17" t="s">
         <v>23</v>
       </c>
-      <c r="J16" s="20" t="s">
+      <c r="J16" s="17" t="s">
         <v>27</v>
       </c>
-      <c r="K16" s="20" t="s">
+      <c r="K16" s="17" t="s">
         <v>24</v>
       </c>
-      <c r="L16" s="20" t="s">
+      <c r="L16" s="17" t="s">
         <v>25</v>
       </c>
-      <c r="M16" s="7"/>
-      <c r="N16" s="7"/>
-      <c r="O16" s="7"/>
-      <c r="P16" s="7"/>
-      <c r="Q16" s="7"/>
-      <c r="R16" s="7"/>
-      <c r="S16" s="7"/>
-      <c r="T16" s="7"/>
-      <c r="U16" s="23"/>
-      <c r="V16" s="23"/>
-      <c r="W16" s="23"/>
-      <c r="X16" s="23"/>
-      <c r="Y16" s="23"/>
-      <c r="Z16" s="23"/>
-      <c r="AA16" s="23"/>
-    </row>
-    <row r="17" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A17" s="7"/>
-      <c r="B17" s="17" t="s">
+      <c r="M16" s="5"/>
+      <c r="N16" s="5"/>
+      <c r="O16" s="5"/>
+      <c r="P16" s="5"/>
+      <c r="Q16" s="5"/>
+      <c r="R16" s="5"/>
+      <c r="S16" s="5"/>
+      <c r="T16" s="5"/>
+    </row>
+    <row r="17" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A17" s="5"/>
+      <c r="B17" s="14" t="s">
         <v>18</v>
       </c>
-      <c r="C17" s="18"/>
-      <c r="D17" s="19"/>
-      <c r="E17" s="13">
+      <c r="C17" s="15"/>
+      <c r="D17" s="16"/>
+      <c r="E17" s="10">
         <f>C6*1000</f>
         <v>2926000</v>
       </c>
-      <c r="F17" s="7"/>
-      <c r="G17" s="20"/>
-      <c r="H17" s="20"/>
-      <c r="I17" s="20"/>
-      <c r="J17" s="20"/>
-      <c r="K17" s="20"/>
-      <c r="L17" s="20"/>
-      <c r="M17" s="7"/>
-      <c r="N17" s="7"/>
-      <c r="O17" s="7"/>
-      <c r="P17" s="7"/>
-      <c r="Q17" s="7"/>
-      <c r="R17" s="7"/>
-      <c r="S17" s="7"/>
-      <c r="T17" s="7"/>
-      <c r="U17" s="23"/>
-      <c r="V17" s="23"/>
-      <c r="W17" s="23"/>
-      <c r="X17" s="23"/>
-      <c r="Y17" s="23"/>
-      <c r="Z17" s="23"/>
-      <c r="AA17" s="23"/>
-    </row>
-    <row r="18" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A18" s="7"/>
-      <c r="B18" s="17" t="s">
+      <c r="F17" s="5"/>
+      <c r="G17" s="17"/>
+      <c r="H17" s="17"/>
+      <c r="I17" s="17"/>
+      <c r="J17" s="17"/>
+      <c r="K17" s="17"/>
+      <c r="L17" s="17"/>
+      <c r="M17" s="5"/>
+      <c r="N17" s="5"/>
+      <c r="O17" s="5"/>
+      <c r="P17" s="5"/>
+      <c r="Q17" s="5"/>
+      <c r="R17" s="5"/>
+      <c r="S17" s="5"/>
+      <c r="T17" s="5"/>
+    </row>
+    <row r="18" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A18" s="5"/>
+      <c r="B18" s="14" t="s">
         <v>19</v>
       </c>
-      <c r="C18" s="18"/>
-      <c r="D18" s="19"/>
-      <c r="E18" s="14">
+      <c r="C18" s="15"/>
+      <c r="D18" s="16"/>
+      <c r="E18" s="11">
         <f>E16/E17</f>
         <v>78.702766917293232</v>
       </c>
-      <c r="F18" s="7"/>
-      <c r="G18" s="20"/>
-      <c r="H18" s="20"/>
-      <c r="I18" s="20"/>
-      <c r="J18" s="20"/>
-      <c r="K18" s="20"/>
-      <c r="L18" s="20"/>
-      <c r="M18" s="7"/>
-      <c r="N18" s="7"/>
-      <c r="O18" s="7"/>
-      <c r="P18" s="7"/>
-      <c r="Q18" s="7"/>
-      <c r="R18" s="7"/>
-      <c r="S18" s="7"/>
-      <c r="T18" s="7"/>
-      <c r="U18" s="23"/>
-      <c r="V18" s="23"/>
-      <c r="W18" s="23"/>
-      <c r="X18" s="23"/>
-      <c r="Y18" s="23"/>
-      <c r="Z18" s="23"/>
-      <c r="AA18" s="23"/>
-    </row>
-    <row r="19" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A19" s="7"/>
-      <c r="B19" s="17" t="s">
+      <c r="F18" s="5"/>
+      <c r="G18" s="17"/>
+      <c r="H18" s="17"/>
+      <c r="I18" s="17"/>
+      <c r="J18" s="17"/>
+      <c r="K18" s="17"/>
+      <c r="L18" s="17"/>
+      <c r="M18" s="5"/>
+      <c r="N18" s="5"/>
+      <c r="O18" s="5"/>
+      <c r="P18" s="5"/>
+      <c r="Q18" s="5"/>
+      <c r="R18" s="5"/>
+      <c r="S18" s="5"/>
+      <c r="T18" s="5"/>
+    </row>
+    <row r="19" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A19" s="5"/>
+      <c r="B19" s="14" t="s">
         <v>20</v>
       </c>
-      <c r="C19" s="18"/>
-      <c r="D19" s="19"/>
-      <c r="E19" s="14">
+      <c r="C19" s="15"/>
+      <c r="D19" s="16"/>
+      <c r="E19" s="11">
         <f>E17/(C8*C7)</f>
         <v>41.510611735330833</v>
       </c>
-      <c r="F19" s="7"/>
-      <c r="G19" s="20"/>
-      <c r="H19" s="20"/>
-      <c r="I19" s="20"/>
-      <c r="J19" s="20"/>
-      <c r="K19" s="20"/>
-      <c r="L19" s="20"/>
-      <c r="M19" s="7"/>
-      <c r="N19" s="7"/>
-      <c r="O19" s="7"/>
-      <c r="P19" s="7"/>
-      <c r="Q19" s="7"/>
-      <c r="R19" s="7"/>
-      <c r="S19" s="7"/>
-      <c r="T19" s="7"/>
-      <c r="U19" s="23"/>
-      <c r="V19" s="23"/>
-      <c r="W19" s="23"/>
-      <c r="X19" s="23"/>
-      <c r="Y19" s="23"/>
-      <c r="Z19" s="23"/>
-      <c r="AA19" s="23"/>
-    </row>
-    <row r="20" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A20" s="7"/>
-      <c r="B20" s="17" t="s">
+      <c r="F19" s="5"/>
+      <c r="G19" s="17"/>
+      <c r="H19" s="17"/>
+      <c r="I19" s="17"/>
+      <c r="J19" s="17"/>
+      <c r="K19" s="17"/>
+      <c r="L19" s="17"/>
+      <c r="M19" s="5"/>
+      <c r="N19" s="5"/>
+      <c r="O19" s="5"/>
+      <c r="P19" s="5"/>
+      <c r="Q19" s="5"/>
+      <c r="R19" s="5"/>
+      <c r="S19" s="5"/>
+      <c r="T19" s="5"/>
+    </row>
+    <row r="20" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A20" s="5"/>
+      <c r="B20" s="14" t="s">
         <v>21</v>
       </c>
-      <c r="C20" s="18"/>
-      <c r="D20" s="19"/>
-      <c r="E20" s="14">
+      <c r="C20" s="15"/>
+      <c r="D20" s="16"/>
+      <c r="E20" s="11">
         <f>E19*0.5</f>
         <v>20.755305867665417</v>
       </c>
-      <c r="F20" s="7"/>
-      <c r="G20" s="20"/>
-      <c r="H20" s="20"/>
-      <c r="I20" s="20"/>
-      <c r="J20" s="20"/>
-      <c r="K20" s="20"/>
-      <c r="L20" s="20"/>
-      <c r="M20" s="7"/>
-      <c r="N20" s="7"/>
-      <c r="O20" s="7"/>
-      <c r="P20" s="7"/>
-      <c r="Q20" s="7"/>
-      <c r="R20" s="7"/>
-      <c r="S20" s="7"/>
-      <c r="T20" s="7"/>
-      <c r="U20" s="23"/>
-      <c r="V20" s="23"/>
-      <c r="W20" s="23"/>
-      <c r="X20" s="23"/>
-      <c r="Y20" s="23"/>
-      <c r="Z20" s="23"/>
-      <c r="AA20" s="23"/>
-    </row>
-    <row r="21" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A21" s="7"/>
-      <c r="B21" s="7"/>
-      <c r="C21" s="7"/>
-      <c r="D21" s="7"/>
-      <c r="E21" s="7"/>
-      <c r="F21" s="7"/>
-      <c r="G21" s="20"/>
-      <c r="H21" s="20"/>
-      <c r="I21" s="20"/>
-      <c r="J21" s="20"/>
-      <c r="K21" s="20"/>
-      <c r="L21" s="20"/>
-      <c r="M21" s="7"/>
-      <c r="N21" s="7"/>
-      <c r="O21" s="7"/>
-      <c r="P21" s="7"/>
-      <c r="Q21" s="7"/>
-      <c r="R21" s="7"/>
-      <c r="S21" s="7"/>
-      <c r="T21" s="7"/>
-      <c r="U21" s="23"/>
-      <c r="V21" s="23"/>
-      <c r="W21" s="23"/>
-      <c r="X21" s="23"/>
-      <c r="Y21" s="23"/>
-      <c r="Z21" s="23"/>
-      <c r="AA21" s="23"/>
-    </row>
-    <row r="22" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A22" s="7"/>
-      <c r="B22" s="7"/>
-      <c r="C22" s="7"/>
-      <c r="D22" s="7"/>
-      <c r="E22" s="7"/>
-      <c r="F22" s="7"/>
+      <c r="F20" s="5"/>
+      <c r="G20" s="17"/>
+      <c r="H20" s="17"/>
+      <c r="I20" s="17"/>
+      <c r="J20" s="17"/>
+      <c r="K20" s="17"/>
+      <c r="L20" s="17"/>
+      <c r="M20" s="5"/>
+      <c r="N20" s="5"/>
+      <c r="O20" s="5"/>
+      <c r="P20" s="5"/>
+      <c r="Q20" s="5"/>
+      <c r="R20" s="5"/>
+      <c r="S20" s="5"/>
+      <c r="T20" s="5"/>
+    </row>
+    <row r="21" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A21" s="5"/>
+      <c r="B21" s="5"/>
+      <c r="C21" s="5"/>
+      <c r="D21" s="5"/>
+      <c r="E21" s="5"/>
+      <c r="F21" s="5"/>
+      <c r="G21" s="17"/>
+      <c r="H21" s="17"/>
+      <c r="I21" s="17"/>
+      <c r="J21" s="17"/>
+      <c r="K21" s="17"/>
+      <c r="L21" s="17"/>
+      <c r="M21" s="5"/>
+      <c r="N21" s="5"/>
+      <c r="O21" s="5"/>
+      <c r="P21" s="5"/>
+      <c r="Q21" s="5"/>
+      <c r="R21" s="5"/>
+      <c r="S21" s="5"/>
+      <c r="T21" s="5"/>
+    </row>
+    <row r="22" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A22" s="5"/>
+      <c r="B22" s="5"/>
+      <c r="C22" s="5"/>
+      <c r="D22" s="5"/>
+      <c r="E22" s="5"/>
+      <c r="F22" s="5"/>
       <c r="G22" s="1">
         <f>F5</f>
-        <v>56</v>
-      </c>
-      <c r="H22" s="11">
+        <v>96</v>
+      </c>
+      <c r="H22" s="8">
         <f>((G22+C$9)/C$11)+E$20</f>
-        <v>28.44761355997311</v>
-      </c>
-      <c r="I22" s="11">
+        <v>33.752653347771513</v>
+      </c>
+      <c r="I22" s="8">
         <f>H22-E$19</f>
-        <v>-13.062998175357723</v>
-      </c>
-      <c r="J22" s="11">
+        <v>-7.7579583875593201</v>
+      </c>
+      <c r="J22" s="8">
         <f>(S4-G4)/(S5-G5)</f>
         <v>5.625</v>
       </c>
-      <c r="K22" s="11">
+      <c r="K22" s="8">
         <f>J22*C$11</f>
         <v>42.412500000000001</v>
       </c>
-      <c r="L22" s="11">
+      <c r="L22" s="8">
         <f>K22+I22</f>
-        <v>29.349501824642278</v>
-      </c>
-      <c r="M22" s="7"/>
-      <c r="N22" s="7"/>
-      <c r="O22" s="7"/>
-      <c r="P22" s="7"/>
-      <c r="Q22" s="7"/>
-      <c r="R22" s="7"/>
-      <c r="S22" s="7"/>
-      <c r="T22" s="7"/>
-      <c r="U22" s="23"/>
-      <c r="V22" s="23"/>
-      <c r="W22" s="23"/>
-      <c r="X22" s="23"/>
-      <c r="Y22" s="23"/>
-      <c r="Z22" s="23"/>
-      <c r="AA22" s="23"/>
-    </row>
-    <row r="23" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A23" s="7"/>
-      <c r="B23" s="7"/>
-      <c r="C23" s="7"/>
-      <c r="D23" s="7"/>
-      <c r="E23" s="7"/>
-      <c r="F23" s="7"/>
+        <v>34.654541612440681</v>
+      </c>
+      <c r="M22" s="5"/>
+      <c r="N22" s="5"/>
+      <c r="O22" s="5"/>
+      <c r="P22" s="5"/>
+      <c r="Q22" s="5"/>
+      <c r="R22" s="5"/>
+      <c r="S22" s="5"/>
+      <c r="T22" s="5"/>
+    </row>
+    <row r="23" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A23" s="5"/>
+      <c r="B23" s="5"/>
+      <c r="C23" s="5"/>
+      <c r="D23" s="5"/>
+      <c r="E23" s="5"/>
+      <c r="F23" s="5"/>
       <c r="G23" s="1">
         <f t="shared" ref="G23:G26" si="0">F6</f>
-        <v>153</v>
-      </c>
-      <c r="H23" s="11">
+        <v>152.5</v>
+      </c>
+      <c r="H23" s="8">
         <f t="shared" ref="H23:H26" si="1">((G23+C$9)/C$11)+E$20</f>
-        <v>41.312335045384245</v>
-      </c>
-      <c r="I23" s="11">
+        <v>41.246022048036771</v>
+      </c>
+      <c r="I23" s="8">
         <f t="shared" ref="I23:I26" si="2">H23-E$19</f>
-        <v>-0.19827668994658865</v>
-      </c>
-      <c r="J23" s="11">
+        <v>-0.26458968729406251</v>
+      </c>
+      <c r="J23" s="8">
         <f>(R4-H4)/(R6-H6)</f>
         <v>4.838709677419355</v>
       </c>
-      <c r="K23" s="11">
+      <c r="K23" s="8">
         <f t="shared" ref="K23:K26" si="3">J23*C$11</f>
         <v>36.483870967741936</v>
       </c>
-      <c r="L23" s="11">
+      <c r="L23" s="8">
         <f>K23+I23</f>
-        <v>36.285594277795347</v>
-      </c>
-      <c r="M23" s="7"/>
-      <c r="N23" s="7"/>
-      <c r="O23" s="7"/>
-      <c r="P23" s="7"/>
-      <c r="Q23" s="7"/>
-      <c r="R23" s="7"/>
-      <c r="S23" s="7"/>
-      <c r="T23" s="7"/>
-      <c r="U23" s="23"/>
-      <c r="V23" s="23"/>
-      <c r="W23" s="23"/>
-      <c r="X23" s="23"/>
-      <c r="Y23" s="23"/>
-      <c r="Z23" s="23"/>
-      <c r="AA23" s="23"/>
-    </row>
-    <row r="24" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A24" s="7"/>
-      <c r="B24" s="7"/>
-      <c r="C24" s="7"/>
-      <c r="D24" s="7"/>
-      <c r="E24" s="7"/>
-      <c r="F24" s="7"/>
+        <v>36.219281280447873</v>
+      </c>
+      <c r="M23" s="5"/>
+      <c r="N23" s="5"/>
+      <c r="O23" s="5"/>
+      <c r="P23" s="5"/>
+      <c r="Q23" s="5"/>
+      <c r="R23" s="5"/>
+      <c r="S23" s="5"/>
+      <c r="T23" s="5"/>
+    </row>
+    <row r="24" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A24" s="5"/>
+      <c r="B24" s="5"/>
+      <c r="C24" s="5"/>
+      <c r="D24" s="5"/>
+      <c r="E24" s="5"/>
+      <c r="F24" s="5"/>
       <c r="G24" s="1">
         <f t="shared" si="0"/>
         <v>208</v>
       </c>
-      <c r="H24" s="11">
+      <c r="H24" s="8">
         <f t="shared" si="1"/>
         <v>48.60676475360706</v>
       </c>
-      <c r="I24" s="11">
+      <c r="I24" s="8">
         <f t="shared" si="2"/>
         <v>7.096153018276226</v>
       </c>
-      <c r="J24" s="11">
+      <c r="J24" s="8">
         <f>(Q4-I4)/(Q7-I7)</f>
         <v>3.9735099337748339</v>
       </c>
-      <c r="K24" s="11">
+      <c r="K24" s="8">
         <f>J24*C$11</f>
         <v>29.960264900662246</v>
       </c>
-      <c r="L24" s="11">
+      <c r="L24" s="8">
         <f>K24+I24</f>
         <v>37.056417918938472</v>
       </c>
-      <c r="M24" s="7"/>
-      <c r="N24" s="7"/>
-      <c r="O24" s="7"/>
-      <c r="P24" s="7"/>
-      <c r="Q24" s="7"/>
-      <c r="R24" s="7"/>
-      <c r="S24" s="7"/>
-      <c r="T24" s="7"/>
-      <c r="U24" s="23"/>
-      <c r="V24" s="23"/>
-      <c r="W24" s="23"/>
-      <c r="X24" s="23"/>
-      <c r="Y24" s="23"/>
-      <c r="Z24" s="23"/>
-      <c r="AA24" s="23"/>
-    </row>
-    <row r="25" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A25" s="7"/>
-      <c r="B25" s="7"/>
-      <c r="C25" s="7"/>
-      <c r="D25" s="7"/>
-      <c r="E25" s="7"/>
-      <c r="F25" s="7"/>
+      <c r="M24" s="5"/>
+      <c r="N24" s="5"/>
+      <c r="O24" s="5"/>
+      <c r="P24" s="5"/>
+      <c r="Q24" s="5"/>
+      <c r="R24" s="5"/>
+      <c r="S24" s="5"/>
+      <c r="T24" s="5"/>
+    </row>
+    <row r="25" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A25" s="5"/>
+      <c r="B25" s="5"/>
+      <c r="C25" s="5"/>
+      <c r="D25" s="5"/>
+      <c r="E25" s="5"/>
+      <c r="F25" s="5"/>
       <c r="G25" s="1">
         <f t="shared" si="0"/>
-        <v>263.5</v>
-      </c>
-      <c r="H25" s="11">
+        <v>267</v>
+      </c>
+      <c r="H25" s="8">
         <f t="shared" si="1"/>
-        <v>55.967507459177355</v>
-      </c>
-      <c r="I25" s="11">
+        <v>56.431698440609708</v>
+      </c>
+      <c r="I25" s="8">
         <f t="shared" si="2"/>
-        <v>14.456895723846522</v>
-      </c>
-      <c r="J25" s="11">
+        <v>14.921086705278874</v>
+      </c>
+      <c r="J25" s="8">
         <f>(P4-J4)/(P8-J8)</f>
         <v>3.2142857142857144</v>
       </c>
-      <c r="K25" s="11">
+      <c r="K25" s="8">
         <f t="shared" si="3"/>
         <v>24.235714285714288</v>
       </c>
-      <c r="L25" s="11">
-        <f t="shared" ref="L23:L26" si="4">K25+I25</f>
-        <v>38.692610009560809</v>
-      </c>
-      <c r="M25" s="7"/>
-      <c r="N25" s="7"/>
-      <c r="O25" s="7"/>
-      <c r="P25" s="7"/>
-      <c r="Q25" s="7"/>
-      <c r="R25" s="7"/>
-      <c r="S25" s="7"/>
-      <c r="T25" s="7"/>
-      <c r="U25" s="23"/>
-      <c r="V25" s="23"/>
-      <c r="W25" s="23"/>
-      <c r="X25" s="23"/>
-      <c r="Y25" s="23"/>
-      <c r="Z25" s="23"/>
-      <c r="AA25" s="23"/>
-    </row>
-    <row r="26" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A26" s="7"/>
-      <c r="B26" s="7"/>
-      <c r="C26" s="7"/>
-      <c r="D26" s="7"/>
-      <c r="E26" s="7"/>
-      <c r="F26" s="7"/>
+      <c r="L25" s="8">
+        <f t="shared" ref="L25:L26" si="4">K25+I25</f>
+        <v>39.156800990993162</v>
+      </c>
+      <c r="M25" s="5"/>
+      <c r="N25" s="5"/>
+      <c r="O25" s="5"/>
+      <c r="P25" s="5"/>
+      <c r="Q25" s="5"/>
+      <c r="R25" s="5"/>
+      <c r="S25" s="5"/>
+      <c r="T25" s="5"/>
+    </row>
+    <row r="26" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A26" s="5"/>
+      <c r="B26" s="5"/>
+      <c r="C26" s="5"/>
+      <c r="D26" s="5"/>
+      <c r="E26" s="5"/>
+      <c r="F26" s="5"/>
       <c r="G26" s="1">
         <f t="shared" si="0"/>
         <v>319</v>
       </c>
-      <c r="H26" s="11">
+      <c r="H26" s="8">
         <f t="shared" si="1"/>
         <v>63.328250164747644</v>
       </c>
-      <c r="I26" s="11">
+      <c r="I26" s="8">
         <f t="shared" si="2"/>
         <v>21.81763842941681</v>
       </c>
-      <c r="J26" s="21">
+      <c r="J26" s="8">
         <f>(O4-K4)/(O9-K9)</f>
         <v>2.3622047244094491</v>
       </c>
-      <c r="K26" s="11">
+      <c r="K26" s="8">
         <f t="shared" si="3"/>
         <v>17.811023622047244</v>
       </c>
-      <c r="L26" s="11">
+      <c r="L26" s="8">
         <f t="shared" si="4"/>
         <v>39.628662051464055</v>
       </c>
-      <c r="M26" s="7"/>
-      <c r="N26" s="7"/>
-      <c r="O26" s="7"/>
-      <c r="P26" s="7"/>
-      <c r="Q26" s="7"/>
-      <c r="R26" s="7"/>
-      <c r="S26" s="7"/>
-      <c r="T26" s="7"/>
-      <c r="U26" s="23"/>
-      <c r="V26" s="23"/>
-      <c r="W26" s="23"/>
-      <c r="X26" s="23"/>
-      <c r="Y26" s="23"/>
-      <c r="Z26" s="23"/>
-      <c r="AA26" s="23"/>
-    </row>
-    <row r="27" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A27" s="7"/>
-      <c r="B27" s="7"/>
-      <c r="C27" s="7"/>
-      <c r="D27" s="7"/>
-      <c r="E27" s="7"/>
-      <c r="F27" s="7"/>
-      <c r="G27" s="7"/>
-      <c r="H27" s="7"/>
-      <c r="I27" s="7"/>
-      <c r="J27" s="7"/>
-      <c r="K27" s="7"/>
-      <c r="L27" s="7"/>
-      <c r="M27" s="7"/>
-      <c r="N27" s="7"/>
-      <c r="O27" s="7"/>
-      <c r="P27" s="7"/>
-      <c r="Q27" s="7"/>
-      <c r="R27" s="7"/>
-      <c r="S27" s="7"/>
-      <c r="T27" s="7"/>
-      <c r="U27" s="23"/>
-      <c r="V27" s="23"/>
-      <c r="W27" s="23"/>
-      <c r="X27" s="23"/>
-      <c r="Y27" s="23"/>
-      <c r="Z27" s="23"/>
-      <c r="AA27" s="23"/>
-    </row>
-    <row r="28" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A28" s="7"/>
-      <c r="B28" s="7"/>
-      <c r="C28" s="7"/>
-      <c r="D28" s="7"/>
-      <c r="E28" s="7"/>
-      <c r="F28" s="7"/>
-      <c r="G28" s="7"/>
-      <c r="H28" s="7"/>
-      <c r="I28" s="7"/>
-      <c r="J28" s="7"/>
-      <c r="K28" s="7"/>
-      <c r="L28" s="7"/>
-      <c r="M28" s="7"/>
-      <c r="N28" s="7"/>
-      <c r="O28" s="7"/>
-      <c r="P28" s="7"/>
-      <c r="Q28" s="7"/>
-      <c r="R28" s="7"/>
-      <c r="S28" s="7"/>
-      <c r="T28" s="7"/>
-      <c r="U28" s="23"/>
-      <c r="V28" s="23"/>
-      <c r="W28" s="23"/>
-      <c r="X28" s="23"/>
-      <c r="Y28" s="23"/>
-      <c r="Z28" s="23"/>
-      <c r="AA28" s="23"/>
-    </row>
-    <row r="29" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A29" s="7"/>
-      <c r="B29" s="7"/>
-      <c r="C29" s="7"/>
-      <c r="D29" s="7"/>
-      <c r="E29" s="7"/>
-      <c r="F29" s="7"/>
-      <c r="G29" s="7"/>
-      <c r="H29" s="7"/>
-      <c r="I29" s="7"/>
-      <c r="J29" s="7"/>
-      <c r="K29" s="7"/>
-      <c r="L29" s="7"/>
-      <c r="M29" s="7"/>
-      <c r="N29" s="7"/>
-      <c r="O29" s="7"/>
-      <c r="P29" s="7"/>
-      <c r="Q29" s="7"/>
-      <c r="R29" s="7"/>
-      <c r="S29" s="7"/>
-      <c r="T29" s="7"/>
-      <c r="U29" s="23"/>
-      <c r="V29" s="23"/>
-      <c r="W29" s="23"/>
-      <c r="X29" s="23"/>
-      <c r="Y29" s="23"/>
-      <c r="Z29" s="23"/>
-      <c r="AA29" s="23"/>
-    </row>
-    <row r="30" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A30" s="7"/>
-      <c r="B30" s="7"/>
-      <c r="C30" s="7"/>
-      <c r="D30" s="7"/>
-      <c r="E30" s="7"/>
-      <c r="F30" s="7"/>
-      <c r="G30" s="7"/>
-      <c r="H30" s="7"/>
-      <c r="I30" s="7"/>
-      <c r="J30" s="7"/>
-      <c r="K30" s="7"/>
-      <c r="L30" s="7"/>
-      <c r="M30" s="7"/>
-      <c r="N30" s="7"/>
-      <c r="O30" s="7"/>
-      <c r="P30" s="7"/>
-      <c r="Q30" s="7"/>
-      <c r="R30" s="7"/>
-      <c r="S30" s="7"/>
-      <c r="T30" s="7"/>
-      <c r="U30" s="23"/>
-      <c r="V30" s="23"/>
-      <c r="W30" s="23"/>
-      <c r="X30" s="23"/>
-      <c r="Y30" s="23"/>
-      <c r="Z30" s="23"/>
-      <c r="AA30" s="23"/>
-    </row>
-    <row r="31" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A31" s="7"/>
-      <c r="B31" s="7"/>
-      <c r="C31" s="7"/>
-      <c r="D31" s="7"/>
-      <c r="E31" s="7"/>
-      <c r="F31" s="7"/>
-      <c r="G31" s="7"/>
-      <c r="H31" s="7"/>
-      <c r="I31" s="7"/>
-      <c r="J31" s="7"/>
-      <c r="K31" s="7"/>
-      <c r="L31" s="7"/>
-      <c r="M31" s="7"/>
-      <c r="N31" s="7"/>
-      <c r="O31" s="7"/>
-      <c r="P31" s="7"/>
-      <c r="Q31" s="7"/>
-      <c r="R31" s="7"/>
-      <c r="S31" s="7"/>
-      <c r="T31" s="7"/>
-      <c r="U31" s="23"/>
-      <c r="V31" s="23"/>
-      <c r="W31" s="23"/>
-      <c r="X31" s="23"/>
-      <c r="Y31" s="23"/>
-      <c r="Z31" s="23"/>
-      <c r="AA31" s="23"/>
-    </row>
-    <row r="32" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A32" s="7"/>
-      <c r="B32" s="7"/>
-      <c r="C32" s="7"/>
-      <c r="D32" s="7"/>
-      <c r="E32" s="7"/>
-      <c r="F32" s="7"/>
-      <c r="G32" s="7"/>
-      <c r="H32" s="7"/>
-      <c r="I32" s="7"/>
-      <c r="J32" s="7"/>
-      <c r="K32" s="7"/>
-      <c r="L32" s="7"/>
-      <c r="M32" s="7"/>
-      <c r="N32" s="7"/>
-      <c r="O32" s="7"/>
-      <c r="P32" s="7"/>
-      <c r="Q32" s="7"/>
-      <c r="R32" s="7"/>
-      <c r="S32" s="7"/>
-      <c r="T32" s="7"/>
-      <c r="U32" s="23"/>
-      <c r="V32" s="23"/>
-      <c r="W32" s="23"/>
-      <c r="X32" s="23"/>
-      <c r="Y32" s="23"/>
-      <c r="Z32" s="23"/>
-      <c r="AA32" s="23"/>
-    </row>
-    <row r="33" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A33" s="7"/>
-      <c r="B33" s="7"/>
-      <c r="C33" s="7"/>
-      <c r="D33" s="7"/>
-      <c r="E33" s="7"/>
-      <c r="F33" s="7"/>
-      <c r="G33" s="7"/>
-      <c r="H33" s="7"/>
-      <c r="I33" s="7"/>
-      <c r="J33" s="7"/>
-      <c r="K33" s="7"/>
-      <c r="L33" s="7"/>
-      <c r="M33" s="7"/>
-      <c r="N33" s="7"/>
-      <c r="O33" s="7"/>
-      <c r="P33" s="7"/>
-      <c r="Q33" s="7"/>
-      <c r="R33" s="7"/>
-      <c r="S33" s="7"/>
-      <c r="T33" s="7"/>
-      <c r="U33" s="23"/>
-      <c r="V33" s="23"/>
-      <c r="W33" s="23"/>
-      <c r="X33" s="23"/>
-      <c r="Y33" s="23"/>
-      <c r="Z33" s="23"/>
-      <c r="AA33" s="23"/>
-    </row>
-    <row r="34" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A34" s="7"/>
-      <c r="B34" s="7"/>
-      <c r="C34" s="7"/>
-      <c r="D34" s="7"/>
-      <c r="E34" s="7"/>
-      <c r="F34" s="7"/>
-      <c r="G34" s="7"/>
-      <c r="H34" s="7"/>
-      <c r="I34" s="7"/>
-      <c r="J34" s="7"/>
-      <c r="K34" s="7"/>
-      <c r="L34" s="7"/>
-      <c r="M34" s="7"/>
-      <c r="N34" s="7"/>
-      <c r="O34" s="7"/>
-      <c r="P34" s="7"/>
-      <c r="Q34" s="7"/>
-      <c r="R34" s="7"/>
-      <c r="S34" s="7"/>
-      <c r="T34" s="7"/>
-      <c r="U34" s="23"/>
-      <c r="V34" s="23"/>
-      <c r="W34" s="23"/>
-      <c r="X34" s="23"/>
-      <c r="Y34" s="23"/>
-      <c r="Z34" s="23"/>
-      <c r="AA34" s="23"/>
-    </row>
-    <row r="35" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A35" s="7"/>
-      <c r="B35" s="7"/>
-      <c r="C35" s="7"/>
-      <c r="D35" s="7"/>
-      <c r="E35" s="7"/>
-      <c r="F35" s="7"/>
-      <c r="G35" s="7"/>
-      <c r="H35" s="7"/>
-      <c r="I35" s="7"/>
-      <c r="J35" s="7"/>
-      <c r="K35" s="7"/>
-      <c r="L35" s="7"/>
-      <c r="M35" s="7"/>
-      <c r="N35" s="7"/>
-      <c r="O35" s="7"/>
-      <c r="P35" s="7"/>
-      <c r="Q35" s="7"/>
-      <c r="R35" s="7"/>
-      <c r="S35" s="7"/>
-      <c r="T35" s="7"/>
-      <c r="U35" s="23"/>
-      <c r="V35" s="23"/>
-      <c r="W35" s="23"/>
-      <c r="X35" s="23"/>
-      <c r="Y35" s="23"/>
-      <c r="Z35" s="23"/>
-      <c r="AA35" s="23"/>
-    </row>
-    <row r="36" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A36" s="7"/>
-      <c r="B36" s="7"/>
-      <c r="C36" s="7"/>
-      <c r="D36" s="7"/>
-      <c r="E36" s="7"/>
-      <c r="F36" s="7"/>
-      <c r="G36" s="7"/>
-      <c r="H36" s="7"/>
-      <c r="I36" s="7"/>
-      <c r="J36" s="7"/>
-      <c r="K36" s="7"/>
-      <c r="L36" s="7"/>
-      <c r="M36" s="7"/>
-      <c r="N36" s="7"/>
-      <c r="O36" s="7"/>
-      <c r="P36" s="7"/>
-      <c r="Q36" s="7"/>
-      <c r="R36" s="7"/>
-      <c r="S36" s="7"/>
-      <c r="T36" s="7"/>
-      <c r="U36" s="23"/>
-      <c r="V36" s="23"/>
-      <c r="W36" s="23"/>
-      <c r="X36" s="23"/>
-      <c r="Y36" s="23"/>
-      <c r="Z36" s="23"/>
-      <c r="AA36" s="23"/>
-    </row>
-    <row r="37" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A37" s="7"/>
-      <c r="B37" s="7"/>
-      <c r="C37" s="7"/>
-      <c r="D37" s="7"/>
-      <c r="E37" s="7"/>
-      <c r="F37" s="7"/>
-      <c r="G37" s="7"/>
-      <c r="H37" s="7"/>
-      <c r="I37" s="7"/>
-      <c r="J37" s="7"/>
-      <c r="K37" s="7"/>
-      <c r="L37" s="7"/>
-      <c r="M37" s="7"/>
-      <c r="N37" s="7"/>
-      <c r="O37" s="7"/>
-      <c r="P37" s="7"/>
-      <c r="Q37" s="7"/>
-      <c r="R37" s="7"/>
-      <c r="S37" s="7"/>
-      <c r="T37" s="7"/>
-      <c r="U37" s="23"/>
-      <c r="V37" s="23"/>
-      <c r="W37" s="23"/>
-      <c r="X37" s="23"/>
-      <c r="Y37" s="23"/>
-      <c r="Z37" s="23"/>
-      <c r="AA37" s="23"/>
-    </row>
-    <row r="38" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A38" s="7"/>
-      <c r="B38" s="7"/>
-      <c r="C38" s="7"/>
-      <c r="D38" s="7"/>
-      <c r="E38" s="7"/>
-      <c r="F38" s="7"/>
-      <c r="G38" s="7"/>
-      <c r="H38" s="7"/>
-      <c r="I38" s="7"/>
-      <c r="J38" s="7"/>
-      <c r="K38" s="7"/>
-      <c r="L38" s="7"/>
-      <c r="M38" s="7"/>
-      <c r="N38" s="7"/>
-      <c r="O38" s="7"/>
-      <c r="P38" s="7"/>
-      <c r="Q38" s="7"/>
-      <c r="R38" s="7"/>
-      <c r="S38" s="7"/>
-      <c r="T38" s="7"/>
-      <c r="U38" s="23"/>
-      <c r="V38" s="23"/>
-      <c r="W38" s="23"/>
-      <c r="X38" s="23"/>
-      <c r="Y38" s="23"/>
-      <c r="Z38" s="23"/>
-      <c r="AA38" s="23"/>
-    </row>
-    <row r="39" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A39" s="7"/>
-      <c r="B39" s="7"/>
-      <c r="C39" s="7"/>
-      <c r="D39" s="7"/>
-      <c r="E39" s="7"/>
-      <c r="F39" s="7"/>
-      <c r="G39" s="7"/>
-      <c r="H39" s="7"/>
-      <c r="I39" s="7"/>
-      <c r="J39" s="7"/>
-      <c r="K39" s="7"/>
-      <c r="L39" s="7"/>
-      <c r="M39" s="7"/>
-      <c r="N39" s="7"/>
-      <c r="O39" s="7"/>
-      <c r="P39" s="7"/>
-      <c r="Q39" s="7"/>
-      <c r="R39" s="7"/>
-      <c r="S39" s="7"/>
-      <c r="T39" s="7"/>
-      <c r="U39" s="23"/>
-      <c r="V39" s="23"/>
-      <c r="W39" s="23"/>
-      <c r="X39" s="23"/>
-      <c r="Y39" s="23"/>
-      <c r="Z39" s="23"/>
-      <c r="AA39" s="23"/>
-    </row>
-    <row r="40" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A40" s="7"/>
-      <c r="B40" s="7"/>
-      <c r="C40" s="7"/>
-      <c r="D40" s="7"/>
-      <c r="E40" s="7"/>
-      <c r="F40" s="7"/>
-      <c r="G40" s="7"/>
-      <c r="H40" s="7"/>
-      <c r="I40" s="7"/>
-      <c r="J40" s="7"/>
-      <c r="K40" s="7"/>
-      <c r="L40" s="7"/>
-      <c r="M40" s="7"/>
-      <c r="N40" s="7"/>
-      <c r="O40" s="7"/>
-      <c r="P40" s="7"/>
-      <c r="Q40" s="7"/>
-      <c r="R40" s="7"/>
-      <c r="S40" s="7"/>
-      <c r="T40" s="7"/>
-      <c r="U40" s="23"/>
-      <c r="V40" s="23"/>
-      <c r="W40" s="23"/>
-      <c r="X40" s="23"/>
-      <c r="Y40" s="23"/>
-      <c r="Z40" s="23"/>
-      <c r="AA40" s="23"/>
-    </row>
-    <row r="41" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A41" s="7"/>
-      <c r="B41" s="7"/>
-      <c r="C41" s="7"/>
-      <c r="D41" s="7"/>
-      <c r="E41" s="7"/>
-      <c r="F41" s="7"/>
-      <c r="G41" s="7"/>
-      <c r="H41" s="7"/>
-      <c r="I41" s="7"/>
-      <c r="J41" s="7"/>
-      <c r="K41" s="7"/>
-      <c r="L41" s="7"/>
-      <c r="M41" s="7"/>
-      <c r="N41" s="7"/>
-      <c r="O41" s="7"/>
-      <c r="P41" s="7"/>
-      <c r="Q41" s="7"/>
-      <c r="R41" s="7"/>
-      <c r="S41" s="7"/>
-      <c r="T41" s="7"/>
-      <c r="U41" s="23"/>
-      <c r="V41" s="23"/>
-      <c r="W41" s="23"/>
-      <c r="X41" s="23"/>
-      <c r="Y41" s="23"/>
-      <c r="Z41" s="23"/>
-      <c r="AA41" s="23"/>
-    </row>
-    <row r="42" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A42" s="7"/>
-      <c r="B42" s="7"/>
-      <c r="C42" s="7"/>
-      <c r="D42" s="7"/>
-      <c r="E42" s="7"/>
-      <c r="F42" s="7"/>
-      <c r="G42" s="7"/>
-      <c r="H42" s="7"/>
-      <c r="I42" s="7"/>
-      <c r="J42" s="7"/>
-      <c r="K42" s="7"/>
-      <c r="L42" s="7"/>
-      <c r="M42" s="7"/>
-      <c r="N42" s="7"/>
-      <c r="O42" s="7"/>
-      <c r="P42" s="7"/>
-      <c r="Q42" s="7"/>
-      <c r="R42" s="7"/>
-      <c r="S42" s="7"/>
-      <c r="T42" s="7"/>
-      <c r="U42" s="23"/>
-      <c r="V42" s="23"/>
-      <c r="W42" s="23"/>
-      <c r="X42" s="23"/>
-      <c r="Y42" s="23"/>
-      <c r="Z42" s="23"/>
-      <c r="AA42" s="23"/>
-    </row>
-    <row r="43" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A43" s="7"/>
-      <c r="B43" s="7"/>
-      <c r="C43" s="7"/>
-      <c r="D43" s="7"/>
-      <c r="E43" s="7"/>
-      <c r="F43" s="7"/>
-      <c r="G43" s="7"/>
-      <c r="H43" s="7"/>
-      <c r="I43" s="7"/>
-      <c r="J43" s="7"/>
-      <c r="K43" s="7"/>
-      <c r="L43" s="7"/>
-      <c r="M43" s="7"/>
-      <c r="N43" s="7"/>
-      <c r="O43" s="7"/>
-      <c r="P43" s="7"/>
-      <c r="Q43" s="7"/>
-      <c r="R43" s="7"/>
-      <c r="S43" s="7"/>
-      <c r="T43" s="7"/>
-      <c r="U43" s="23"/>
-      <c r="V43" s="23"/>
-      <c r="W43" s="23"/>
-      <c r="X43" s="23"/>
-      <c r="Y43" s="23"/>
-      <c r="Z43" s="23"/>
-      <c r="AA43" s="23"/>
-    </row>
-    <row r="44" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A44" s="7"/>
-      <c r="B44" s="7"/>
-      <c r="C44" s="7"/>
-      <c r="D44" s="7"/>
-      <c r="E44" s="7"/>
-      <c r="F44" s="7"/>
-      <c r="G44" s="7"/>
-      <c r="H44" s="7"/>
-      <c r="I44" s="7"/>
-      <c r="J44" s="7"/>
-      <c r="K44" s="7"/>
-      <c r="L44" s="7"/>
-      <c r="M44" s="7"/>
-      <c r="N44" s="7"/>
-      <c r="O44" s="7"/>
-      <c r="P44" s="7"/>
-      <c r="Q44" s="7"/>
-      <c r="R44" s="7"/>
-      <c r="S44" s="7"/>
-      <c r="T44" s="7"/>
-      <c r="U44" s="23"/>
-      <c r="V44" s="23"/>
-      <c r="W44" s="23"/>
-      <c r="X44" s="23"/>
-      <c r="Y44" s="23"/>
-      <c r="Z44" s="23"/>
-      <c r="AA44" s="23"/>
-    </row>
-    <row r="45" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A45" s="7"/>
-      <c r="B45" s="7"/>
-      <c r="C45" s="7"/>
-      <c r="D45" s="7"/>
-      <c r="E45" s="7"/>
-      <c r="F45" s="7"/>
-      <c r="G45" s="7"/>
-      <c r="H45" s="7"/>
-      <c r="I45" s="7"/>
-      <c r="J45" s="7"/>
-      <c r="K45" s="7"/>
-      <c r="L45" s="7"/>
-      <c r="M45" s="7"/>
-      <c r="N45" s="7"/>
-      <c r="O45" s="7"/>
-      <c r="P45" s="7"/>
-      <c r="Q45" s="7"/>
-      <c r="R45" s="7"/>
-      <c r="S45" s="7"/>
-      <c r="T45" s="7"/>
-      <c r="U45" s="23"/>
-      <c r="V45" s="23"/>
-      <c r="W45" s="23"/>
-      <c r="X45" s="23"/>
-      <c r="Y45" s="23"/>
-      <c r="Z45" s="23"/>
-      <c r="AA45" s="23"/>
-    </row>
-    <row r="46" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A46" s="7"/>
-      <c r="B46" s="7"/>
-      <c r="C46" s="7"/>
-      <c r="D46" s="7"/>
-      <c r="E46" s="7"/>
-      <c r="F46" s="7"/>
-      <c r="G46" s="7"/>
-      <c r="H46" s="7"/>
-      <c r="I46" s="7"/>
-      <c r="J46" s="7"/>
-      <c r="K46" s="7"/>
-      <c r="L46" s="7"/>
-      <c r="M46" s="7"/>
-      <c r="N46" s="7"/>
-      <c r="O46" s="7"/>
-      <c r="P46" s="7"/>
-      <c r="Q46" s="7"/>
-      <c r="R46" s="7"/>
-      <c r="S46" s="7"/>
-      <c r="T46" s="7"/>
-      <c r="U46" s="23"/>
-      <c r="V46" s="23"/>
-      <c r="W46" s="23"/>
-      <c r="X46" s="23"/>
-      <c r="Y46" s="23"/>
-      <c r="Z46" s="23"/>
-      <c r="AA46" s="23"/>
-    </row>
-    <row r="47" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A47" s="7"/>
-      <c r="B47" s="7"/>
-      <c r="C47" s="7"/>
-      <c r="D47" s="7"/>
-      <c r="E47" s="7"/>
-      <c r="F47" s="7"/>
-      <c r="G47" s="7"/>
-      <c r="H47" s="7"/>
-      <c r="I47" s="7"/>
-      <c r="J47" s="7"/>
-      <c r="K47" s="7"/>
-      <c r="L47" s="7"/>
-      <c r="M47" s="7"/>
-      <c r="N47" s="7"/>
-      <c r="O47" s="7"/>
-      <c r="P47" s="7"/>
-      <c r="Q47" s="7"/>
-      <c r="R47" s="7"/>
-      <c r="S47" s="7"/>
-      <c r="T47" s="7"/>
-      <c r="U47" s="23"/>
-      <c r="V47" s="23"/>
-      <c r="W47" s="23"/>
-      <c r="X47" s="23"/>
-      <c r="Y47" s="23"/>
-      <c r="Z47" s="23"/>
-      <c r="AA47" s="23"/>
-    </row>
-    <row r="48" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A48" s="7"/>
-      <c r="B48" s="7"/>
-      <c r="C48" s="7"/>
-      <c r="D48" s="7"/>
-      <c r="E48" s="7"/>
-      <c r="F48" s="7"/>
-      <c r="G48" s="7"/>
-      <c r="H48" s="7"/>
-      <c r="I48" s="7"/>
-      <c r="J48" s="7"/>
-      <c r="K48" s="7"/>
-      <c r="L48" s="7"/>
-      <c r="M48" s="7"/>
-      <c r="N48" s="7"/>
-      <c r="O48" s="7"/>
-      <c r="P48" s="7"/>
-      <c r="Q48" s="7"/>
-      <c r="R48" s="7"/>
-      <c r="S48" s="7"/>
-      <c r="T48" s="7"/>
-      <c r="U48" s="23"/>
-      <c r="V48" s="23"/>
-      <c r="W48" s="23"/>
-      <c r="X48" s="23"/>
-      <c r="Y48" s="23"/>
-      <c r="Z48" s="23"/>
-      <c r="AA48" s="23"/>
-    </row>
-    <row r="49" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A49" s="7"/>
-      <c r="B49" s="7"/>
-      <c r="C49" s="7"/>
-      <c r="D49" s="7"/>
-      <c r="E49" s="7"/>
-      <c r="F49" s="7"/>
-      <c r="G49" s="7"/>
-      <c r="H49" s="7"/>
-      <c r="I49" s="7"/>
-      <c r="J49" s="7"/>
-      <c r="K49" s="7"/>
-      <c r="L49" s="7"/>
-      <c r="M49" s="7"/>
-      <c r="N49" s="7"/>
-      <c r="O49" s="7"/>
-      <c r="P49" s="7"/>
-      <c r="Q49" s="7"/>
-      <c r="R49" s="7"/>
-      <c r="S49" s="7"/>
-      <c r="T49" s="7"/>
-      <c r="U49" s="23"/>
-      <c r="V49" s="23"/>
-      <c r="W49" s="23"/>
-      <c r="X49" s="23"/>
-      <c r="Y49" s="23"/>
-      <c r="Z49" s="23"/>
-      <c r="AA49" s="23"/>
-    </row>
-    <row r="50" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A50" s="7"/>
-      <c r="B50" s="7"/>
-      <c r="C50" s="7"/>
-      <c r="D50" s="7"/>
-      <c r="E50" s="7"/>
-      <c r="F50" s="7"/>
-      <c r="G50" s="7"/>
-      <c r="H50" s="7"/>
-      <c r="I50" s="7"/>
-      <c r="J50" s="7"/>
-      <c r="K50" s="7"/>
-      <c r="L50" s="7"/>
-      <c r="M50" s="7"/>
-      <c r="N50" s="7"/>
-      <c r="O50" s="7"/>
-      <c r="P50" s="7"/>
-      <c r="Q50" s="7"/>
-      <c r="R50" s="7"/>
-      <c r="S50" s="7"/>
-      <c r="T50" s="7"/>
-      <c r="U50" s="23"/>
-      <c r="V50" s="23"/>
-      <c r="W50" s="23"/>
-      <c r="X50" s="23"/>
-      <c r="Y50" s="23"/>
-      <c r="Z50" s="23"/>
-      <c r="AA50" s="23"/>
-    </row>
-    <row r="51" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A51" s="7"/>
-      <c r="B51" s="7"/>
-      <c r="C51" s="7"/>
-      <c r="D51" s="7"/>
-      <c r="E51" s="7"/>
-      <c r="F51" s="7"/>
-      <c r="G51" s="7"/>
-      <c r="H51" s="7"/>
-      <c r="I51" s="7"/>
-      <c r="J51" s="7"/>
-      <c r="K51" s="7"/>
-      <c r="L51" s="7"/>
-      <c r="M51" s="7"/>
-      <c r="N51" s="7"/>
-      <c r="O51" s="7"/>
-      <c r="P51" s="7"/>
-      <c r="Q51" s="7"/>
-      <c r="R51" s="7"/>
-      <c r="S51" s="7"/>
-      <c r="T51" s="7"/>
-      <c r="U51" s="23"/>
-      <c r="V51" s="23"/>
-      <c r="W51" s="23"/>
-      <c r="X51" s="23"/>
-      <c r="Y51" s="23"/>
-      <c r="Z51" s="23"/>
-      <c r="AA51" s="23"/>
-    </row>
-    <row r="52" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A52" s="7"/>
-      <c r="B52" s="7"/>
-      <c r="C52" s="7"/>
-      <c r="D52" s="7"/>
-      <c r="E52" s="7"/>
-      <c r="F52" s="7"/>
-      <c r="G52" s="7"/>
-      <c r="H52" s="7"/>
-      <c r="I52" s="7"/>
-      <c r="J52" s="7"/>
-      <c r="K52" s="7"/>
-      <c r="L52" s="7"/>
-      <c r="M52" s="7"/>
-      <c r="N52" s="7"/>
-      <c r="O52" s="7"/>
-      <c r="P52" s="7"/>
-      <c r="Q52" s="7"/>
-      <c r="R52" s="7"/>
-      <c r="S52" s="7"/>
-      <c r="T52" s="7"/>
-      <c r="U52" s="23"/>
-      <c r="V52" s="23"/>
-      <c r="W52" s="23"/>
-      <c r="X52" s="23"/>
-      <c r="Y52" s="23"/>
-      <c r="Z52" s="23"/>
-      <c r="AA52" s="23"/>
-    </row>
-    <row r="53" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A53" s="7"/>
-      <c r="B53" s="7"/>
-      <c r="C53" s="7"/>
-      <c r="D53" s="7"/>
-      <c r="E53" s="7"/>
-      <c r="F53" s="7"/>
-      <c r="G53" s="7"/>
-      <c r="H53" s="7"/>
-      <c r="I53" s="7"/>
-      <c r="J53" s="7"/>
-      <c r="K53" s="7"/>
-      <c r="L53" s="7"/>
-      <c r="M53" s="7"/>
-      <c r="N53" s="7"/>
-      <c r="O53" s="7"/>
-      <c r="P53" s="7"/>
-      <c r="Q53" s="7"/>
-      <c r="R53" s="7"/>
-      <c r="S53" s="7"/>
-      <c r="T53" s="7"/>
-      <c r="U53" s="23"/>
-      <c r="V53" s="23"/>
-      <c r="W53" s="23"/>
-      <c r="X53" s="23"/>
-      <c r="Y53" s="23"/>
-      <c r="Z53" s="23"/>
-      <c r="AA53" s="23"/>
-    </row>
-    <row r="54" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A54" s="7"/>
-      <c r="B54" s="7"/>
-      <c r="C54" s="7"/>
-      <c r="D54" s="7"/>
-      <c r="E54" s="7"/>
-      <c r="F54" s="7"/>
-      <c r="G54" s="7"/>
-      <c r="H54" s="7"/>
-      <c r="I54" s="7"/>
-      <c r="J54" s="7"/>
-      <c r="K54" s="7"/>
-      <c r="L54" s="7"/>
-      <c r="M54" s="7"/>
-      <c r="N54" s="7"/>
-      <c r="O54" s="7"/>
-      <c r="P54" s="7"/>
-      <c r="Q54" s="7"/>
-      <c r="R54" s="7"/>
-      <c r="S54" s="7"/>
-      <c r="T54" s="7"/>
-      <c r="U54" s="23"/>
-      <c r="V54" s="23"/>
-      <c r="W54" s="23"/>
-      <c r="X54" s="23"/>
-      <c r="Y54" s="23"/>
-      <c r="Z54" s="23"/>
-      <c r="AA54" s="23"/>
-    </row>
-    <row r="55" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A55" s="7"/>
-      <c r="B55" s="7"/>
-      <c r="C55" s="7"/>
-      <c r="D55" s="7"/>
-      <c r="E55" s="7"/>
-      <c r="F55" s="7"/>
-      <c r="G55" s="7"/>
-      <c r="H55" s="7"/>
-      <c r="I55" s="7"/>
-      <c r="J55" s="7"/>
-      <c r="K55" s="7"/>
-      <c r="L55" s="7"/>
-      <c r="M55" s="7"/>
-      <c r="N55" s="7"/>
-      <c r="O55" s="7"/>
-      <c r="P55" s="7"/>
-      <c r="Q55" s="7"/>
-      <c r="R55" s="7"/>
-      <c r="S55" s="7"/>
-      <c r="T55" s="7"/>
-      <c r="U55" s="23"/>
-      <c r="V55" s="23"/>
-      <c r="W55" s="23"/>
-      <c r="X55" s="23"/>
-      <c r="Y55" s="23"/>
-      <c r="Z55" s="23"/>
-      <c r="AA55" s="23"/>
-    </row>
-    <row r="56" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A56" s="7"/>
-      <c r="B56" s="7"/>
-      <c r="C56" s="7"/>
-      <c r="D56" s="7"/>
-      <c r="E56" s="7"/>
-      <c r="F56" s="7"/>
-      <c r="G56" s="7"/>
-      <c r="H56" s="7"/>
-      <c r="I56" s="7"/>
-      <c r="J56" s="7"/>
-      <c r="K56" s="7"/>
-      <c r="L56" s="7"/>
-      <c r="M56" s="7"/>
-      <c r="N56" s="7"/>
-      <c r="O56" s="7"/>
-      <c r="P56" s="7"/>
-      <c r="Q56" s="7"/>
-      <c r="R56" s="7"/>
-      <c r="S56" s="7"/>
-      <c r="T56" s="7"/>
-      <c r="U56" s="23"/>
-      <c r="V56" s="23"/>
-      <c r="W56" s="23"/>
-      <c r="X56" s="23"/>
-      <c r="Y56" s="23"/>
-      <c r="Z56" s="23"/>
-      <c r="AA56" s="23"/>
+      <c r="M26" s="5"/>
+      <c r="N26" s="5"/>
+      <c r="O26" s="5"/>
+      <c r="P26" s="5"/>
+      <c r="Q26" s="5"/>
+      <c r="R26" s="5"/>
+      <c r="S26" s="5"/>
+      <c r="T26" s="5"/>
+    </row>
+    <row r="27" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A27" s="5"/>
+      <c r="B27" s="5"/>
+      <c r="C27" s="5"/>
+      <c r="D27" s="5"/>
+      <c r="E27" s="5"/>
+      <c r="F27" s="5"/>
+      <c r="G27" s="5"/>
+      <c r="H27" s="5"/>
+      <c r="I27" s="5"/>
+      <c r="J27" s="5"/>
+      <c r="K27" s="5"/>
+      <c r="L27" s="5"/>
+      <c r="M27" s="5"/>
+      <c r="N27" s="5"/>
+      <c r="O27" s="5"/>
+      <c r="P27" s="5"/>
+      <c r="Q27" s="5"/>
+      <c r="R27" s="5"/>
+      <c r="S27" s="5"/>
+      <c r="T27" s="5"/>
+    </row>
+    <row r="28" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A28" s="5"/>
+      <c r="B28" s="5"/>
+      <c r="C28" s="5"/>
+      <c r="D28" s="5"/>
+      <c r="E28" s="5"/>
+      <c r="F28" s="5"/>
+      <c r="G28" s="5"/>
+      <c r="H28" s="5"/>
+      <c r="I28" s="5"/>
+      <c r="J28" s="5"/>
+      <c r="K28" s="5"/>
+      <c r="L28" s="5"/>
+      <c r="M28" s="5"/>
+      <c r="N28" s="5"/>
+      <c r="O28" s="5"/>
+      <c r="P28" s="5"/>
+      <c r="Q28" s="5"/>
+      <c r="R28" s="5"/>
+      <c r="S28" s="5"/>
+      <c r="T28" s="5"/>
+    </row>
+    <row r="29" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A29" s="5"/>
+      <c r="B29" s="5"/>
+      <c r="C29" s="5"/>
+      <c r="D29" s="5"/>
+      <c r="E29" s="5"/>
+      <c r="F29" s="5"/>
+      <c r="G29" s="5"/>
+      <c r="H29" s="5"/>
+      <c r="I29" s="5"/>
+      <c r="J29" s="5"/>
+      <c r="K29" s="5"/>
+      <c r="L29" s="5"/>
+      <c r="M29" s="5"/>
+      <c r="N29" s="5"/>
+      <c r="O29" s="5"/>
+      <c r="P29" s="5"/>
+      <c r="Q29" s="5"/>
+      <c r="R29" s="5"/>
+      <c r="S29" s="5"/>
+      <c r="T29" s="5"/>
+    </row>
+    <row r="30" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A30" s="5"/>
+      <c r="B30" s="5"/>
+      <c r="C30" s="5"/>
+      <c r="D30" s="5"/>
+      <c r="E30" s="5"/>
+      <c r="F30" s="5"/>
+      <c r="G30" s="5"/>
+      <c r="H30" s="5"/>
+      <c r="I30" s="5"/>
+      <c r="J30" s="5"/>
+      <c r="K30" s="5"/>
+      <c r="L30" s="5"/>
+      <c r="M30" s="5"/>
+      <c r="N30" s="5"/>
+      <c r="O30" s="5"/>
+      <c r="P30" s="5"/>
+      <c r="Q30" s="5"/>
+      <c r="R30" s="5"/>
+      <c r="S30" s="5"/>
+      <c r="T30" s="5"/>
+    </row>
+    <row r="31" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A31" s="5"/>
+      <c r="B31" s="5"/>
+      <c r="C31" s="5"/>
+      <c r="D31" s="5"/>
+      <c r="E31" s="5"/>
+      <c r="F31" s="5"/>
+      <c r="G31" s="5"/>
+      <c r="H31" s="5"/>
+      <c r="I31" s="5"/>
+      <c r="J31" s="5"/>
+      <c r="K31" s="5"/>
+      <c r="L31" s="5"/>
+      <c r="M31" s="5"/>
+      <c r="N31" s="5"/>
+      <c r="O31" s="5"/>
+      <c r="P31" s="5"/>
+      <c r="Q31" s="5"/>
+      <c r="R31" s="5"/>
+      <c r="S31" s="5"/>
+      <c r="T31" s="5"/>
+    </row>
+    <row r="32" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A32" s="5"/>
+      <c r="B32" s="5"/>
+      <c r="C32" s="5"/>
+      <c r="D32" s="5"/>
+      <c r="E32" s="5"/>
+      <c r="F32" s="5"/>
+      <c r="G32" s="5"/>
+      <c r="H32" s="5"/>
+      <c r="I32" s="5"/>
+      <c r="J32" s="5"/>
+      <c r="K32" s="5"/>
+      <c r="L32" s="5"/>
+      <c r="M32" s="5"/>
+      <c r="N32" s="5"/>
+      <c r="O32" s="5"/>
+      <c r="P32" s="5"/>
+      <c r="Q32" s="5"/>
+      <c r="R32" s="5"/>
+      <c r="S32" s="5"/>
+      <c r="T32" s="5"/>
+    </row>
+    <row r="33" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A33" s="5"/>
+      <c r="B33" s="5"/>
+      <c r="C33" s="5"/>
+      <c r="D33" s="5"/>
+      <c r="E33" s="5"/>
+      <c r="F33" s="5"/>
+      <c r="G33" s="5"/>
+      <c r="H33" s="5"/>
+      <c r="I33" s="5"/>
+      <c r="J33" s="5"/>
+      <c r="K33" s="5"/>
+      <c r="L33" s="5"/>
+      <c r="M33" s="5"/>
+      <c r="N33" s="5"/>
+      <c r="O33" s="5"/>
+      <c r="P33" s="5"/>
+      <c r="Q33" s="5"/>
+      <c r="R33" s="5"/>
+      <c r="S33" s="5"/>
+      <c r="T33" s="5"/>
+    </row>
+    <row r="34" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A34" s="5"/>
+      <c r="B34" s="5"/>
+      <c r="C34" s="5"/>
+      <c r="D34" s="5"/>
+      <c r="E34" s="5"/>
+      <c r="F34" s="5"/>
+      <c r="G34" s="5"/>
+      <c r="H34" s="5"/>
+      <c r="I34" s="5"/>
+      <c r="J34" s="5"/>
+      <c r="K34" s="5"/>
+      <c r="L34" s="5"/>
+      <c r="M34" s="5"/>
+      <c r="N34" s="5"/>
+      <c r="O34" s="5"/>
+      <c r="P34" s="5"/>
+      <c r="Q34" s="5"/>
+      <c r="R34" s="5"/>
+      <c r="S34" s="5"/>
+      <c r="T34" s="5"/>
+    </row>
+    <row r="35" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A35" s="5"/>
+      <c r="B35" s="5"/>
+      <c r="C35" s="5"/>
+      <c r="D35" s="5"/>
+      <c r="E35" s="5"/>
+      <c r="F35" s="5"/>
+      <c r="G35" s="5"/>
+      <c r="H35" s="5"/>
+      <c r="I35" s="5"/>
+      <c r="J35" s="5"/>
+      <c r="K35" s="5"/>
+      <c r="L35" s="5"/>
+      <c r="M35" s="5"/>
+      <c r="N35" s="5"/>
+      <c r="O35" s="5"/>
+      <c r="P35" s="5"/>
+      <c r="Q35" s="5"/>
+      <c r="R35" s="5"/>
+      <c r="S35" s="5"/>
+      <c r="T35" s="5"/>
+    </row>
+    <row r="36" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A36" s="5"/>
+      <c r="B36" s="5"/>
+      <c r="C36" s="5"/>
+      <c r="D36" s="5"/>
+      <c r="E36" s="5"/>
+      <c r="F36" s="5"/>
+      <c r="G36" s="5"/>
+      <c r="H36" s="5"/>
+      <c r="I36" s="5"/>
+      <c r="J36" s="5"/>
+      <c r="K36" s="5"/>
+      <c r="L36" s="5"/>
+      <c r="M36" s="5"/>
+      <c r="N36" s="5"/>
+      <c r="O36" s="5"/>
+      <c r="P36" s="5"/>
+      <c r="Q36" s="5"/>
+      <c r="R36" s="5"/>
+      <c r="S36" s="5"/>
+      <c r="T36" s="5"/>
+    </row>
+    <row r="37" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A37" s="5"/>
+      <c r="B37" s="5"/>
+      <c r="C37" s="5"/>
+      <c r="D37" s="5"/>
+      <c r="E37" s="5"/>
+      <c r="F37" s="5"/>
+      <c r="G37" s="5"/>
+      <c r="H37" s="5"/>
+      <c r="I37" s="5"/>
+      <c r="J37" s="5"/>
+      <c r="K37" s="5"/>
+      <c r="L37" s="5"/>
+      <c r="M37" s="5"/>
+      <c r="N37" s="5"/>
+      <c r="O37" s="5"/>
+      <c r="P37" s="5"/>
+      <c r="Q37" s="5"/>
+      <c r="R37" s="5"/>
+      <c r="S37" s="5"/>
+      <c r="T37" s="5"/>
+    </row>
+    <row r="38" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A38" s="5"/>
+      <c r="B38" s="5"/>
+      <c r="C38" s="5"/>
+      <c r="D38" s="5"/>
+      <c r="E38" s="5"/>
+      <c r="F38" s="5"/>
+      <c r="G38" s="5"/>
+      <c r="H38" s="5"/>
+      <c r="I38" s="5"/>
+      <c r="J38" s="5"/>
+      <c r="K38" s="5"/>
+      <c r="L38" s="5"/>
+      <c r="M38" s="5"/>
+      <c r="N38" s="5"/>
+      <c r="O38" s="5"/>
+      <c r="P38" s="5"/>
+      <c r="Q38" s="5"/>
+      <c r="R38" s="5"/>
+      <c r="S38" s="5"/>
+      <c r="T38" s="5"/>
+    </row>
+    <row r="39" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A39" s="5"/>
+      <c r="B39" s="5"/>
+      <c r="C39" s="5"/>
+      <c r="D39" s="5"/>
+      <c r="E39" s="5"/>
+      <c r="F39" s="5"/>
+      <c r="G39" s="5"/>
+      <c r="H39" s="5"/>
+      <c r="I39" s="5"/>
+      <c r="J39" s="5"/>
+      <c r="K39" s="5"/>
+      <c r="L39" s="5"/>
+      <c r="M39" s="5"/>
+      <c r="N39" s="5"/>
+      <c r="O39" s="5"/>
+      <c r="P39" s="5"/>
+      <c r="Q39" s="5"/>
+      <c r="R39" s="5"/>
+      <c r="S39" s="5"/>
+      <c r="T39" s="5"/>
+    </row>
+    <row r="40" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A40" s="5"/>
+      <c r="B40" s="5"/>
+      <c r="C40" s="5"/>
+      <c r="D40" s="5"/>
+      <c r="E40" s="5"/>
+      <c r="F40" s="5"/>
+      <c r="G40" s="5"/>
+      <c r="H40" s="5"/>
+      <c r="I40" s="5"/>
+      <c r="J40" s="5"/>
+      <c r="K40" s="5"/>
+      <c r="L40" s="5"/>
+      <c r="M40" s="5"/>
+      <c r="N40" s="5"/>
+      <c r="O40" s="5"/>
+      <c r="P40" s="5"/>
+      <c r="Q40" s="5"/>
+      <c r="R40" s="5"/>
+      <c r="S40" s="5"/>
+      <c r="T40" s="5"/>
+    </row>
+    <row r="41" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A41" s="5"/>
+      <c r="B41" s="5"/>
+      <c r="C41" s="5"/>
+      <c r="D41" s="5"/>
+      <c r="E41" s="5"/>
+      <c r="F41" s="5"/>
+      <c r="G41" s="5"/>
+      <c r="H41" s="5"/>
+      <c r="I41" s="5"/>
+      <c r="J41" s="5"/>
+      <c r="K41" s="5"/>
+      <c r="L41" s="5"/>
+      <c r="M41" s="5"/>
+      <c r="N41" s="5"/>
+      <c r="O41" s="5"/>
+      <c r="P41" s="5"/>
+      <c r="Q41" s="5"/>
+      <c r="R41" s="5"/>
+      <c r="S41" s="5"/>
+      <c r="T41" s="5"/>
+    </row>
+    <row r="42" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A42" s="5"/>
+      <c r="B42" s="5"/>
+      <c r="C42" s="5"/>
+      <c r="D42" s="5"/>
+      <c r="E42" s="5"/>
+      <c r="F42" s="5"/>
+      <c r="G42" s="5"/>
+      <c r="H42" s="5"/>
+      <c r="I42" s="5"/>
+      <c r="J42" s="5"/>
+      <c r="K42" s="5"/>
+      <c r="L42" s="5"/>
+      <c r="M42" s="5"/>
+      <c r="N42" s="5"/>
+      <c r="O42" s="5"/>
+      <c r="P42" s="5"/>
+      <c r="Q42" s="5"/>
+      <c r="R42" s="5"/>
+      <c r="S42" s="5"/>
+      <c r="T42" s="5"/>
+    </row>
+    <row r="43" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A43" s="5"/>
+      <c r="B43" s="5"/>
+      <c r="C43" s="5"/>
+      <c r="D43" s="5"/>
+      <c r="E43" s="5"/>
+      <c r="F43" s="5"/>
+      <c r="G43" s="5"/>
+      <c r="H43" s="5"/>
+      <c r="I43" s="5"/>
+      <c r="J43" s="5"/>
+      <c r="K43" s="5"/>
+      <c r="L43" s="5"/>
+      <c r="M43" s="5"/>
+      <c r="N43" s="5"/>
+      <c r="O43" s="5"/>
+      <c r="P43" s="5"/>
+      <c r="Q43" s="5"/>
+      <c r="R43" s="5"/>
+      <c r="S43" s="5"/>
+      <c r="T43" s="5"/>
+    </row>
+    <row r="44" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A44" s="5"/>
+      <c r="B44" s="5"/>
+      <c r="C44" s="5"/>
+      <c r="D44" s="5"/>
+      <c r="E44" s="5"/>
+      <c r="F44" s="5"/>
+      <c r="G44" s="5"/>
+      <c r="H44" s="5"/>
+      <c r="I44" s="5"/>
+      <c r="J44" s="5"/>
+      <c r="K44" s="5"/>
+      <c r="L44" s="5"/>
+      <c r="M44" s="5"/>
+      <c r="N44" s="5"/>
+      <c r="O44" s="5"/>
+      <c r="P44" s="5"/>
+      <c r="Q44" s="5"/>
+      <c r="R44" s="5"/>
+      <c r="S44" s="5"/>
+      <c r="T44" s="5"/>
+    </row>
+    <row r="45" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A45" s="5"/>
+      <c r="B45" s="5"/>
+      <c r="C45" s="5"/>
+      <c r="D45" s="5"/>
+      <c r="E45" s="5"/>
+      <c r="F45" s="5"/>
+      <c r="G45" s="5"/>
+      <c r="H45" s="5"/>
+      <c r="I45" s="5"/>
+      <c r="J45" s="5"/>
+      <c r="K45" s="5"/>
+      <c r="L45" s="5"/>
+      <c r="M45" s="5"/>
+      <c r="N45" s="5"/>
+      <c r="O45" s="5"/>
+      <c r="P45" s="5"/>
+      <c r="Q45" s="5"/>
+      <c r="R45" s="5"/>
+      <c r="S45" s="5"/>
+      <c r="T45" s="5"/>
+    </row>
+    <row r="46" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A46" s="5"/>
+      <c r="B46" s="5"/>
+      <c r="C46" s="5"/>
+      <c r="D46" s="5"/>
+      <c r="E46" s="5"/>
+      <c r="F46" s="5"/>
+      <c r="G46" s="5"/>
+      <c r="H46" s="5"/>
+      <c r="I46" s="5"/>
+      <c r="J46" s="5"/>
+      <c r="K46" s="5"/>
+      <c r="L46" s="5"/>
+      <c r="M46" s="5"/>
+      <c r="N46" s="5"/>
+      <c r="O46" s="5"/>
+      <c r="P46" s="5"/>
+      <c r="Q46" s="5"/>
+      <c r="R46" s="5"/>
+      <c r="S46" s="5"/>
+      <c r="T46" s="5"/>
+    </row>
+    <row r="47" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A47" s="5"/>
+      <c r="B47" s="5"/>
+      <c r="C47" s="5"/>
+      <c r="D47" s="5"/>
+      <c r="E47" s="5"/>
+      <c r="F47" s="5"/>
+      <c r="G47" s="5"/>
+      <c r="H47" s="5"/>
+      <c r="I47" s="5"/>
+      <c r="J47" s="5"/>
+      <c r="K47" s="5"/>
+      <c r="L47" s="5"/>
+      <c r="M47" s="5"/>
+      <c r="N47" s="5"/>
+      <c r="O47" s="5"/>
+      <c r="P47" s="5"/>
+      <c r="Q47" s="5"/>
+      <c r="R47" s="5"/>
+      <c r="S47" s="5"/>
+      <c r="T47" s="5"/>
+    </row>
+    <row r="48" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A48" s="5"/>
+      <c r="B48" s="5"/>
+      <c r="C48" s="5"/>
+      <c r="D48" s="5"/>
+      <c r="E48" s="5"/>
+      <c r="F48" s="5"/>
+      <c r="G48" s="5"/>
+      <c r="H48" s="5"/>
+      <c r="I48" s="5"/>
+      <c r="J48" s="5"/>
+      <c r="K48" s="5"/>
+      <c r="L48" s="5"/>
+      <c r="M48" s="5"/>
+      <c r="N48" s="5"/>
+      <c r="O48" s="5"/>
+      <c r="P48" s="5"/>
+      <c r="Q48" s="5"/>
+      <c r="R48" s="5"/>
+      <c r="S48" s="5"/>
+      <c r="T48" s="5"/>
+    </row>
+    <row r="49" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A49" s="5"/>
+      <c r="B49" s="5"/>
+      <c r="C49" s="5"/>
+      <c r="D49" s="5"/>
+      <c r="E49" s="5"/>
+      <c r="F49" s="5"/>
+      <c r="G49" s="5"/>
+      <c r="H49" s="5"/>
+      <c r="I49" s="5"/>
+      <c r="J49" s="5"/>
+      <c r="K49" s="5"/>
+      <c r="L49" s="5"/>
+      <c r="M49" s="5"/>
+      <c r="N49" s="5"/>
+      <c r="O49" s="5"/>
+      <c r="P49" s="5"/>
+      <c r="Q49" s="5"/>
+      <c r="R49" s="5"/>
+      <c r="S49" s="5"/>
+      <c r="T49" s="5"/>
+    </row>
+    <row r="50" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A50" s="5"/>
+      <c r="B50" s="5"/>
+      <c r="C50" s="5"/>
+      <c r="D50" s="5"/>
+      <c r="E50" s="5"/>
+      <c r="F50" s="5"/>
+      <c r="G50" s="5"/>
+      <c r="H50" s="5"/>
+      <c r="I50" s="5"/>
+      <c r="J50" s="5"/>
+      <c r="K50" s="5"/>
+      <c r="L50" s="5"/>
+      <c r="M50" s="5"/>
+      <c r="N50" s="5"/>
+      <c r="O50" s="5"/>
+      <c r="P50" s="5"/>
+      <c r="Q50" s="5"/>
+      <c r="R50" s="5"/>
+      <c r="S50" s="5"/>
+      <c r="T50" s="5"/>
+    </row>
+    <row r="51" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A51" s="5"/>
+      <c r="B51" s="5"/>
+      <c r="C51" s="5"/>
+      <c r="D51" s="5"/>
+      <c r="E51" s="5"/>
+      <c r="F51" s="5"/>
+      <c r="G51" s="5"/>
+      <c r="H51" s="5"/>
+      <c r="I51" s="5"/>
+      <c r="J51" s="5"/>
+      <c r="K51" s="5"/>
+      <c r="L51" s="5"/>
+      <c r="M51" s="5"/>
+      <c r="N51" s="5"/>
+      <c r="O51" s="5"/>
+      <c r="P51" s="5"/>
+      <c r="Q51" s="5"/>
+      <c r="R51" s="5"/>
+      <c r="S51" s="5"/>
+      <c r="T51" s="5"/>
+    </row>
+    <row r="52" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A52" s="5"/>
+      <c r="B52" s="5"/>
+      <c r="C52" s="5"/>
+      <c r="D52" s="5"/>
+      <c r="E52" s="5"/>
+      <c r="F52" s="5"/>
+      <c r="G52" s="5"/>
+      <c r="H52" s="5"/>
+      <c r="I52" s="5"/>
+      <c r="J52" s="5"/>
+      <c r="K52" s="5"/>
+      <c r="L52" s="5"/>
+      <c r="M52" s="5"/>
+      <c r="N52" s="5"/>
+      <c r="O52" s="5"/>
+      <c r="P52" s="5"/>
+      <c r="Q52" s="5"/>
+      <c r="R52" s="5"/>
+      <c r="S52" s="5"/>
+      <c r="T52" s="5"/>
+    </row>
+    <row r="53" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A53" s="5"/>
+      <c r="B53" s="5"/>
+      <c r="C53" s="5"/>
+      <c r="D53" s="5"/>
+      <c r="E53" s="5"/>
+      <c r="F53" s="5"/>
+      <c r="G53" s="5"/>
+      <c r="H53" s="5"/>
+      <c r="I53" s="5"/>
+      <c r="J53" s="5"/>
+      <c r="K53" s="5"/>
+      <c r="L53" s="5"/>
+      <c r="M53" s="5"/>
+      <c r="N53" s="5"/>
+      <c r="O53" s="5"/>
+      <c r="P53" s="5"/>
+      <c r="Q53" s="5"/>
+      <c r="R53" s="5"/>
+      <c r="S53" s="5"/>
+      <c r="T53" s="5"/>
+    </row>
+    <row r="54" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A54" s="5"/>
+      <c r="B54" s="5"/>
+      <c r="C54" s="5"/>
+      <c r="D54" s="5"/>
+      <c r="E54" s="5"/>
+      <c r="F54" s="5"/>
+      <c r="G54" s="5"/>
+      <c r="H54" s="5"/>
+      <c r="I54" s="5"/>
+      <c r="J54" s="5"/>
+      <c r="K54" s="5"/>
+      <c r="L54" s="5"/>
+      <c r="M54" s="5"/>
+      <c r="N54" s="5"/>
+      <c r="O54" s="5"/>
+      <c r="P54" s="5"/>
+      <c r="Q54" s="5"/>
+      <c r="R54" s="5"/>
+      <c r="S54" s="5"/>
+      <c r="T54" s="5"/>
+    </row>
+    <row r="55" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A55" s="5"/>
+      <c r="B55" s="5"/>
+      <c r="C55" s="5"/>
+      <c r="D55" s="5"/>
+      <c r="E55" s="5"/>
+      <c r="F55" s="5"/>
+      <c r="G55" s="5"/>
+      <c r="H55" s="5"/>
+      <c r="I55" s="5"/>
+      <c r="J55" s="5"/>
+      <c r="K55" s="5"/>
+      <c r="L55" s="5"/>
+      <c r="M55" s="5"/>
+      <c r="N55" s="5"/>
+      <c r="O55" s="5"/>
+      <c r="P55" s="5"/>
+      <c r="Q55" s="5"/>
+      <c r="R55" s="5"/>
+      <c r="S55" s="5"/>
+      <c r="T55" s="5"/>
+    </row>
+    <row r="56" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A56" s="5"/>
+      <c r="B56" s="5"/>
+      <c r="C56" s="5"/>
+      <c r="D56" s="5"/>
+      <c r="E56" s="5"/>
+      <c r="F56" s="5"/>
+      <c r="G56" s="5"/>
+      <c r="H56" s="5"/>
+      <c r="I56" s="5"/>
+      <c r="J56" s="5"/>
+      <c r="K56" s="5"/>
+      <c r="L56" s="5"/>
+      <c r="M56" s="5"/>
+      <c r="N56" s="5"/>
+      <c r="O56" s="5"/>
+      <c r="P56" s="5"/>
+      <c r="Q56" s="5"/>
+      <c r="R56" s="5"/>
+      <c r="S56" s="5"/>
+      <c r="T56" s="5"/>
     </row>
   </sheetData>
   <mergeCells count="15">
-    <mergeCell ref="A1:B1"/>
-    <mergeCell ref="B17:D17"/>
-    <mergeCell ref="B18:D18"/>
-    <mergeCell ref="B19:D19"/>
-    <mergeCell ref="B20:D20"/>
     <mergeCell ref="G16:G21"/>
     <mergeCell ref="F2:F4"/>
     <mergeCell ref="G2:S2"/>
@@ -5150,6 +4749,11 @@
     <mergeCell ref="J16:J21"/>
     <mergeCell ref="K16:K21"/>
     <mergeCell ref="L16:L21"/>
+    <mergeCell ref="A1:B1"/>
+    <mergeCell ref="B17:D17"/>
+    <mergeCell ref="B18:D18"/>
+    <mergeCell ref="B19:D19"/>
+    <mergeCell ref="B20:D20"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>

--- a/lab3/Lab3-flu-yo.xlsx
+++ b/lab3/Lab3-flu-yo.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\USER\Desktop\LABFLUID\lab3\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1D05DB33-7AC9-4060-842C-BBBDEB93A686}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CB1C95B5-3144-48F1-9B23-A8817A1DE5E8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -280,18 +280,6 @@
     <xf numFmtId="187" fontId="0" fillId="7" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
@@ -305,6 +293,18 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
@@ -3174,8 +3174,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2FC29112-2AE5-DD4D-A7F0-10D3E464D529}">
   <dimension ref="A1:T56"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D1" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="E10" sqref="E10"/>
+    <sheetView tabSelected="1" topLeftCell="A4" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection activeCell="I23" sqref="I23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -3189,8 +3189,8 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A1" s="13"/>
-      <c r="B1" s="13"/>
+      <c r="A1" s="18"/>
+      <c r="B1" s="18"/>
       <c r="C1" s="5"/>
       <c r="D1" s="5"/>
       <c r="E1" s="5"/>
@@ -3222,24 +3222,24 @@
         <v>8</v>
       </c>
       <c r="E2" s="5"/>
-      <c r="F2" s="18" t="s">
+      <c r="F2" s="14" t="s">
         <v>11</v>
       </c>
-      <c r="G2" s="19" t="s">
+      <c r="G2" s="15" t="s">
         <v>12</v>
       </c>
-      <c r="H2" s="19"/>
-      <c r="I2" s="19"/>
-      <c r="J2" s="19"/>
-      <c r="K2" s="19"/>
-      <c r="L2" s="19"/>
-      <c r="M2" s="19"/>
-      <c r="N2" s="19"/>
-      <c r="O2" s="19"/>
-      <c r="P2" s="19"/>
-      <c r="Q2" s="19"/>
-      <c r="R2" s="19"/>
-      <c r="S2" s="19"/>
+      <c r="H2" s="15"/>
+      <c r="I2" s="15"/>
+      <c r="J2" s="15"/>
+      <c r="K2" s="15"/>
+      <c r="L2" s="15"/>
+      <c r="M2" s="15"/>
+      <c r="N2" s="15"/>
+      <c r="O2" s="15"/>
+      <c r="P2" s="15"/>
+      <c r="Q2" s="15"/>
+      <c r="R2" s="15"/>
+      <c r="S2" s="15"/>
       <c r="T2" s="5"/>
     </row>
     <row r="3" spans="1:20" x14ac:dyDescent="0.25">
@@ -3254,22 +3254,22 @@
         <v>9</v>
       </c>
       <c r="E3" s="5"/>
-      <c r="F3" s="18"/>
-      <c r="G3" s="20" t="s">
+      <c r="F3" s="14"/>
+      <c r="G3" s="16" t="s">
         <v>13</v>
       </c>
-      <c r="H3" s="20"/>
-      <c r="I3" s="20"/>
-      <c r="J3" s="20"/>
-      <c r="K3" s="20"/>
-      <c r="L3" s="20"/>
-      <c r="M3" s="20"/>
-      <c r="N3" s="20"/>
-      <c r="O3" s="20"/>
-      <c r="P3" s="20"/>
-      <c r="Q3" s="20"/>
-      <c r="R3" s="20"/>
-      <c r="S3" s="20"/>
+      <c r="H3" s="16"/>
+      <c r="I3" s="16"/>
+      <c r="J3" s="16"/>
+      <c r="K3" s="16"/>
+      <c r="L3" s="16"/>
+      <c r="M3" s="16"/>
+      <c r="N3" s="16"/>
+      <c r="O3" s="16"/>
+      <c r="P3" s="16"/>
+      <c r="Q3" s="16"/>
+      <c r="R3" s="16"/>
+      <c r="S3" s="16"/>
       <c r="T3" s="5"/>
     </row>
     <row r="4" spans="1:20" x14ac:dyDescent="0.25">
@@ -3284,7 +3284,7 @@
         <v>9</v>
       </c>
       <c r="E4" s="5"/>
-      <c r="F4" s="18"/>
+      <c r="F4" s="14"/>
       <c r="G4" s="3">
         <v>-45</v>
       </c>
@@ -3710,32 +3710,32 @@
     </row>
     <row r="16" spans="1:20" ht="13.8" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="5"/>
-      <c r="B16" s="21" t="s">
+      <c r="B16" s="17" t="s">
         <v>17</v>
       </c>
-      <c r="C16" s="21"/>
-      <c r="D16" s="21"/>
+      <c r="C16" s="17"/>
+      <c r="D16" s="17"/>
       <c r="E16" s="9">
         <f>(C8*(C7^3))/12</f>
         <v>230284296</v>
       </c>
       <c r="F16" s="5"/>
-      <c r="G16" s="17" t="s">
+      <c r="G16" s="13" t="s">
         <v>22</v>
       </c>
-      <c r="H16" s="17" t="s">
+      <c r="H16" s="13" t="s">
         <v>26</v>
       </c>
-      <c r="I16" s="17" t="s">
+      <c r="I16" s="13" t="s">
         <v>23</v>
       </c>
-      <c r="J16" s="17" t="s">
+      <c r="J16" s="13" t="s">
         <v>27</v>
       </c>
-      <c r="K16" s="17" t="s">
+      <c r="K16" s="13" t="s">
         <v>24</v>
       </c>
-      <c r="L16" s="17" t="s">
+      <c r="L16" s="13" t="s">
         <v>25</v>
       </c>
       <c r="M16" s="5"/>
@@ -3749,22 +3749,22 @@
     </row>
     <row r="17" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A17" s="5"/>
-      <c r="B17" s="14" t="s">
+      <c r="B17" s="19" t="s">
         <v>18</v>
       </c>
-      <c r="C17" s="15"/>
-      <c r="D17" s="16"/>
+      <c r="C17" s="20"/>
+      <c r="D17" s="21"/>
       <c r="E17" s="10">
         <f>C6*1000</f>
         <v>2926000</v>
       </c>
       <c r="F17" s="5"/>
-      <c r="G17" s="17"/>
-      <c r="H17" s="17"/>
-      <c r="I17" s="17"/>
-      <c r="J17" s="17"/>
-      <c r="K17" s="17"/>
-      <c r="L17" s="17"/>
+      <c r="G17" s="13"/>
+      <c r="H17" s="13"/>
+      <c r="I17" s="13"/>
+      <c r="J17" s="13"/>
+      <c r="K17" s="13"/>
+      <c r="L17" s="13"/>
       <c r="M17" s="5"/>
       <c r="N17" s="5"/>
       <c r="O17" s="5"/>
@@ -3776,22 +3776,22 @@
     </row>
     <row r="18" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A18" s="5"/>
-      <c r="B18" s="14" t="s">
+      <c r="B18" s="19" t="s">
         <v>19</v>
       </c>
-      <c r="C18" s="15"/>
-      <c r="D18" s="16"/>
+      <c r="C18" s="20"/>
+      <c r="D18" s="21"/>
       <c r="E18" s="11">
         <f>E16/E17</f>
         <v>78.702766917293232</v>
       </c>
       <c r="F18" s="5"/>
-      <c r="G18" s="17"/>
-      <c r="H18" s="17"/>
-      <c r="I18" s="17"/>
-      <c r="J18" s="17"/>
-      <c r="K18" s="17"/>
-      <c r="L18" s="17"/>
+      <c r="G18" s="13"/>
+      <c r="H18" s="13"/>
+      <c r="I18" s="13"/>
+      <c r="J18" s="13"/>
+      <c r="K18" s="13"/>
+      <c r="L18" s="13"/>
       <c r="M18" s="5"/>
       <c r="N18" s="5"/>
       <c r="O18" s="5"/>
@@ -3803,22 +3803,22 @@
     </row>
     <row r="19" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A19" s="5"/>
-      <c r="B19" s="14" t="s">
+      <c r="B19" s="19" t="s">
         <v>20</v>
       </c>
-      <c r="C19" s="15"/>
-      <c r="D19" s="16"/>
+      <c r="C19" s="20"/>
+      <c r="D19" s="21"/>
       <c r="E19" s="11">
         <f>E17/(C8*C7)</f>
         <v>41.510611735330833</v>
       </c>
       <c r="F19" s="5"/>
-      <c r="G19" s="17"/>
-      <c r="H19" s="17"/>
-      <c r="I19" s="17"/>
-      <c r="J19" s="17"/>
-      <c r="K19" s="17"/>
-      <c r="L19" s="17"/>
+      <c r="G19" s="13"/>
+      <c r="H19" s="13"/>
+      <c r="I19" s="13"/>
+      <c r="J19" s="13"/>
+      <c r="K19" s="13"/>
+      <c r="L19" s="13"/>
       <c r="M19" s="5"/>
       <c r="N19" s="5"/>
       <c r="O19" s="5"/>
@@ -3830,22 +3830,22 @@
     </row>
     <row r="20" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A20" s="5"/>
-      <c r="B20" s="14" t="s">
+      <c r="B20" s="19" t="s">
         <v>21</v>
       </c>
-      <c r="C20" s="15"/>
-      <c r="D20" s="16"/>
+      <c r="C20" s="20"/>
+      <c r="D20" s="21"/>
       <c r="E20" s="11">
         <f>E19*0.5</f>
         <v>20.755305867665417</v>
       </c>
       <c r="F20" s="5"/>
-      <c r="G20" s="17"/>
-      <c r="H20" s="17"/>
-      <c r="I20" s="17"/>
-      <c r="J20" s="17"/>
-      <c r="K20" s="17"/>
-      <c r="L20" s="17"/>
+      <c r="G20" s="13"/>
+      <c r="H20" s="13"/>
+      <c r="I20" s="13"/>
+      <c r="J20" s="13"/>
+      <c r="K20" s="13"/>
+      <c r="L20" s="13"/>
       <c r="M20" s="5"/>
       <c r="N20" s="5"/>
       <c r="O20" s="5"/>
@@ -3862,12 +3862,12 @@
       <c r="D21" s="5"/>
       <c r="E21" s="5"/>
       <c r="F21" s="5"/>
-      <c r="G21" s="17"/>
-      <c r="H21" s="17"/>
-      <c r="I21" s="17"/>
-      <c r="J21" s="17"/>
-      <c r="K21" s="17"/>
-      <c r="L21" s="17"/>
+      <c r="G21" s="13"/>
+      <c r="H21" s="13"/>
+      <c r="I21" s="13"/>
+      <c r="J21" s="13"/>
+      <c r="K21" s="13"/>
+      <c r="L21" s="13"/>
       <c r="M21" s="5"/>
       <c r="N21" s="5"/>
       <c r="O21" s="5"/>
@@ -4739,6 +4739,11 @@
     </row>
   </sheetData>
   <mergeCells count="15">
+    <mergeCell ref="A1:B1"/>
+    <mergeCell ref="B17:D17"/>
+    <mergeCell ref="B18:D18"/>
+    <mergeCell ref="B19:D19"/>
+    <mergeCell ref="B20:D20"/>
     <mergeCell ref="G16:G21"/>
     <mergeCell ref="F2:F4"/>
     <mergeCell ref="G2:S2"/>
@@ -4749,11 +4754,6 @@
     <mergeCell ref="J16:J21"/>
     <mergeCell ref="K16:K21"/>
     <mergeCell ref="L16:L21"/>
-    <mergeCell ref="A1:B1"/>
-    <mergeCell ref="B17:D17"/>
-    <mergeCell ref="B18:D18"/>
-    <mergeCell ref="B19:D19"/>
-    <mergeCell ref="B20:D20"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>

--- a/lab3/Lab3-flu-yo.xlsx
+++ b/lab3/Lab3-flu-yo.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\USER\Desktop\LABFLUID\lab3\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CB1C95B5-3144-48F1-9B23-A8817A1DE5E8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6097A350-7968-4413-AF88-574C962464DA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -280,6 +280,18 @@
     <xf numFmtId="187" fontId="0" fillId="7" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
@@ -293,18 +305,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1535,6 +1535,20 @@
             <a:effectLst/>
           </c:spPr>
         </c:majorGridlines>
+        <c:minorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="5000"/>
+                  <a:lumOff val="95000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:minorGridlines>
         <c:numFmt formatCode="0.000" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
@@ -1600,6 +1614,20 @@
             <a:effectLst/>
           </c:spPr>
         </c:majorGridlines>
+        <c:minorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="5000"/>
+                  <a:lumOff val="95000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:minorGridlines>
         <c:numFmt formatCode="0.000" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
@@ -2803,15 +2831,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>0</xdr:col>
-      <xdr:colOff>381000</xdr:colOff>
-      <xdr:row>26</xdr:row>
-      <xdr:rowOff>137160</xdr:rowOff>
+      <xdr:colOff>243840</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>167640</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>998220</xdr:colOff>
       <xdr:row>54</xdr:row>
-      <xdr:rowOff>38100</xdr:rowOff>
+      <xdr:rowOff>83820</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -2838,16 +2866,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>598170</xdr:colOff>
-      <xdr:row>29</xdr:row>
-      <xdr:rowOff>167640</xdr:rowOff>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>95250</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>137160</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>16</xdr:col>
-      <xdr:colOff>247650</xdr:colOff>
-      <xdr:row>50</xdr:row>
-      <xdr:rowOff>22860</xdr:rowOff>
+      <xdr:colOff>243840</xdr:colOff>
+      <xdr:row>54</xdr:row>
+      <xdr:rowOff>53340</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -3174,8 +3202,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2FC29112-2AE5-DD4D-A7F0-10D3E464D529}">
   <dimension ref="A1:T56"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="I23" sqref="I23"/>
+    <sheetView tabSelected="1" topLeftCell="G32" zoomScale="190" zoomScaleNormal="190" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection activeCell="P58" sqref="P58"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -3189,8 +3217,8 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A1" s="18"/>
-      <c r="B1" s="18"/>
+      <c r="A1" s="13"/>
+      <c r="B1" s="13"/>
       <c r="C1" s="5"/>
       <c r="D1" s="5"/>
       <c r="E1" s="5"/>
@@ -3222,24 +3250,24 @@
         <v>8</v>
       </c>
       <c r="E2" s="5"/>
-      <c r="F2" s="14" t="s">
+      <c r="F2" s="18" t="s">
         <v>11</v>
       </c>
-      <c r="G2" s="15" t="s">
+      <c r="G2" s="19" t="s">
         <v>12</v>
       </c>
-      <c r="H2" s="15"/>
-      <c r="I2" s="15"/>
-      <c r="J2" s="15"/>
-      <c r="K2" s="15"/>
-      <c r="L2" s="15"/>
-      <c r="M2" s="15"/>
-      <c r="N2" s="15"/>
-      <c r="O2" s="15"/>
-      <c r="P2" s="15"/>
-      <c r="Q2" s="15"/>
-      <c r="R2" s="15"/>
-      <c r="S2" s="15"/>
+      <c r="H2" s="19"/>
+      <c r="I2" s="19"/>
+      <c r="J2" s="19"/>
+      <c r="K2" s="19"/>
+      <c r="L2" s="19"/>
+      <c r="M2" s="19"/>
+      <c r="N2" s="19"/>
+      <c r="O2" s="19"/>
+      <c r="P2" s="19"/>
+      <c r="Q2" s="19"/>
+      <c r="R2" s="19"/>
+      <c r="S2" s="19"/>
       <c r="T2" s="5"/>
     </row>
     <row r="3" spans="1:20" x14ac:dyDescent="0.25">
@@ -3254,22 +3282,22 @@
         <v>9</v>
       </c>
       <c r="E3" s="5"/>
-      <c r="F3" s="14"/>
-      <c r="G3" s="16" t="s">
+      <c r="F3" s="18"/>
+      <c r="G3" s="20" t="s">
         <v>13</v>
       </c>
-      <c r="H3" s="16"/>
-      <c r="I3" s="16"/>
-      <c r="J3" s="16"/>
-      <c r="K3" s="16"/>
-      <c r="L3" s="16"/>
-      <c r="M3" s="16"/>
-      <c r="N3" s="16"/>
-      <c r="O3" s="16"/>
-      <c r="P3" s="16"/>
-      <c r="Q3" s="16"/>
-      <c r="R3" s="16"/>
-      <c r="S3" s="16"/>
+      <c r="H3" s="20"/>
+      <c r="I3" s="20"/>
+      <c r="J3" s="20"/>
+      <c r="K3" s="20"/>
+      <c r="L3" s="20"/>
+      <c r="M3" s="20"/>
+      <c r="N3" s="20"/>
+      <c r="O3" s="20"/>
+      <c r="P3" s="20"/>
+      <c r="Q3" s="20"/>
+      <c r="R3" s="20"/>
+      <c r="S3" s="20"/>
       <c r="T3" s="5"/>
     </row>
     <row r="4" spans="1:20" x14ac:dyDescent="0.25">
@@ -3284,7 +3312,7 @@
         <v>9</v>
       </c>
       <c r="E4" s="5"/>
-      <c r="F4" s="14"/>
+      <c r="F4" s="18"/>
       <c r="G4" s="3">
         <v>-45</v>
       </c>
@@ -3710,32 +3738,32 @@
     </row>
     <row r="16" spans="1:20" ht="13.8" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="5"/>
-      <c r="B16" s="17" t="s">
+      <c r="B16" s="21" t="s">
         <v>17</v>
       </c>
-      <c r="C16" s="17"/>
-      <c r="D16" s="17"/>
+      <c r="C16" s="21"/>
+      <c r="D16" s="21"/>
       <c r="E16" s="9">
         <f>(C8*(C7^3))/12</f>
         <v>230284296</v>
       </c>
       <c r="F16" s="5"/>
-      <c r="G16" s="13" t="s">
+      <c r="G16" s="17" t="s">
         <v>22</v>
       </c>
-      <c r="H16" s="13" t="s">
+      <c r="H16" s="17" t="s">
         <v>26</v>
       </c>
-      <c r="I16" s="13" t="s">
+      <c r="I16" s="17" t="s">
         <v>23</v>
       </c>
-      <c r="J16" s="13" t="s">
+      <c r="J16" s="17" t="s">
         <v>27</v>
       </c>
-      <c r="K16" s="13" t="s">
+      <c r="K16" s="17" t="s">
         <v>24</v>
       </c>
-      <c r="L16" s="13" t="s">
+      <c r="L16" s="17" t="s">
         <v>25</v>
       </c>
       <c r="M16" s="5"/>
@@ -3749,22 +3777,22 @@
     </row>
     <row r="17" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A17" s="5"/>
-      <c r="B17" s="19" t="s">
+      <c r="B17" s="14" t="s">
         <v>18</v>
       </c>
-      <c r="C17" s="20"/>
-      <c r="D17" s="21"/>
+      <c r="C17" s="15"/>
+      <c r="D17" s="16"/>
       <c r="E17" s="10">
         <f>C6*1000</f>
         <v>2926000</v>
       </c>
       <c r="F17" s="5"/>
-      <c r="G17" s="13"/>
-      <c r="H17" s="13"/>
-      <c r="I17" s="13"/>
-      <c r="J17" s="13"/>
-      <c r="K17" s="13"/>
-      <c r="L17" s="13"/>
+      <c r="G17" s="17"/>
+      <c r="H17" s="17"/>
+      <c r="I17" s="17"/>
+      <c r="J17" s="17"/>
+      <c r="K17" s="17"/>
+      <c r="L17" s="17"/>
       <c r="M17" s="5"/>
       <c r="N17" s="5"/>
       <c r="O17" s="5"/>
@@ -3776,22 +3804,22 @@
     </row>
     <row r="18" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A18" s="5"/>
-      <c r="B18" s="19" t="s">
+      <c r="B18" s="14" t="s">
         <v>19</v>
       </c>
-      <c r="C18" s="20"/>
-      <c r="D18" s="21"/>
+      <c r="C18" s="15"/>
+      <c r="D18" s="16"/>
       <c r="E18" s="11">
         <f>E16/E17</f>
         <v>78.702766917293232</v>
       </c>
       <c r="F18" s="5"/>
-      <c r="G18" s="13"/>
-      <c r="H18" s="13"/>
-      <c r="I18" s="13"/>
-      <c r="J18" s="13"/>
-      <c r="K18" s="13"/>
-      <c r="L18" s="13"/>
+      <c r="G18" s="17"/>
+      <c r="H18" s="17"/>
+      <c r="I18" s="17"/>
+      <c r="J18" s="17"/>
+      <c r="K18" s="17"/>
+      <c r="L18" s="17"/>
       <c r="M18" s="5"/>
       <c r="N18" s="5"/>
       <c r="O18" s="5"/>
@@ -3803,22 +3831,22 @@
     </row>
     <row r="19" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A19" s="5"/>
-      <c r="B19" s="19" t="s">
+      <c r="B19" s="14" t="s">
         <v>20</v>
       </c>
-      <c r="C19" s="20"/>
-      <c r="D19" s="21"/>
+      <c r="C19" s="15"/>
+      <c r="D19" s="16"/>
       <c r="E19" s="11">
         <f>E17/(C8*C7)</f>
         <v>41.510611735330833</v>
       </c>
       <c r="F19" s="5"/>
-      <c r="G19" s="13"/>
-      <c r="H19" s="13"/>
-      <c r="I19" s="13"/>
-      <c r="J19" s="13"/>
-      <c r="K19" s="13"/>
-      <c r="L19" s="13"/>
+      <c r="G19" s="17"/>
+      <c r="H19" s="17"/>
+      <c r="I19" s="17"/>
+      <c r="J19" s="17"/>
+      <c r="K19" s="17"/>
+      <c r="L19" s="17"/>
       <c r="M19" s="5"/>
       <c r="N19" s="5"/>
       <c r="O19" s="5"/>
@@ -3830,22 +3858,22 @@
     </row>
     <row r="20" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A20" s="5"/>
-      <c r="B20" s="19" t="s">
+      <c r="B20" s="14" t="s">
         <v>21</v>
       </c>
-      <c r="C20" s="20"/>
-      <c r="D20" s="21"/>
+      <c r="C20" s="15"/>
+      <c r="D20" s="16"/>
       <c r="E20" s="11">
         <f>E19*0.5</f>
         <v>20.755305867665417</v>
       </c>
       <c r="F20" s="5"/>
-      <c r="G20" s="13"/>
-      <c r="H20" s="13"/>
-      <c r="I20" s="13"/>
-      <c r="J20" s="13"/>
-      <c r="K20" s="13"/>
-      <c r="L20" s="13"/>
+      <c r="G20" s="17"/>
+      <c r="H20" s="17"/>
+      <c r="I20" s="17"/>
+      <c r="J20" s="17"/>
+      <c r="K20" s="17"/>
+      <c r="L20" s="17"/>
       <c r="M20" s="5"/>
       <c r="N20" s="5"/>
       <c r="O20" s="5"/>
@@ -3862,12 +3890,12 @@
       <c r="D21" s="5"/>
       <c r="E21" s="5"/>
       <c r="F21" s="5"/>
-      <c r="G21" s="13"/>
-      <c r="H21" s="13"/>
-      <c r="I21" s="13"/>
-      <c r="J21" s="13"/>
-      <c r="K21" s="13"/>
-      <c r="L21" s="13"/>
+      <c r="G21" s="17"/>
+      <c r="H21" s="17"/>
+      <c r="I21" s="17"/>
+      <c r="J21" s="17"/>
+      <c r="K21" s="17"/>
+      <c r="L21" s="17"/>
       <c r="M21" s="5"/>
       <c r="N21" s="5"/>
       <c r="O21" s="5"/>
@@ -4739,11 +4767,6 @@
     </row>
   </sheetData>
   <mergeCells count="15">
-    <mergeCell ref="A1:B1"/>
-    <mergeCell ref="B17:D17"/>
-    <mergeCell ref="B18:D18"/>
-    <mergeCell ref="B19:D19"/>
-    <mergeCell ref="B20:D20"/>
     <mergeCell ref="G16:G21"/>
     <mergeCell ref="F2:F4"/>
     <mergeCell ref="G2:S2"/>
@@ -4754,6 +4777,11 @@
     <mergeCell ref="J16:J21"/>
     <mergeCell ref="K16:K21"/>
     <mergeCell ref="L16:L21"/>
+    <mergeCell ref="A1:B1"/>
+    <mergeCell ref="B17:D17"/>
+    <mergeCell ref="B18:D18"/>
+    <mergeCell ref="B19:D19"/>
+    <mergeCell ref="B20:D20"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>

--- a/lab3/Lab3-flu-yo.xlsx
+++ b/lab3/Lab3-flu-yo.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\USER\Desktop\LABFLUID\lab3\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6097A350-7968-4413-AF88-574C962464DA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A3FA448C-C819-40AA-AE6E-8FB43FB215AD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -280,18 +280,6 @@
     <xf numFmtId="187" fontId="0" fillId="7" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
@@ -307,9 +295,21 @@
     <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="ปกติ" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -327,7 +327,7 @@
 <file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
-  <c:lang val="en-US"/>
+  <c:lang val="th-TH"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -720,12 +720,10 @@
             <c:size val="5"/>
             <c:spPr>
               <a:solidFill>
-                <a:schemeClr val="accent3"/>
+                <a:srgbClr val="00B050"/>
               </a:solidFill>
               <a:ln w="9525">
-                <a:solidFill>
-                  <a:schemeClr val="accent3"/>
-                </a:solidFill>
+                <a:noFill/>
               </a:ln>
               <a:effectLst/>
             </c:spPr>
@@ -808,7 +806,7 @@
                   <c:v>3.5</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>3.6</c:v>
+                  <c:v>5.6</c:v>
                 </c:pt>
                 <c:pt idx="8">
                   <c:v>7.4</c:v>
@@ -849,7 +847,7 @@
             <c:size val="5"/>
             <c:spPr>
               <a:solidFill>
-                <a:schemeClr val="accent4"/>
+                <a:srgbClr val="FF0000"/>
               </a:solidFill>
               <a:ln w="9525">
                 <a:solidFill>
@@ -966,7 +964,7 @@
             <c:size val="5"/>
             <c:spPr>
               <a:solidFill>
-                <a:schemeClr val="accent5"/>
+                <a:schemeClr val="tx1"/>
               </a:solidFill>
               <a:ln w="9525">
                 <a:solidFill>
@@ -1298,7 +1296,7 @@
 <file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
-  <c:lang val="en-US"/>
+  <c:lang val="th-TH"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -2904,7 +2902,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="ธีมของ Office">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -3202,8 +3200,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2FC29112-2AE5-DD4D-A7F0-10D3E464D529}">
   <dimension ref="A1:T56"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="G32" zoomScale="190" zoomScaleNormal="190" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="P58" sqref="P58"/>
+    <sheetView tabSelected="1" topLeftCell="A22" zoomScale="115" zoomScaleNormal="115" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection activeCell="G49" sqref="G49:G50"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -3217,8 +3215,8 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A1" s="13"/>
-      <c r="B1" s="13"/>
+      <c r="A1" s="18"/>
+      <c r="B1" s="18"/>
       <c r="C1" s="5"/>
       <c r="D1" s="5"/>
       <c r="E1" s="5"/>
@@ -3250,24 +3248,24 @@
         <v>8</v>
       </c>
       <c r="E2" s="5"/>
-      <c r="F2" s="18" t="s">
+      <c r="F2" s="14" t="s">
         <v>11</v>
       </c>
-      <c r="G2" s="19" t="s">
+      <c r="G2" s="15" t="s">
         <v>12</v>
       </c>
-      <c r="H2" s="19"/>
-      <c r="I2" s="19"/>
-      <c r="J2" s="19"/>
-      <c r="K2" s="19"/>
-      <c r="L2" s="19"/>
-      <c r="M2" s="19"/>
-      <c r="N2" s="19"/>
-      <c r="O2" s="19"/>
-      <c r="P2" s="19"/>
-      <c r="Q2" s="19"/>
-      <c r="R2" s="19"/>
-      <c r="S2" s="19"/>
+      <c r="H2" s="15"/>
+      <c r="I2" s="15"/>
+      <c r="J2" s="15"/>
+      <c r="K2" s="15"/>
+      <c r="L2" s="15"/>
+      <c r="M2" s="15"/>
+      <c r="N2" s="15"/>
+      <c r="O2" s="15"/>
+      <c r="P2" s="15"/>
+      <c r="Q2" s="15"/>
+      <c r="R2" s="15"/>
+      <c r="S2" s="15"/>
       <c r="T2" s="5"/>
     </row>
     <row r="3" spans="1:20" x14ac:dyDescent="0.25">
@@ -3282,22 +3280,22 @@
         <v>9</v>
       </c>
       <c r="E3" s="5"/>
-      <c r="F3" s="18"/>
-      <c r="G3" s="20" t="s">
+      <c r="F3" s="14"/>
+      <c r="G3" s="16" t="s">
         <v>13</v>
       </c>
-      <c r="H3" s="20"/>
-      <c r="I3" s="20"/>
-      <c r="J3" s="20"/>
-      <c r="K3" s="20"/>
-      <c r="L3" s="20"/>
-      <c r="M3" s="20"/>
-      <c r="N3" s="20"/>
-      <c r="O3" s="20"/>
-      <c r="P3" s="20"/>
-      <c r="Q3" s="20"/>
-      <c r="R3" s="20"/>
-      <c r="S3" s="20"/>
+      <c r="H3" s="16"/>
+      <c r="I3" s="16"/>
+      <c r="J3" s="16"/>
+      <c r="K3" s="16"/>
+      <c r="L3" s="16"/>
+      <c r="M3" s="16"/>
+      <c r="N3" s="16"/>
+      <c r="O3" s="16"/>
+      <c r="P3" s="16"/>
+      <c r="Q3" s="16"/>
+      <c r="R3" s="16"/>
+      <c r="S3" s="16"/>
       <c r="T3" s="5"/>
     </row>
     <row r="4" spans="1:20" x14ac:dyDescent="0.25">
@@ -3312,7 +3310,7 @@
         <v>9</v>
       </c>
       <c r="E4" s="5"/>
-      <c r="F4" s="18"/>
+      <c r="F4" s="14"/>
       <c r="G4" s="3">
         <v>-45</v>
       </c>
@@ -3501,7 +3499,7 @@
         <v>3.5</v>
       </c>
       <c r="P7" s="4">
-        <v>3.6</v>
+        <v>5.6</v>
       </c>
       <c r="Q7" s="4">
         <v>7.4</v>
@@ -3738,32 +3736,32 @@
     </row>
     <row r="16" spans="1:20" ht="13.8" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="5"/>
-      <c r="B16" s="21" t="s">
+      <c r="B16" s="17" t="s">
         <v>17</v>
       </c>
-      <c r="C16" s="21"/>
-      <c r="D16" s="21"/>
+      <c r="C16" s="17"/>
+      <c r="D16" s="17"/>
       <c r="E16" s="9">
         <f>(C8*(C7^3))/12</f>
         <v>230284296</v>
       </c>
       <c r="F16" s="5"/>
-      <c r="G16" s="17" t="s">
+      <c r="G16" s="13" t="s">
         <v>22</v>
       </c>
-      <c r="H16" s="17" t="s">
+      <c r="H16" s="13" t="s">
         <v>26</v>
       </c>
-      <c r="I16" s="17" t="s">
+      <c r="I16" s="13" t="s">
         <v>23</v>
       </c>
-      <c r="J16" s="17" t="s">
+      <c r="J16" s="13" t="s">
         <v>27</v>
       </c>
-      <c r="K16" s="17" t="s">
+      <c r="K16" s="13" t="s">
         <v>24</v>
       </c>
-      <c r="L16" s="17" t="s">
+      <c r="L16" s="13" t="s">
         <v>25</v>
       </c>
       <c r="M16" s="5"/>
@@ -3777,22 +3775,22 @@
     </row>
     <row r="17" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A17" s="5"/>
-      <c r="B17" s="14" t="s">
+      <c r="B17" s="19" t="s">
         <v>18</v>
       </c>
-      <c r="C17" s="15"/>
-      <c r="D17" s="16"/>
+      <c r="C17" s="20"/>
+      <c r="D17" s="21"/>
       <c r="E17" s="10">
         <f>C6*1000</f>
         <v>2926000</v>
       </c>
       <c r="F17" s="5"/>
-      <c r="G17" s="17"/>
-      <c r="H17" s="17"/>
-      <c r="I17" s="17"/>
-      <c r="J17" s="17"/>
-      <c r="K17" s="17"/>
-      <c r="L17" s="17"/>
+      <c r="G17" s="13"/>
+      <c r="H17" s="13"/>
+      <c r="I17" s="13"/>
+      <c r="J17" s="13"/>
+      <c r="K17" s="13"/>
+      <c r="L17" s="13"/>
       <c r="M17" s="5"/>
       <c r="N17" s="5"/>
       <c r="O17" s="5"/>
@@ -3804,22 +3802,22 @@
     </row>
     <row r="18" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A18" s="5"/>
-      <c r="B18" s="14" t="s">
+      <c r="B18" s="19" t="s">
         <v>19</v>
       </c>
-      <c r="C18" s="15"/>
-      <c r="D18" s="16"/>
+      <c r="C18" s="20"/>
+      <c r="D18" s="21"/>
       <c r="E18" s="11">
         <f>E16/E17</f>
         <v>78.702766917293232</v>
       </c>
       <c r="F18" s="5"/>
-      <c r="G18" s="17"/>
-      <c r="H18" s="17"/>
-      <c r="I18" s="17"/>
-      <c r="J18" s="17"/>
-      <c r="K18" s="17"/>
-      <c r="L18" s="17"/>
+      <c r="G18" s="13"/>
+      <c r="H18" s="13"/>
+      <c r="I18" s="13"/>
+      <c r="J18" s="13"/>
+      <c r="K18" s="13"/>
+      <c r="L18" s="13"/>
       <c r="M18" s="5"/>
       <c r="N18" s="5"/>
       <c r="O18" s="5"/>
@@ -3831,22 +3829,22 @@
     </row>
     <row r="19" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A19" s="5"/>
-      <c r="B19" s="14" t="s">
+      <c r="B19" s="19" t="s">
         <v>20</v>
       </c>
-      <c r="C19" s="15"/>
-      <c r="D19" s="16"/>
+      <c r="C19" s="20"/>
+      <c r="D19" s="21"/>
       <c r="E19" s="11">
         <f>E17/(C8*C7)</f>
         <v>41.510611735330833</v>
       </c>
       <c r="F19" s="5"/>
-      <c r="G19" s="17"/>
-      <c r="H19" s="17"/>
-      <c r="I19" s="17"/>
-      <c r="J19" s="17"/>
-      <c r="K19" s="17"/>
-      <c r="L19" s="17"/>
+      <c r="G19" s="13"/>
+      <c r="H19" s="13"/>
+      <c r="I19" s="13"/>
+      <c r="J19" s="13"/>
+      <c r="K19" s="13"/>
+      <c r="L19" s="13"/>
       <c r="M19" s="5"/>
       <c r="N19" s="5"/>
       <c r="O19" s="5"/>
@@ -3858,22 +3856,22 @@
     </row>
     <row r="20" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A20" s="5"/>
-      <c r="B20" s="14" t="s">
+      <c r="B20" s="19" t="s">
         <v>21</v>
       </c>
-      <c r="C20" s="15"/>
-      <c r="D20" s="16"/>
+      <c r="C20" s="20"/>
+      <c r="D20" s="21"/>
       <c r="E20" s="11">
         <f>E19*0.5</f>
         <v>20.755305867665417</v>
       </c>
       <c r="F20" s="5"/>
-      <c r="G20" s="17"/>
-      <c r="H20" s="17"/>
-      <c r="I20" s="17"/>
-      <c r="J20" s="17"/>
-      <c r="K20" s="17"/>
-      <c r="L20" s="17"/>
+      <c r="G20" s="13"/>
+      <c r="H20" s="13"/>
+      <c r="I20" s="13"/>
+      <c r="J20" s="13"/>
+      <c r="K20" s="13"/>
+      <c r="L20" s="13"/>
       <c r="M20" s="5"/>
       <c r="N20" s="5"/>
       <c r="O20" s="5"/>
@@ -3890,12 +3888,12 @@
       <c r="D21" s="5"/>
       <c r="E21" s="5"/>
       <c r="F21" s="5"/>
-      <c r="G21" s="17"/>
-      <c r="H21" s="17"/>
-      <c r="I21" s="17"/>
-      <c r="J21" s="17"/>
-      <c r="K21" s="17"/>
-      <c r="L21" s="17"/>
+      <c r="G21" s="13"/>
+      <c r="H21" s="13"/>
+      <c r="I21" s="13"/>
+      <c r="J21" s="13"/>
+      <c r="K21" s="13"/>
+      <c r="L21" s="13"/>
       <c r="M21" s="5"/>
       <c r="N21" s="5"/>
       <c r="O21" s="5"/>
@@ -4767,6 +4765,11 @@
     </row>
   </sheetData>
   <mergeCells count="15">
+    <mergeCell ref="A1:B1"/>
+    <mergeCell ref="B17:D17"/>
+    <mergeCell ref="B18:D18"/>
+    <mergeCell ref="B19:D19"/>
+    <mergeCell ref="B20:D20"/>
     <mergeCell ref="G16:G21"/>
     <mergeCell ref="F2:F4"/>
     <mergeCell ref="G2:S2"/>
@@ -4777,11 +4780,6 @@
     <mergeCell ref="J16:J21"/>
     <mergeCell ref="K16:K21"/>
     <mergeCell ref="L16:L21"/>
-    <mergeCell ref="A1:B1"/>
-    <mergeCell ref="B17:D17"/>
-    <mergeCell ref="B18:D18"/>
-    <mergeCell ref="B19:D19"/>
-    <mergeCell ref="B20:D20"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
